--- a/data/BerlinMitteCenter/BMC_creation.xlsx
+++ b/data/BerlinMitteCenter/BMC_creation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Documents/NetbeansProjects/DNDP/data/BerlinMitteCenter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Documents/NetbeansProjects/CNDP/data/BerlinMitteCenter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830F7E5C-88CF-0940-9EBD-23F003719137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096313C0-9E12-EC44-BDF8-A3E6EB20F402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1560" windowWidth="27640" windowHeight="16440" xr2:uid="{110A80F3-7218-074D-A049-789496483851}"/>
   </bookViews>
@@ -522,7 +522,7 @@
   <dimension ref="A1:Q880"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection sqref="A1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <f ca="1">IF(COUNTIF(P$10:P$69, Q10)&gt;0, RAND()*3, 0)</f>
+        <f ca="1">IF(COUNTIF(P$10:P$29, Q10)&gt;0, RAND()*3, 0)</f>
         <v>0</v>
       </c>
       <c r="M10" t="s">
@@ -668,7 +668,7 @@
       </c>
       <c r="Q10" cm="1">
         <f t="array" aca="1" ref="Q10:Q880" ca="1">_xlfn.SORTBY(_xlfn.SEQUENCE(871),_xlfn.RANDARRAY(871))</f>
-        <v>640</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -703,8 +703,8 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <f t="shared" ref="L11:L74" ca="1" si="0">IF(COUNTIF(P$10:P$69, Q11)&gt;0, RAND()*3, 0)</f>
-        <v>1.1054129003772304</v>
+        <f t="shared" ref="L11:L74" ca="1" si="0">IF(COUNTIF(P$10:P$29, Q11)&gt;0, RAND()*3, 0)</f>
+        <v>0</v>
       </c>
       <c r="M11" t="s">
         <v>14</v>
@@ -715,7 +715,7 @@
       </c>
       <c r="Q11">
         <f ca="1"/>
-        <v>8</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -751,7 +751,7 @@
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.5597974611175776</v>
       </c>
       <c r="M12" t="s">
         <v>14</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="Q12">
         <f ca="1"/>
-        <v>329</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -809,7 +809,7 @@
       </c>
       <c r="Q13">
         <f ca="1"/>
-        <v>769</v>
+        <v>715</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -856,7 +856,7 @@
       </c>
       <c r="Q14">
         <f ca="1"/>
-        <v>451</v>
+        <v>735</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -903,7 +903,7 @@
       </c>
       <c r="Q15">
         <f ca="1"/>
-        <v>840</v>
+        <v>713</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -950,7 +950,7 @@
       </c>
       <c r="Q16">
         <f ca="1"/>
-        <v>668</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -997,7 +997,7 @@
       </c>
       <c r="Q17">
         <f ca="1"/>
-        <v>172</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="Q18">
         <f ca="1"/>
-        <v>287</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="Q19">
         <f ca="1"/>
-        <v>598</v>
+        <v>738</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -1138,7 +1138,7 @@
       </c>
       <c r="Q20">
         <f ca="1"/>
-        <v>788</v>
+        <v>410</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="Q21">
         <f ca="1"/>
-        <v>562</v>
+        <v>472</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="Q22">
         <f ca="1"/>
-        <v>664</v>
+        <v>492</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="Q23">
         <f ca="1"/>
-        <v>194</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="Q24">
         <f ca="1"/>
-        <v>444</v>
+        <v>641</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="Q25">
         <f ca="1"/>
-        <v>871</v>
+        <v>756</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
@@ -1420,7 +1420,7 @@
       </c>
       <c r="Q26">
         <f ca="1"/>
-        <v>67</v>
+        <v>588</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="Q27">
         <f ca="1"/>
-        <v>372</v>
+        <v>441</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="L28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49540825672717503</v>
+        <v>0</v>
       </c>
       <c r="M28" t="s">
         <v>14</v>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="Q28">
         <f ca="1"/>
-        <v>34</v>
+        <v>416</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="Q29">
         <f ca="1"/>
-        <v>334</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="L30">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2.9919280735621752</v>
       </c>
       <c r="M30" t="s">
         <v>14</v>
@@ -1608,7 +1608,7 @@
       </c>
       <c r="Q30">
         <f ca="1"/>
-        <v>276</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -1655,7 +1655,7 @@
       </c>
       <c r="Q31">
         <f ca="1"/>
-        <v>407</v>
+        <v>832</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -1702,7 +1702,7 @@
       </c>
       <c r="Q32">
         <f ca="1"/>
-        <v>325</v>
+        <v>766</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="Q33">
         <f ca="1"/>
-        <v>307</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="Q34">
         <f ca="1"/>
-        <v>321</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="Q35">
         <f ca="1"/>
-        <v>670</v>
+        <v>587</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="Q36">
         <f ca="1"/>
-        <v>563</v>
+        <v>700</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
@@ -1937,7 +1937,7 @@
       </c>
       <c r="Q37">
         <f ca="1"/>
-        <v>849</v>
+        <v>274</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
@@ -1984,7 +1984,7 @@
       </c>
       <c r="Q38">
         <f ca="1"/>
-        <v>667</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="Q39">
         <f ca="1"/>
-        <v>411</v>
+        <v>380</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="Q40">
         <f ca="1"/>
-        <v>146</v>
+        <v>650</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="Q41">
         <f ca="1"/>
-        <v>799</v>
+        <v>352</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
@@ -2161,7 +2161,7 @@
       </c>
       <c r="L42">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>0.78887395873590527</v>
       </c>
       <c r="M42" t="s">
         <v>14</v>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="Q42">
         <f ca="1"/>
-        <v>546</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
@@ -2208,7 +2208,7 @@
       </c>
       <c r="L43">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4311986100584044</v>
+        <v>0</v>
       </c>
       <c r="M43" t="s">
         <v>14</v>
@@ -2219,7 +2219,7 @@
       </c>
       <c r="Q43">
         <f ca="1"/>
-        <v>20</v>
+        <v>337</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
@@ -2266,7 +2266,7 @@
       </c>
       <c r="Q44">
         <f ca="1"/>
-        <v>541</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
@@ -2302,7 +2302,7 @@
       </c>
       <c r="L45">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0712817079353805</v>
+        <v>0</v>
       </c>
       <c r="M45" t="s">
         <v>14</v>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="Q45">
         <f ca="1"/>
-        <v>47</v>
+        <v>706</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="Q46">
         <f ca="1"/>
-        <v>296</v>
+        <v>305</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
@@ -2407,7 +2407,7 @@
       </c>
       <c r="Q47">
         <f ca="1"/>
-        <v>496</v>
+        <v>425</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
@@ -2454,7 +2454,7 @@
       </c>
       <c r="Q48">
         <f ca="1"/>
-        <v>786</v>
+        <v>438</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="Q49">
         <f ca="1"/>
-        <v>811</v>
+        <v>806</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="Q50">
         <f ca="1"/>
-        <v>828</v>
+        <v>603</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="Q51">
         <f ca="1"/>
-        <v>265</v>
+        <v>513</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="L52">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2298544042309789</v>
+        <v>0</v>
       </c>
       <c r="M52" t="s">
         <v>14</v>
@@ -2642,7 +2642,7 @@
       </c>
       <c r="Q52">
         <f ca="1"/>
-        <v>29</v>
+        <v>360</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
@@ -2689,7 +2689,7 @@
       </c>
       <c r="Q53">
         <f ca="1"/>
-        <v>310</v>
+        <v>358</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="Q54">
         <f ca="1"/>
-        <v>819</v>
+        <v>206</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
@@ -2783,7 +2783,7 @@
       </c>
       <c r="Q55">
         <f ca="1"/>
-        <v>82</v>
+        <v>490</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="Q56">
         <f ca="1"/>
-        <v>847</v>
+        <v>376</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
@@ -2877,7 +2877,7 @@
       </c>
       <c r="Q57">
         <f ca="1"/>
-        <v>478</v>
+        <v>526</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
@@ -2924,7 +2924,7 @@
       </c>
       <c r="Q58">
         <f ca="1"/>
-        <v>149</v>
+        <v>329</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="Q59">
         <f ca="1"/>
-        <v>339</v>
+        <v>848</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
@@ -3018,7 +3018,7 @@
       </c>
       <c r="Q60">
         <f ca="1"/>
-        <v>766</v>
+        <v>420</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
@@ -3054,7 +3054,7 @@
       </c>
       <c r="L61">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88226470732991102</v>
+        <v>0</v>
       </c>
       <c r="M61" t="s">
         <v>14</v>
@@ -3065,7 +3065,7 @@
       </c>
       <c r="Q61">
         <f ca="1"/>
-        <v>37</v>
+        <v>392</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="Q62">
         <f ca="1"/>
-        <v>202</v>
+        <v>504</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
@@ -3159,7 +3159,7 @@
       </c>
       <c r="Q63">
         <f ca="1"/>
-        <v>867</v>
+        <v>840</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
@@ -3195,7 +3195,7 @@
       </c>
       <c r="L64">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6303715513069568</v>
+        <v>0</v>
       </c>
       <c r="M64" t="s">
         <v>14</v>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="Q64">
         <f ca="1"/>
-        <v>40</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
@@ -3253,7 +3253,7 @@
       </c>
       <c r="Q65">
         <f ca="1"/>
-        <v>745</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
@@ -3300,7 +3300,7 @@
       </c>
       <c r="Q66">
         <f ca="1"/>
-        <v>274</v>
+        <v>465</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
@@ -3347,7 +3347,7 @@
       </c>
       <c r="Q67">
         <f ca="1"/>
-        <v>467</v>
+        <v>312</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
@@ -3394,7 +3394,7 @@
       </c>
       <c r="Q68">
         <f ca="1"/>
-        <v>752</v>
+        <v>747</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
@@ -3441,7 +3441,7 @@
       </c>
       <c r="Q69">
         <f ca="1"/>
-        <v>538</v>
+        <v>616</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
@@ -3488,7 +3488,7 @@
       </c>
       <c r="Q70">
         <f ca="1"/>
-        <v>359</v>
+        <v>333</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
@@ -3524,7 +3524,7 @@
       </c>
       <c r="L71">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1679376700228947</v>
       </c>
       <c r="M71" t="s">
         <v>14</v>
@@ -3535,7 +3535,7 @@
       </c>
       <c r="Q71">
         <f ca="1"/>
-        <v>435</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
@@ -3582,7 +3582,7 @@
       </c>
       <c r="Q72">
         <f ca="1"/>
-        <v>521</v>
+        <v>301</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
@@ -3629,7 +3629,7 @@
       </c>
       <c r="Q73">
         <f ca="1"/>
-        <v>430</v>
+        <v>199</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="Q74">
         <f ca="1"/>
-        <v>165</v>
+        <v>621</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
@@ -3711,8 +3711,8 @@
         <v>0</v>
       </c>
       <c r="L75">
-        <f t="shared" ref="L75:L138" ca="1" si="2">IF(COUNTIF(P$10:P$69, Q75)&gt;0, RAND()*3, 0)</f>
-        <v>0</v>
+        <f t="shared" ref="L75:L138" ca="1" si="2">IF(COUNTIF(P$10:P$29, Q75)&gt;0, RAND()*3, 0)</f>
+        <v>1.3704276016498671</v>
       </c>
       <c r="M75" t="s">
         <v>14</v>
@@ -3723,7 +3723,7 @@
       </c>
       <c r="Q75">
         <f ca="1"/>
-        <v>843</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
@@ -3759,7 +3759,7 @@
       </c>
       <c r="L76">
         <f t="shared" ca="1" si="2"/>
-        <v>4.4681146309600184E-2</v>
+        <v>0</v>
       </c>
       <c r="M76" t="s">
         <v>14</v>
@@ -3770,7 +3770,7 @@
       </c>
       <c r="Q76">
         <f ca="1"/>
-        <v>60</v>
+        <v>742</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="Q77">
         <f ca="1"/>
-        <v>100</v>
+        <v>262</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
@@ -3864,7 +3864,7 @@
       </c>
       <c r="Q78">
         <f ca="1"/>
-        <v>408</v>
+        <v>232</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
@@ -3911,7 +3911,7 @@
       </c>
       <c r="Q79">
         <f ca="1"/>
-        <v>552</v>
+        <v>749</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
@@ -3958,7 +3958,7 @@
       </c>
       <c r="Q80">
         <f ca="1"/>
-        <v>332</v>
+        <v>347</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.2">
@@ -4005,7 +4005,7 @@
       </c>
       <c r="Q81">
         <f ca="1"/>
-        <v>364</v>
+        <v>125</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
@@ -4052,7 +4052,7 @@
       </c>
       <c r="Q82">
         <f ca="1"/>
-        <v>517</v>
+        <v>453</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">
@@ -4099,7 +4099,7 @@
       </c>
       <c r="Q83">
         <f ca="1"/>
-        <v>436</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.2">
@@ -4146,7 +4146,7 @@
       </c>
       <c r="Q84">
         <f ca="1"/>
-        <v>639</v>
+        <v>302</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.2">
@@ -4193,7 +4193,7 @@
       </c>
       <c r="Q85">
         <f ca="1"/>
-        <v>376</v>
+        <v>452</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.2">
@@ -4240,7 +4240,7 @@
       </c>
       <c r="Q86">
         <f ca="1"/>
-        <v>869</v>
+        <v>655</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.2">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="Q87">
         <f ca="1"/>
-        <v>270</v>
+        <v>580</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.2">
@@ -4334,7 +4334,7 @@
       </c>
       <c r="Q88">
         <f ca="1"/>
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.2">
@@ -4381,7 +4381,7 @@
       </c>
       <c r="Q89">
         <f ca="1"/>
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.2">
@@ -4428,7 +4428,7 @@
       </c>
       <c r="Q90">
         <f ca="1"/>
-        <v>733</v>
+        <v>434</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.2">
@@ -4475,7 +4475,7 @@
       </c>
       <c r="Q91">
         <f ca="1"/>
-        <v>547</v>
+        <v>685</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.2">
@@ -4522,7 +4522,7 @@
       </c>
       <c r="Q92">
         <f ca="1"/>
-        <v>386</v>
+        <v>789</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.2">
@@ -4569,7 +4569,7 @@
       </c>
       <c r="Q93">
         <f ca="1"/>
-        <v>398</v>
+        <v>102</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.2">
@@ -4616,7 +4616,7 @@
       </c>
       <c r="Q94">
         <f ca="1"/>
-        <v>427</v>
+        <v>51</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.2">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="Q95">
         <f ca="1"/>
-        <v>247</v>
+        <v>324</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.2">
@@ -4710,7 +4710,7 @@
       </c>
       <c r="Q96">
         <f ca="1"/>
-        <v>508</v>
+        <v>724</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.2">
@@ -4757,7 +4757,7 @@
       </c>
       <c r="Q97">
         <f ca="1"/>
-        <v>159</v>
+        <v>864</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.2">
@@ -4804,7 +4804,7 @@
       </c>
       <c r="Q98">
         <f ca="1"/>
-        <v>691</v>
+        <v>491</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.2">
@@ -4851,7 +4851,7 @@
       </c>
       <c r="Q99">
         <f ca="1"/>
-        <v>99</v>
+        <v>813</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.2">
@@ -4898,7 +4898,7 @@
       </c>
       <c r="Q100">
         <f ca="1"/>
-        <v>487</v>
+        <v>816</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.2">
@@ -4945,7 +4945,7 @@
       </c>
       <c r="Q101">
         <f ca="1"/>
-        <v>249</v>
+        <v>439</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.2">
@@ -4992,7 +4992,7 @@
       </c>
       <c r="Q102">
         <f ca="1"/>
-        <v>602</v>
+        <v>124</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.2">
@@ -5039,7 +5039,7 @@
       </c>
       <c r="Q103">
         <f ca="1"/>
-        <v>636</v>
+        <v>422</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.2">
@@ -5086,7 +5086,7 @@
       </c>
       <c r="Q104">
         <f ca="1"/>
-        <v>241</v>
+        <v>499</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.2">
@@ -5133,7 +5133,7 @@
       </c>
       <c r="Q105">
         <f ca="1"/>
-        <v>261</v>
+        <v>282</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.2">
@@ -5180,7 +5180,7 @@
       </c>
       <c r="Q106">
         <f ca="1"/>
-        <v>642</v>
+        <v>599</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.2">
@@ -5227,7 +5227,7 @@
       </c>
       <c r="Q107">
         <f ca="1"/>
-        <v>617</v>
+        <v>667</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.2">
@@ -5263,7 +5263,7 @@
       </c>
       <c r="L108">
         <f t="shared" ca="1" si="2"/>
-        <v>3.160768523594315E-2</v>
+        <v>0</v>
       </c>
       <c r="M108" t="s">
         <v>14</v>
@@ -5274,7 +5274,7 @@
       </c>
       <c r="Q108">
         <f ca="1"/>
-        <v>15</v>
+        <v>559</v>
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.2">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="Q109">
         <f ca="1"/>
-        <v>732</v>
+        <v>429</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.2">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="Q110">
         <f ca="1"/>
-        <v>601</v>
+        <v>448</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.2">
@@ -5415,7 +5415,7 @@
       </c>
       <c r="Q111">
         <f ca="1"/>
-        <v>220</v>
+        <v>464</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.2">
@@ -5462,7 +5462,7 @@
       </c>
       <c r="Q112">
         <f ca="1"/>
-        <v>340</v>
+        <v>359</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.2">
@@ -5509,7 +5509,7 @@
       </c>
       <c r="Q113">
         <f ca="1"/>
-        <v>708</v>
+        <v>407</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.2">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="Q114">
         <f ca="1"/>
-        <v>698</v>
+        <v>613</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.2">
@@ -5603,7 +5603,7 @@
       </c>
       <c r="Q115">
         <f ca="1"/>
-        <v>549</v>
+        <v>79</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.2">
@@ -5650,7 +5650,7 @@
       </c>
       <c r="Q116">
         <f ca="1"/>
-        <v>219</v>
+        <v>811</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.2">
@@ -5697,7 +5697,7 @@
       </c>
       <c r="Q117">
         <f ca="1"/>
-        <v>771</v>
+        <v>171</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.2">
@@ -5744,7 +5744,7 @@
       </c>
       <c r="Q118">
         <f ca="1"/>
-        <v>671</v>
+        <v>278</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.2">
@@ -5791,7 +5791,7 @@
       </c>
       <c r="Q119">
         <f ca="1"/>
-        <v>255</v>
+        <v>132</v>
       </c>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.2">
@@ -5838,7 +5838,7 @@
       </c>
       <c r="Q120">
         <f ca="1"/>
-        <v>851</v>
+        <v>589</v>
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.2">
@@ -5885,7 +5885,7 @@
       </c>
       <c r="Q121">
         <f ca="1"/>
-        <v>112</v>
+        <v>383</v>
       </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.2">
@@ -5932,7 +5932,7 @@
       </c>
       <c r="Q122">
         <f ca="1"/>
-        <v>234</v>
+        <v>866</v>
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.2">
@@ -5979,7 +5979,7 @@
       </c>
       <c r="Q123">
         <f ca="1"/>
-        <v>537</v>
+        <v>565</v>
       </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.2">
@@ -6026,7 +6026,7 @@
       </c>
       <c r="Q124">
         <f ca="1"/>
-        <v>83</v>
+        <v>727</v>
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.2">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="Q125">
         <f ca="1"/>
-        <v>688</v>
+        <v>244</v>
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.2">
@@ -6120,7 +6120,7 @@
       </c>
       <c r="Q126">
         <f ca="1"/>
-        <v>783</v>
+        <v>690</v>
       </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.2">
@@ -6167,7 +6167,7 @@
       </c>
       <c r="Q127">
         <f ca="1"/>
-        <v>832</v>
+        <v>85</v>
       </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.2">
@@ -6214,7 +6214,7 @@
       </c>
       <c r="Q128">
         <f ca="1"/>
-        <v>293</v>
+        <v>855</v>
       </c>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.2">
@@ -6250,7 +6250,7 @@
       </c>
       <c r="L129">
         <f t="shared" ca="1" si="2"/>
-        <v>2.2736535596387792</v>
+        <v>0</v>
       </c>
       <c r="M129" t="s">
         <v>14</v>
@@ -6261,7 +6261,7 @@
       </c>
       <c r="Q129">
         <f ca="1"/>
-        <v>33</v>
+        <v>533</v>
       </c>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.2">
@@ -6308,7 +6308,7 @@
       </c>
       <c r="Q130">
         <f ca="1"/>
-        <v>772</v>
+        <v>459</v>
       </c>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.2">
@@ -6344,7 +6344,7 @@
       </c>
       <c r="L131">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41741250939029395</v>
+        <v>0</v>
       </c>
       <c r="M131" t="s">
         <v>14</v>
@@ -6355,7 +6355,7 @@
       </c>
       <c r="Q131">
         <f ca="1"/>
-        <v>35</v>
+        <v>270</v>
       </c>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.2">
@@ -6402,7 +6402,7 @@
       </c>
       <c r="Q132">
         <f ca="1"/>
-        <v>659</v>
+        <v>573</v>
       </c>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.2">
@@ -6438,7 +6438,7 @@
       </c>
       <c r="L133">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>2.4795333089404679</v>
       </c>
       <c r="M133" t="s">
         <v>14</v>
@@ -6449,7 +6449,7 @@
       </c>
       <c r="Q133">
         <f ca="1"/>
-        <v>724</v>
+        <v>20</v>
       </c>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.2">
@@ -6496,7 +6496,7 @@
       </c>
       <c r="Q134">
         <f ca="1"/>
-        <v>192</v>
+        <v>788</v>
       </c>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.2">
@@ -6543,7 +6543,7 @@
       </c>
       <c r="Q135">
         <f ca="1"/>
-        <v>389</v>
+        <v>330</v>
       </c>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.2">
@@ -6590,7 +6590,7 @@
       </c>
       <c r="Q136">
         <f ca="1"/>
-        <v>682</v>
+        <v>828</v>
       </c>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.2">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="Q137">
         <f ca="1"/>
-        <v>515</v>
+        <v>743</v>
       </c>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.2">
@@ -6684,7 +6684,7 @@
       </c>
       <c r="Q138">
         <f ca="1"/>
-        <v>757</v>
+        <v>428</v>
       </c>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.2">
@@ -6719,7 +6719,7 @@
         <v>0</v>
       </c>
       <c r="L139">
-        <f t="shared" ref="L139:L202" ca="1" si="4">IF(COUNTIF(P$10:P$69, Q139)&gt;0, RAND()*3, 0)</f>
+        <f t="shared" ref="L139:L202" ca="1" si="4">IF(COUNTIF(P$10:P$29, Q139)&gt;0, RAND()*3, 0)</f>
         <v>0</v>
       </c>
       <c r="M139" t="s">
@@ -6731,7 +6731,7 @@
       </c>
       <c r="Q139">
         <f ca="1"/>
-        <v>251</v>
+        <v>579</v>
       </c>
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.2">
@@ -6778,7 +6778,7 @@
       </c>
       <c r="Q140">
         <f ca="1"/>
-        <v>728</v>
+        <v>365</v>
       </c>
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.2">
@@ -6814,7 +6814,7 @@
       </c>
       <c r="L141">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25448566154804486</v>
+        <v>0</v>
       </c>
       <c r="M141" t="s">
         <v>14</v>
@@ -6825,7 +6825,7 @@
       </c>
       <c r="Q141">
         <f ca="1"/>
-        <v>22</v>
+        <v>304</v>
       </c>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.2">
@@ -6872,7 +6872,7 @@
       </c>
       <c r="Q142">
         <f ca="1"/>
-        <v>500</v>
+        <v>406</v>
       </c>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.2">
@@ -6919,7 +6919,7 @@
       </c>
       <c r="Q143">
         <f ca="1"/>
-        <v>315</v>
+        <v>760</v>
       </c>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.2">
@@ -6966,7 +6966,7 @@
       </c>
       <c r="Q144">
         <f ca="1"/>
-        <v>229</v>
+        <v>550</v>
       </c>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.2">
@@ -7013,7 +7013,7 @@
       </c>
       <c r="Q145">
         <f ca="1"/>
-        <v>859</v>
+        <v>695</v>
       </c>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.2">
@@ -7049,7 +7049,7 @@
       </c>
       <c r="L146">
         <f t="shared" ca="1" si="4"/>
-        <v>2.2157300588591777</v>
+        <v>0</v>
       </c>
       <c r="M146" t="s">
         <v>14</v>
@@ -7060,7 +7060,7 @@
       </c>
       <c r="Q146">
         <f ca="1"/>
-        <v>57</v>
+        <v>145</v>
       </c>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.2">
@@ -7107,7 +7107,7 @@
       </c>
       <c r="Q147">
         <f ca="1"/>
-        <v>634</v>
+        <v>368</v>
       </c>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.2">
@@ -7154,7 +7154,7 @@
       </c>
       <c r="Q148">
         <f ca="1"/>
-        <v>419</v>
+        <v>620</v>
       </c>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.2">
@@ -7201,7 +7201,7 @@
       </c>
       <c r="Q149">
         <f ca="1"/>
-        <v>335</v>
+        <v>372</v>
       </c>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.2">
@@ -7248,7 +7248,7 @@
       </c>
       <c r="Q150">
         <f ca="1"/>
-        <v>543</v>
+        <v>638</v>
       </c>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.2">
@@ -7295,7 +7295,7 @@
       </c>
       <c r="Q151">
         <f ca="1"/>
-        <v>187</v>
+        <v>381</v>
       </c>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.2">
@@ -7331,7 +7331,7 @@
       </c>
       <c r="L152">
         <f t="shared" ca="1" si="4"/>
-        <v>1.7369490033826072</v>
+        <v>0</v>
       </c>
       <c r="M152" t="s">
         <v>14</v>
@@ -7342,7 +7342,7 @@
       </c>
       <c r="Q152">
         <f ca="1"/>
-        <v>9</v>
+        <v>340</v>
       </c>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.2">
@@ -7389,7 +7389,7 @@
       </c>
       <c r="Q153">
         <f ca="1"/>
-        <v>158</v>
+        <v>493</v>
       </c>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.2">
@@ -7436,7 +7436,7 @@
       </c>
       <c r="Q154">
         <f ca="1"/>
-        <v>810</v>
+        <v>615</v>
       </c>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.2">
@@ -7483,7 +7483,7 @@
       </c>
       <c r="Q155">
         <f ca="1"/>
-        <v>737</v>
+        <v>185</v>
       </c>
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.2">
@@ -7530,7 +7530,7 @@
       </c>
       <c r="Q156">
         <f ca="1"/>
-        <v>280</v>
+        <v>733</v>
       </c>
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.2">
@@ -7577,7 +7577,7 @@
       </c>
       <c r="Q157">
         <f ca="1"/>
-        <v>246</v>
+        <v>80</v>
       </c>
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.2">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="Q158">
         <f ca="1"/>
-        <v>805</v>
+        <v>630</v>
       </c>
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.2">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="Q159">
         <f ca="1"/>
-        <v>506</v>
+        <v>27</v>
       </c>
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.2">
@@ -7718,7 +7718,7 @@
       </c>
       <c r="Q160">
         <f ca="1"/>
-        <v>571</v>
+        <v>849</v>
       </c>
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.2">
@@ -7765,7 +7765,7 @@
       </c>
       <c r="Q161">
         <f ca="1"/>
-        <v>776</v>
+        <v>362</v>
       </c>
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.2">
@@ -7812,7 +7812,7 @@
       </c>
       <c r="Q162">
         <f ca="1"/>
-        <v>402</v>
+        <v>736</v>
       </c>
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.2">
@@ -7859,7 +7859,7 @@
       </c>
       <c r="Q163">
         <f ca="1"/>
-        <v>309</v>
+        <v>236</v>
       </c>
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.2">
@@ -7906,7 +7906,7 @@
       </c>
       <c r="Q164">
         <f ca="1"/>
-        <v>580</v>
+        <v>299</v>
       </c>
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.2">
@@ -7953,7 +7953,7 @@
       </c>
       <c r="Q165">
         <f ca="1"/>
-        <v>223</v>
+        <v>146</v>
       </c>
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.2">
@@ -8000,7 +8000,7 @@
       </c>
       <c r="Q166">
         <f ca="1"/>
-        <v>437</v>
+        <v>569</v>
       </c>
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.2">
@@ -8047,7 +8047,7 @@
       </c>
       <c r="Q167">
         <f ca="1"/>
-        <v>374</v>
+        <v>666</v>
       </c>
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.2">
@@ -8094,7 +8094,7 @@
       </c>
       <c r="Q168">
         <f ca="1"/>
-        <v>442</v>
+        <v>785</v>
       </c>
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.2">
@@ -8141,7 +8141,7 @@
       </c>
       <c r="Q169">
         <f ca="1"/>
-        <v>530</v>
+        <v>844</v>
       </c>
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.2">
@@ -8188,7 +8188,7 @@
       </c>
       <c r="Q170">
         <f ca="1"/>
-        <v>486</v>
+        <v>693</v>
       </c>
     </row>
     <row r="171" spans="1:17" x14ac:dyDescent="0.2">
@@ -8235,7 +8235,7 @@
       </c>
       <c r="Q171">
         <f ca="1"/>
-        <v>774</v>
+        <v>335</v>
       </c>
     </row>
     <row r="172" spans="1:17" x14ac:dyDescent="0.2">
@@ -8282,7 +8282,7 @@
       </c>
       <c r="Q172">
         <f ca="1"/>
-        <v>826</v>
+        <v>147</v>
       </c>
     </row>
     <row r="173" spans="1:17" x14ac:dyDescent="0.2">
@@ -8329,7 +8329,7 @@
       </c>
       <c r="Q173">
         <f ca="1"/>
-        <v>672</v>
+        <v>617</v>
       </c>
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.2">
@@ -8376,7 +8376,7 @@
       </c>
       <c r="Q174">
         <f ca="1"/>
-        <v>391</v>
+        <v>675</v>
       </c>
     </row>
     <row r="175" spans="1:17" x14ac:dyDescent="0.2">
@@ -8423,7 +8423,7 @@
       </c>
       <c r="Q175">
         <f ca="1"/>
-        <v>612</v>
+        <v>500</v>
       </c>
     </row>
     <row r="176" spans="1:17" x14ac:dyDescent="0.2">
@@ -8470,7 +8470,7 @@
       </c>
       <c r="Q176">
         <f ca="1"/>
-        <v>282</v>
+        <v>477</v>
       </c>
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.2">
@@ -8517,7 +8517,7 @@
       </c>
       <c r="Q177">
         <f ca="1"/>
-        <v>197</v>
+        <v>419</v>
       </c>
     </row>
     <row r="178" spans="1:17" x14ac:dyDescent="0.2">
@@ -8564,7 +8564,7 @@
       </c>
       <c r="Q178">
         <f ca="1"/>
-        <v>657</v>
+        <v>245</v>
       </c>
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.2">
@@ -8611,7 +8611,7 @@
       </c>
       <c r="Q179">
         <f ca="1"/>
-        <v>680</v>
+        <v>628</v>
       </c>
     </row>
     <row r="180" spans="1:17" x14ac:dyDescent="0.2">
@@ -8658,7 +8658,7 @@
       </c>
       <c r="Q180">
         <f ca="1"/>
-        <v>348</v>
+        <v>28</v>
       </c>
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.2">
@@ -8705,7 +8705,7 @@
       </c>
       <c r="Q181">
         <f ca="1"/>
-        <v>535</v>
+        <v>726</v>
       </c>
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.2">
@@ -8752,7 +8752,7 @@
       </c>
       <c r="Q182">
         <f ca="1"/>
-        <v>839</v>
+        <v>489</v>
       </c>
     </row>
     <row r="183" spans="1:17" x14ac:dyDescent="0.2">
@@ -8799,7 +8799,7 @@
       </c>
       <c r="Q183">
         <f ca="1"/>
-        <v>312</v>
+        <v>402</v>
       </c>
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.2">
@@ -8846,7 +8846,7 @@
       </c>
       <c r="Q184">
         <f ca="1"/>
-        <v>533</v>
+        <v>436</v>
       </c>
     </row>
     <row r="185" spans="1:17" x14ac:dyDescent="0.2">
@@ -8882,7 +8882,7 @@
       </c>
       <c r="L185">
         <f t="shared" ca="1" si="4"/>
-        <v>2.4615832702952014</v>
+        <v>0</v>
       </c>
       <c r="M185" t="s">
         <v>14</v>
@@ -8893,7 +8893,7 @@
       </c>
       <c r="Q185">
         <f ca="1"/>
-        <v>1</v>
+        <v>64</v>
       </c>
     </row>
     <row r="186" spans="1:17" x14ac:dyDescent="0.2">
@@ -8940,7 +8940,7 @@
       </c>
       <c r="Q186">
         <f ca="1"/>
-        <v>214</v>
+        <v>723</v>
       </c>
     </row>
     <row r="187" spans="1:17" x14ac:dyDescent="0.2">
@@ -8987,7 +8987,7 @@
       </c>
       <c r="Q187">
         <f ca="1"/>
-        <v>616</v>
+        <v>221</v>
       </c>
     </row>
     <row r="188" spans="1:17" x14ac:dyDescent="0.2">
@@ -9034,7 +9034,7 @@
       </c>
       <c r="Q188">
         <f ca="1"/>
-        <v>611</v>
+        <v>40</v>
       </c>
     </row>
     <row r="189" spans="1:17" x14ac:dyDescent="0.2">
@@ -9081,7 +9081,7 @@
       </c>
       <c r="Q189">
         <f ca="1"/>
-        <v>651</v>
+        <v>838</v>
       </c>
     </row>
     <row r="190" spans="1:17" x14ac:dyDescent="0.2">
@@ -9128,7 +9128,7 @@
       </c>
       <c r="Q190">
         <f ca="1"/>
-        <v>801</v>
+        <v>809</v>
       </c>
     </row>
     <row r="191" spans="1:17" x14ac:dyDescent="0.2">
@@ -9175,7 +9175,7 @@
       </c>
       <c r="Q191">
         <f ca="1"/>
-        <v>461</v>
+        <v>166</v>
       </c>
     </row>
     <row r="192" spans="1:17" x14ac:dyDescent="0.2">
@@ -9222,7 +9222,7 @@
       </c>
       <c r="Q192">
         <f ca="1"/>
-        <v>704</v>
+        <v>763</v>
       </c>
     </row>
     <row r="193" spans="1:17" x14ac:dyDescent="0.2">
@@ -9269,7 +9269,7 @@
       </c>
       <c r="Q193">
         <f ca="1"/>
-        <v>103</v>
+        <v>476</v>
       </c>
     </row>
     <row r="194" spans="1:17" x14ac:dyDescent="0.2">
@@ -9316,7 +9316,7 @@
       </c>
       <c r="Q194">
         <f ca="1"/>
-        <v>690</v>
+        <v>277</v>
       </c>
     </row>
     <row r="195" spans="1:17" x14ac:dyDescent="0.2">
@@ -9363,7 +9363,7 @@
       </c>
       <c r="Q195">
         <f ca="1"/>
-        <v>388</v>
+        <v>447</v>
       </c>
     </row>
     <row r="196" spans="1:17" x14ac:dyDescent="0.2">
@@ -9410,7 +9410,7 @@
       </c>
       <c r="Q196">
         <f ca="1"/>
-        <v>79</v>
+        <v>289</v>
       </c>
     </row>
     <row r="197" spans="1:17" x14ac:dyDescent="0.2">
@@ -9457,7 +9457,7 @@
       </c>
       <c r="Q197">
         <f ca="1"/>
-        <v>143</v>
+        <v>254</v>
       </c>
     </row>
     <row r="198" spans="1:17" x14ac:dyDescent="0.2">
@@ -9504,7 +9504,7 @@
       </c>
       <c r="Q198">
         <f ca="1"/>
-        <v>91</v>
+        <v>608</v>
       </c>
     </row>
     <row r="199" spans="1:17" x14ac:dyDescent="0.2">
@@ -9551,7 +9551,7 @@
       </c>
       <c r="Q199">
         <f ca="1"/>
-        <v>516</v>
+        <v>115</v>
       </c>
     </row>
     <row r="200" spans="1:17" x14ac:dyDescent="0.2">
@@ -9598,7 +9598,7 @@
       </c>
       <c r="Q200">
         <f ca="1"/>
-        <v>587</v>
+        <v>409</v>
       </c>
     </row>
     <row r="201" spans="1:17" x14ac:dyDescent="0.2">
@@ -9645,7 +9645,7 @@
       </c>
       <c r="Q201">
         <f ca="1"/>
-        <v>854</v>
+        <v>529</v>
       </c>
     </row>
     <row r="202" spans="1:17" x14ac:dyDescent="0.2">
@@ -9692,7 +9692,7 @@
       </c>
       <c r="Q202">
         <f ca="1"/>
-        <v>471</v>
+        <v>375</v>
       </c>
     </row>
     <row r="203" spans="1:17" x14ac:dyDescent="0.2">
@@ -9727,7 +9727,7 @@
         <v>0</v>
       </c>
       <c r="L203">
-        <f t="shared" ref="L203:L266" ca="1" si="6">IF(COUNTIF(P$10:P$69, Q203)&gt;0, RAND()*3, 0)</f>
+        <f t="shared" ref="L203:L266" ca="1" si="6">IF(COUNTIF(P$10:P$29, Q203)&gt;0, RAND()*3, 0)</f>
         <v>0</v>
       </c>
       <c r="M203" t="s">
@@ -9739,7 +9739,7 @@
       </c>
       <c r="Q203">
         <f ca="1"/>
-        <v>761</v>
+        <v>846</v>
       </c>
     </row>
     <row r="204" spans="1:17" x14ac:dyDescent="0.2">
@@ -9786,7 +9786,7 @@
       </c>
       <c r="Q204">
         <f ca="1"/>
-        <v>180</v>
+        <v>629</v>
       </c>
     </row>
     <row r="205" spans="1:17" x14ac:dyDescent="0.2">
@@ -9833,7 +9833,7 @@
       </c>
       <c r="Q205">
         <f ca="1"/>
-        <v>650</v>
+        <v>154</v>
       </c>
     </row>
     <row r="206" spans="1:17" x14ac:dyDescent="0.2">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="Q206">
         <f ca="1"/>
-        <v>731</v>
+        <v>156</v>
       </c>
     </row>
     <row r="207" spans="1:17" x14ac:dyDescent="0.2">
@@ -9927,7 +9927,7 @@
       </c>
       <c r="Q207">
         <f ca="1"/>
-        <v>294</v>
+        <v>823</v>
       </c>
     </row>
     <row r="208" spans="1:17" x14ac:dyDescent="0.2">
@@ -9974,7 +9974,7 @@
       </c>
       <c r="Q208">
         <f ca="1"/>
-        <v>73</v>
+        <v>202</v>
       </c>
     </row>
     <row r="209" spans="1:17" x14ac:dyDescent="0.2">
@@ -10010,7 +10010,7 @@
       </c>
       <c r="L209">
         <f t="shared" ca="1" si="6"/>
-        <v>1.7482274505019268E-2</v>
+        <v>0</v>
       </c>
       <c r="M209" t="s">
         <v>14</v>
@@ -10021,7 +10021,7 @@
       </c>
       <c r="Q209">
         <f ca="1"/>
-        <v>27</v>
+        <v>753</v>
       </c>
     </row>
     <row r="210" spans="1:17" x14ac:dyDescent="0.2">
@@ -10068,7 +10068,7 @@
       </c>
       <c r="Q210">
         <f ca="1"/>
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="211" spans="1:17" x14ac:dyDescent="0.2">
@@ -10104,7 +10104,7 @@
       </c>
       <c r="L211">
         <f t="shared" ca="1" si="6"/>
-        <v>1.6387646328543437</v>
+        <v>0</v>
       </c>
       <c r="M211" t="s">
         <v>14</v>
@@ -10115,7 +10115,7 @@
       </c>
       <c r="Q211">
         <f ca="1"/>
-        <v>56</v>
+        <v>210</v>
       </c>
     </row>
     <row r="212" spans="1:17" x14ac:dyDescent="0.2">
@@ -10162,7 +10162,7 @@
       </c>
       <c r="Q212">
         <f ca="1"/>
-        <v>576</v>
+        <v>501</v>
       </c>
     </row>
     <row r="213" spans="1:17" x14ac:dyDescent="0.2">
@@ -10209,7 +10209,7 @@
       </c>
       <c r="Q213">
         <f ca="1"/>
-        <v>589</v>
+        <v>319</v>
       </c>
     </row>
     <row r="214" spans="1:17" x14ac:dyDescent="0.2">
@@ -10256,7 +10256,7 @@
       </c>
       <c r="Q214">
         <f ca="1"/>
-        <v>377</v>
+        <v>659</v>
       </c>
     </row>
     <row r="215" spans="1:17" x14ac:dyDescent="0.2">
@@ -10303,7 +10303,7 @@
       </c>
       <c r="Q215">
         <f ca="1"/>
-        <v>666</v>
+        <v>63</v>
       </c>
     </row>
     <row r="216" spans="1:17" x14ac:dyDescent="0.2">
@@ -10350,7 +10350,7 @@
       </c>
       <c r="Q216">
         <f ca="1"/>
-        <v>404</v>
+        <v>867</v>
       </c>
     </row>
     <row r="217" spans="1:17" x14ac:dyDescent="0.2">
@@ -10397,7 +10397,7 @@
       </c>
       <c r="Q217">
         <f ca="1"/>
-        <v>574</v>
+        <v>636</v>
       </c>
     </row>
     <row r="218" spans="1:17" x14ac:dyDescent="0.2">
@@ -10444,7 +10444,7 @@
       </c>
       <c r="Q218">
         <f ca="1"/>
-        <v>227</v>
+        <v>684</v>
       </c>
     </row>
     <row r="219" spans="1:17" x14ac:dyDescent="0.2">
@@ -10491,7 +10491,7 @@
       </c>
       <c r="Q219">
         <f ca="1"/>
-        <v>523</v>
+        <v>730</v>
       </c>
     </row>
     <row r="220" spans="1:17" x14ac:dyDescent="0.2">
@@ -10538,7 +10538,7 @@
       </c>
       <c r="Q220">
         <f ca="1"/>
-        <v>92</v>
+        <v>165</v>
       </c>
     </row>
     <row r="221" spans="1:17" x14ac:dyDescent="0.2">
@@ -10585,7 +10585,7 @@
       </c>
       <c r="Q221">
         <f ca="1"/>
-        <v>591</v>
+        <v>622</v>
       </c>
     </row>
     <row r="222" spans="1:17" x14ac:dyDescent="0.2">
@@ -10632,7 +10632,7 @@
       </c>
       <c r="Q222">
         <f ca="1"/>
-        <v>692</v>
+        <v>183</v>
       </c>
     </row>
     <row r="223" spans="1:17" x14ac:dyDescent="0.2">
@@ -10679,7 +10679,7 @@
       </c>
       <c r="Q223">
         <f ca="1"/>
-        <v>394</v>
+        <v>552</v>
       </c>
     </row>
     <row r="224" spans="1:17" x14ac:dyDescent="0.2">
@@ -10726,7 +10726,7 @@
       </c>
       <c r="Q224">
         <f ca="1"/>
-        <v>637</v>
+        <v>818</v>
       </c>
     </row>
     <row r="225" spans="1:17" x14ac:dyDescent="0.2">
@@ -10762,7 +10762,7 @@
       </c>
       <c r="L225">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>2.4310277357559738</v>
       </c>
       <c r="M225" t="s">
         <v>14</v>
@@ -10773,7 +10773,7 @@
       </c>
       <c r="Q225">
         <f ca="1"/>
-        <v>121</v>
+        <v>15</v>
       </c>
     </row>
     <row r="226" spans="1:17" x14ac:dyDescent="0.2">
@@ -10820,7 +10820,7 @@
       </c>
       <c r="Q226">
         <f ca="1"/>
-        <v>561</v>
+        <v>37</v>
       </c>
     </row>
     <row r="227" spans="1:17" x14ac:dyDescent="0.2">
@@ -10867,7 +10867,7 @@
       </c>
       <c r="Q227">
         <f ca="1"/>
-        <v>669</v>
+        <v>169</v>
       </c>
     </row>
     <row r="228" spans="1:17" x14ac:dyDescent="0.2">
@@ -10914,7 +10914,7 @@
       </c>
       <c r="Q228">
         <f ca="1"/>
-        <v>564</v>
+        <v>478</v>
       </c>
     </row>
     <row r="229" spans="1:17" x14ac:dyDescent="0.2">
@@ -10961,7 +10961,7 @@
       </c>
       <c r="Q229">
         <f ca="1"/>
-        <v>85</v>
+        <v>130</v>
       </c>
     </row>
     <row r="230" spans="1:17" x14ac:dyDescent="0.2">
@@ -11008,7 +11008,7 @@
       </c>
       <c r="Q230">
         <f ca="1"/>
-        <v>710</v>
+        <v>361</v>
       </c>
     </row>
     <row r="231" spans="1:17" x14ac:dyDescent="0.2">
@@ -11055,7 +11055,7 @@
       </c>
       <c r="Q231">
         <f ca="1"/>
-        <v>817</v>
+        <v>72</v>
       </c>
     </row>
     <row r="232" spans="1:17" x14ac:dyDescent="0.2">
@@ -11091,7 +11091,7 @@
       </c>
       <c r="L232">
         <f t="shared" ca="1" si="6"/>
-        <v>2.3462280576795336</v>
+        <v>0</v>
       </c>
       <c r="M232" t="s">
         <v>14</v>
@@ -11102,7 +11102,7 @@
       </c>
       <c r="Q232">
         <f ca="1"/>
-        <v>13</v>
+        <v>200</v>
       </c>
     </row>
     <row r="233" spans="1:17" x14ac:dyDescent="0.2">
@@ -11149,7 +11149,7 @@
       </c>
       <c r="Q233">
         <f ca="1"/>
-        <v>468</v>
+        <v>43</v>
       </c>
     </row>
     <row r="234" spans="1:17" x14ac:dyDescent="0.2">
@@ -11196,7 +11196,7 @@
       </c>
       <c r="Q234">
         <f ca="1"/>
-        <v>289</v>
+        <v>398</v>
       </c>
     </row>
     <row r="235" spans="1:17" x14ac:dyDescent="0.2">
@@ -11290,7 +11290,7 @@
       </c>
       <c r="Q236">
         <f ca="1"/>
-        <v>317</v>
+        <v>714</v>
       </c>
     </row>
     <row r="237" spans="1:17" x14ac:dyDescent="0.2">
@@ -11337,7 +11337,7 @@
       </c>
       <c r="Q237">
         <f ca="1"/>
-        <v>237</v>
+        <v>273</v>
       </c>
     </row>
     <row r="238" spans="1:17" x14ac:dyDescent="0.2">
@@ -11384,7 +11384,7 @@
       </c>
       <c r="Q238">
         <f ca="1"/>
-        <v>557</v>
+        <v>241</v>
       </c>
     </row>
     <row r="239" spans="1:17" x14ac:dyDescent="0.2">
@@ -11431,7 +11431,7 @@
       </c>
       <c r="Q239">
         <f ca="1"/>
-        <v>279</v>
+        <v>510</v>
       </c>
     </row>
     <row r="240" spans="1:17" x14ac:dyDescent="0.2">
@@ -11478,7 +11478,7 @@
       </c>
       <c r="Q240">
         <f ca="1"/>
-        <v>183</v>
+        <v>575</v>
       </c>
     </row>
     <row r="241" spans="1:17" x14ac:dyDescent="0.2">
@@ -11525,7 +11525,7 @@
       </c>
       <c r="Q241">
         <f ca="1"/>
-        <v>137</v>
+        <v>84</v>
       </c>
     </row>
     <row r="242" spans="1:17" x14ac:dyDescent="0.2">
@@ -11572,7 +11572,7 @@
       </c>
       <c r="Q242">
         <f ca="1"/>
-        <v>808</v>
+        <v>761</v>
       </c>
     </row>
     <row r="243" spans="1:17" x14ac:dyDescent="0.2">
@@ -11619,7 +11619,7 @@
       </c>
       <c r="Q243">
         <f ca="1"/>
-        <v>369</v>
+        <v>498</v>
       </c>
     </row>
     <row r="244" spans="1:17" x14ac:dyDescent="0.2">
@@ -11666,7 +11666,7 @@
       </c>
       <c r="Q244">
         <f ca="1"/>
-        <v>168</v>
+        <v>654</v>
       </c>
     </row>
     <row r="245" spans="1:17" x14ac:dyDescent="0.2">
@@ -11713,7 +11713,7 @@
       </c>
       <c r="Q245">
         <f ca="1"/>
-        <v>76</v>
+        <v>257</v>
       </c>
     </row>
     <row r="246" spans="1:17" x14ac:dyDescent="0.2">
@@ -11760,7 +11760,7 @@
       </c>
       <c r="Q246">
         <f ca="1"/>
-        <v>208</v>
+        <v>479</v>
       </c>
     </row>
     <row r="247" spans="1:17" x14ac:dyDescent="0.2">
@@ -11807,7 +11807,7 @@
       </c>
       <c r="Q247">
         <f ca="1"/>
-        <v>709</v>
+        <v>734</v>
       </c>
     </row>
     <row r="248" spans="1:17" x14ac:dyDescent="0.2">
@@ -11843,7 +11843,7 @@
       </c>
       <c r="L248">
         <f t="shared" ca="1" si="6"/>
-        <v>1.2719624290283953</v>
+        <v>0</v>
       </c>
       <c r="M248" t="s">
         <v>14</v>
@@ -11854,7 +11854,7 @@
       </c>
       <c r="Q248">
         <f ca="1"/>
-        <v>31</v>
+        <v>645</v>
       </c>
     </row>
     <row r="249" spans="1:17" x14ac:dyDescent="0.2">
@@ -11901,7 +11901,7 @@
       </c>
       <c r="Q249">
         <f ca="1"/>
-        <v>225</v>
+        <v>856</v>
       </c>
     </row>
     <row r="250" spans="1:17" x14ac:dyDescent="0.2">
@@ -11948,7 +11948,7 @@
       </c>
       <c r="Q250">
         <f ca="1"/>
-        <v>502</v>
+        <v>364</v>
       </c>
     </row>
     <row r="251" spans="1:17" x14ac:dyDescent="0.2">
@@ -11995,7 +11995,7 @@
       </c>
       <c r="Q251">
         <f ca="1"/>
-        <v>665</v>
+        <v>462</v>
       </c>
     </row>
     <row r="252" spans="1:17" x14ac:dyDescent="0.2">
@@ -12042,7 +12042,7 @@
       </c>
       <c r="Q252">
         <f ca="1"/>
-        <v>504</v>
+        <v>686</v>
       </c>
     </row>
     <row r="253" spans="1:17" x14ac:dyDescent="0.2">
@@ -12089,7 +12089,7 @@
       </c>
       <c r="Q253">
         <f ca="1"/>
-        <v>239</v>
+        <v>97</v>
       </c>
     </row>
     <row r="254" spans="1:17" x14ac:dyDescent="0.2">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="Q254">
         <f ca="1"/>
-        <v>797</v>
+        <v>581</v>
       </c>
     </row>
     <row r="255" spans="1:17" x14ac:dyDescent="0.2">
@@ -12183,7 +12183,7 @@
       </c>
       <c r="Q255">
         <f ca="1"/>
-        <v>63</v>
+        <v>544</v>
       </c>
     </row>
     <row r="256" spans="1:17" x14ac:dyDescent="0.2">
@@ -12219,7 +12219,7 @@
       </c>
       <c r="L256">
         <f t="shared" ca="1" si="6"/>
-        <v>3.0685799948263148E-2</v>
+        <v>0</v>
       </c>
       <c r="M256" t="s">
         <v>14</v>
@@ -12230,7 +12230,7 @@
       </c>
       <c r="Q256">
         <f ca="1"/>
-        <v>42</v>
+        <v>107</v>
       </c>
     </row>
     <row r="257" spans="1:17" x14ac:dyDescent="0.2">
@@ -12277,7 +12277,7 @@
       </c>
       <c r="Q257">
         <f ca="1"/>
-        <v>336</v>
+        <v>471</v>
       </c>
     </row>
     <row r="258" spans="1:17" x14ac:dyDescent="0.2">
@@ -12324,7 +12324,7 @@
       </c>
       <c r="Q258">
         <f ca="1"/>
-        <v>770</v>
+        <v>752</v>
       </c>
     </row>
     <row r="259" spans="1:17" x14ac:dyDescent="0.2">
@@ -12371,7 +12371,7 @@
       </c>
       <c r="Q259">
         <f ca="1"/>
-        <v>815</v>
+        <v>393</v>
       </c>
     </row>
     <row r="260" spans="1:17" x14ac:dyDescent="0.2">
@@ -12418,7 +12418,7 @@
       </c>
       <c r="Q260">
         <f ca="1"/>
-        <v>756</v>
+        <v>261</v>
       </c>
     </row>
     <row r="261" spans="1:17" x14ac:dyDescent="0.2">
@@ -12465,7 +12465,7 @@
       </c>
       <c r="Q261">
         <f ca="1"/>
-        <v>242</v>
+        <v>468</v>
       </c>
     </row>
     <row r="262" spans="1:17" x14ac:dyDescent="0.2">
@@ -12512,7 +12512,7 @@
       </c>
       <c r="Q262">
         <f ca="1"/>
-        <v>658</v>
+        <v>578</v>
       </c>
     </row>
     <row r="263" spans="1:17" x14ac:dyDescent="0.2">
@@ -12548,7 +12548,7 @@
       </c>
       <c r="L263">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>2.8178246981661861</v>
       </c>
       <c r="M263" t="s">
         <v>14</v>
@@ -12559,7 +12559,7 @@
       </c>
       <c r="Q263">
         <f ca="1"/>
-        <v>838</v>
+        <v>5</v>
       </c>
     </row>
     <row r="264" spans="1:17" x14ac:dyDescent="0.2">
@@ -12606,7 +12606,7 @@
       </c>
       <c r="Q264">
         <f ca="1"/>
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="265" spans="1:17" x14ac:dyDescent="0.2">
@@ -12653,7 +12653,7 @@
       </c>
       <c r="Q265">
         <f ca="1"/>
-        <v>105</v>
+        <v>22</v>
       </c>
     </row>
     <row r="266" spans="1:17" x14ac:dyDescent="0.2">
@@ -12700,7 +12700,7 @@
       </c>
       <c r="Q266">
         <f ca="1"/>
-        <v>723</v>
+        <v>424</v>
       </c>
     </row>
     <row r="267" spans="1:17" x14ac:dyDescent="0.2">
@@ -12735,7 +12735,7 @@
         <v>0</v>
       </c>
       <c r="L267">
-        <f t="shared" ref="L267:L330" ca="1" si="8">IF(COUNTIF(P$10:P$69, Q267)&gt;0, RAND()*3, 0)</f>
+        <f t="shared" ref="L267:L330" ca="1" si="8">IF(COUNTIF(P$10:P$29, Q267)&gt;0, RAND()*3, 0)</f>
         <v>0</v>
       </c>
       <c r="M267" t="s">
@@ -12747,7 +12747,7 @@
       </c>
       <c r="Q267">
         <f ca="1"/>
-        <v>383</v>
+        <v>541</v>
       </c>
     </row>
     <row r="268" spans="1:17" x14ac:dyDescent="0.2">
@@ -12794,7 +12794,7 @@
       </c>
       <c r="Q268">
         <f ca="1"/>
-        <v>403</v>
+        <v>794</v>
       </c>
     </row>
     <row r="269" spans="1:17" x14ac:dyDescent="0.2">
@@ -12841,7 +12841,7 @@
       </c>
       <c r="Q269">
         <f ca="1"/>
-        <v>653</v>
+        <v>394</v>
       </c>
     </row>
     <row r="270" spans="1:17" x14ac:dyDescent="0.2">
@@ -12888,7 +12888,7 @@
       </c>
       <c r="Q270">
         <f ca="1"/>
-        <v>674</v>
+        <v>250</v>
       </c>
     </row>
     <row r="271" spans="1:17" x14ac:dyDescent="0.2">
@@ -12935,7 +12935,7 @@
       </c>
       <c r="Q271">
         <f ca="1"/>
-        <v>687</v>
+        <v>139</v>
       </c>
     </row>
     <row r="272" spans="1:17" x14ac:dyDescent="0.2">
@@ -12982,7 +12982,7 @@
       </c>
       <c r="Q272">
         <f ca="1"/>
-        <v>825</v>
+        <v>388</v>
       </c>
     </row>
     <row r="273" spans="1:17" x14ac:dyDescent="0.2">
@@ -13029,7 +13029,7 @@
       </c>
       <c r="Q273">
         <f ca="1"/>
-        <v>767</v>
+        <v>639</v>
       </c>
     </row>
     <row r="274" spans="1:17" x14ac:dyDescent="0.2">
@@ -13076,7 +13076,7 @@
       </c>
       <c r="Q274">
         <f ca="1"/>
-        <v>453</v>
+        <v>113</v>
       </c>
     </row>
     <row r="275" spans="1:17" x14ac:dyDescent="0.2">
@@ -13123,7 +13123,7 @@
       </c>
       <c r="Q275">
         <f ca="1"/>
-        <v>432</v>
+        <v>61</v>
       </c>
     </row>
     <row r="276" spans="1:17" x14ac:dyDescent="0.2">
@@ -13159,7 +13159,7 @@
       </c>
       <c r="L276">
         <f t="shared" ca="1" si="8"/>
-        <v>0.4733741634041787</v>
+        <v>0</v>
       </c>
       <c r="M276" t="s">
         <v>14</v>
@@ -13170,7 +13170,7 @@
       </c>
       <c r="Q276">
         <f ca="1"/>
-        <v>50</v>
+        <v>111</v>
       </c>
     </row>
     <row r="277" spans="1:17" x14ac:dyDescent="0.2">
@@ -13217,7 +13217,7 @@
       </c>
       <c r="Q277">
         <f ca="1"/>
-        <v>841</v>
+        <v>461</v>
       </c>
     </row>
     <row r="278" spans="1:17" x14ac:dyDescent="0.2">
@@ -13264,7 +13264,7 @@
       </c>
       <c r="Q278">
         <f ca="1"/>
-        <v>729</v>
+        <v>680</v>
       </c>
     </row>
     <row r="279" spans="1:17" x14ac:dyDescent="0.2">
@@ -13311,7 +13311,7 @@
       </c>
       <c r="Q279">
         <f ca="1"/>
-        <v>491</v>
+        <v>328</v>
       </c>
     </row>
     <row r="280" spans="1:17" x14ac:dyDescent="0.2">
@@ -13358,7 +13358,7 @@
       </c>
       <c r="Q280">
         <f ca="1"/>
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="281" spans="1:17" x14ac:dyDescent="0.2">
@@ -13405,7 +13405,7 @@
       </c>
       <c r="Q281">
         <f ca="1"/>
-        <v>677</v>
+        <v>78</v>
       </c>
     </row>
     <row r="282" spans="1:17" x14ac:dyDescent="0.2">
@@ -13441,7 +13441,7 @@
       </c>
       <c r="L282">
         <f t="shared" ca="1" si="8"/>
-        <v>2.8001182331874794</v>
+        <v>0</v>
       </c>
       <c r="M282" t="s">
         <v>14</v>
@@ -13452,7 +13452,7 @@
       </c>
       <c r="Q282">
         <f ca="1"/>
-        <v>17</v>
+        <v>837</v>
       </c>
     </row>
     <row r="283" spans="1:17" x14ac:dyDescent="0.2">
@@ -13499,7 +13499,7 @@
       </c>
       <c r="Q283">
         <f ca="1"/>
-        <v>529</v>
+        <v>618</v>
       </c>
     </row>
     <row r="284" spans="1:17" x14ac:dyDescent="0.2">
@@ -13546,7 +13546,7 @@
       </c>
       <c r="Q284">
         <f ca="1"/>
-        <v>780</v>
+        <v>531</v>
       </c>
     </row>
     <row r="285" spans="1:17" x14ac:dyDescent="0.2">
@@ -13593,7 +13593,7 @@
       </c>
       <c r="Q285">
         <f ca="1"/>
-        <v>111</v>
+        <v>835</v>
       </c>
     </row>
     <row r="286" spans="1:17" x14ac:dyDescent="0.2">
@@ -13640,7 +13640,7 @@
       </c>
       <c r="Q286">
         <f ca="1"/>
-        <v>373</v>
+        <v>87</v>
       </c>
     </row>
     <row r="287" spans="1:17" x14ac:dyDescent="0.2">
@@ -13687,7 +13687,7 @@
       </c>
       <c r="Q287">
         <f ca="1"/>
-        <v>526</v>
+        <v>669</v>
       </c>
     </row>
     <row r="288" spans="1:17" x14ac:dyDescent="0.2">
@@ -13734,7 +13734,7 @@
       </c>
       <c r="Q288">
         <f ca="1"/>
-        <v>175</v>
+        <v>532</v>
       </c>
     </row>
     <row r="289" spans="1:17" x14ac:dyDescent="0.2">
@@ -13781,7 +13781,7 @@
       </c>
       <c r="Q289">
         <f ca="1"/>
-        <v>204</v>
+        <v>23</v>
       </c>
     </row>
     <row r="290" spans="1:17" x14ac:dyDescent="0.2">
@@ -13828,7 +13828,7 @@
       </c>
       <c r="Q290">
         <f ca="1"/>
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="291" spans="1:17" x14ac:dyDescent="0.2">
@@ -13864,7 +13864,7 @@
       </c>
       <c r="L291">
         <f t="shared" ca="1" si="8"/>
-        <v>0.13550893531599584</v>
+        <v>0</v>
       </c>
       <c r="M291" t="s">
         <v>14</v>
@@ -13875,7 +13875,7 @@
       </c>
       <c r="Q291">
         <f ca="1"/>
-        <v>52</v>
+        <v>868</v>
       </c>
     </row>
     <row r="292" spans="1:17" x14ac:dyDescent="0.2">
@@ -13922,7 +13922,7 @@
       </c>
       <c r="Q292">
         <f ca="1"/>
-        <v>97</v>
+        <v>602</v>
       </c>
     </row>
     <row r="293" spans="1:17" x14ac:dyDescent="0.2">
@@ -13969,7 +13969,7 @@
       </c>
       <c r="Q293">
         <f ca="1"/>
-        <v>844</v>
+        <v>188</v>
       </c>
     </row>
     <row r="294" spans="1:17" x14ac:dyDescent="0.2">
@@ -14016,7 +14016,7 @@
       </c>
       <c r="Q294">
         <f ca="1"/>
-        <v>217</v>
+        <v>82</v>
       </c>
     </row>
     <row r="295" spans="1:17" x14ac:dyDescent="0.2">
@@ -14063,7 +14063,7 @@
       </c>
       <c r="Q295">
         <f ca="1"/>
-        <v>438</v>
+        <v>363</v>
       </c>
     </row>
     <row r="296" spans="1:17" x14ac:dyDescent="0.2">
@@ -14110,7 +14110,7 @@
       </c>
       <c r="Q296">
         <f ca="1"/>
-        <v>424</v>
+        <v>152</v>
       </c>
     </row>
     <row r="297" spans="1:17" x14ac:dyDescent="0.2">
@@ -14157,7 +14157,7 @@
       </c>
       <c r="Q297">
         <f ca="1"/>
-        <v>823</v>
+        <v>248</v>
       </c>
     </row>
     <row r="298" spans="1:17" x14ac:dyDescent="0.2">
@@ -14204,7 +14204,7 @@
       </c>
       <c r="Q298">
         <f ca="1"/>
-        <v>722</v>
+        <v>467</v>
       </c>
     </row>
     <row r="299" spans="1:17" x14ac:dyDescent="0.2">
@@ -14251,7 +14251,7 @@
       </c>
       <c r="Q299">
         <f ca="1"/>
-        <v>626</v>
+        <v>633</v>
       </c>
     </row>
     <row r="300" spans="1:17" x14ac:dyDescent="0.2">
@@ -14298,7 +14298,7 @@
       </c>
       <c r="Q300">
         <f ca="1"/>
-        <v>686</v>
+        <v>540</v>
       </c>
     </row>
     <row r="301" spans="1:17" x14ac:dyDescent="0.2">
@@ -14345,7 +14345,7 @@
       </c>
       <c r="Q301">
         <f ca="1"/>
-        <v>338</v>
+        <v>450</v>
       </c>
     </row>
     <row r="302" spans="1:17" x14ac:dyDescent="0.2">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="Q302">
         <f ca="1"/>
-        <v>356</v>
+        <v>83</v>
       </c>
     </row>
     <row r="303" spans="1:17" x14ac:dyDescent="0.2">
@@ -14439,7 +14439,7 @@
       </c>
       <c r="Q303">
         <f ca="1"/>
-        <v>566</v>
+        <v>413</v>
       </c>
     </row>
     <row r="304" spans="1:17" x14ac:dyDescent="0.2">
@@ -14486,7 +14486,7 @@
       </c>
       <c r="Q304">
         <f ca="1"/>
-        <v>297</v>
+        <v>341</v>
       </c>
     </row>
     <row r="305" spans="1:17" x14ac:dyDescent="0.2">
@@ -14533,7 +14533,7 @@
       </c>
       <c r="Q305">
         <f ca="1"/>
-        <v>178</v>
+        <v>321</v>
       </c>
     </row>
     <row r="306" spans="1:17" x14ac:dyDescent="0.2">
@@ -14580,7 +14580,7 @@
       </c>
       <c r="Q306">
         <f ca="1"/>
-        <v>725</v>
+        <v>391</v>
       </c>
     </row>
     <row r="307" spans="1:17" x14ac:dyDescent="0.2">
@@ -14627,7 +14627,7 @@
       </c>
       <c r="Q307">
         <f ca="1"/>
-        <v>673</v>
+        <v>658</v>
       </c>
     </row>
     <row r="308" spans="1:17" x14ac:dyDescent="0.2">
@@ -14663,7 +14663,7 @@
       </c>
       <c r="L308">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1.9975017018267547</v>
       </c>
       <c r="M308" t="s">
         <v>14</v>
@@ -14674,7 +14674,7 @@
       </c>
       <c r="Q308">
         <f ca="1"/>
-        <v>545</v>
+        <v>6</v>
       </c>
     </row>
     <row r="309" spans="1:17" x14ac:dyDescent="0.2">
@@ -14721,7 +14721,7 @@
       </c>
       <c r="Q309">
         <f ca="1"/>
-        <v>379</v>
+        <v>34</v>
       </c>
     </row>
     <row r="310" spans="1:17" x14ac:dyDescent="0.2">
@@ -14768,7 +14768,7 @@
       </c>
       <c r="Q310">
         <f ca="1"/>
-        <v>835</v>
+        <v>563</v>
       </c>
     </row>
     <row r="311" spans="1:17" x14ac:dyDescent="0.2">
@@ -14815,7 +14815,7 @@
       </c>
       <c r="Q311">
         <f ca="1"/>
-        <v>641</v>
+        <v>737</v>
       </c>
     </row>
     <row r="312" spans="1:17" x14ac:dyDescent="0.2">
@@ -14862,7 +14862,7 @@
       </c>
       <c r="Q312">
         <f ca="1"/>
-        <v>570</v>
+        <v>597</v>
       </c>
     </row>
     <row r="313" spans="1:17" x14ac:dyDescent="0.2">
@@ -14909,7 +14909,7 @@
       </c>
       <c r="Q313">
         <f ca="1"/>
-        <v>300</v>
+        <v>646</v>
       </c>
     </row>
     <row r="314" spans="1:17" x14ac:dyDescent="0.2">
@@ -14956,7 +14956,7 @@
       </c>
       <c r="Q314">
         <f ca="1"/>
-        <v>256</v>
+        <v>566</v>
       </c>
     </row>
     <row r="315" spans="1:17" x14ac:dyDescent="0.2">
@@ -15003,7 +15003,7 @@
       </c>
       <c r="Q315">
         <f ca="1"/>
-        <v>136</v>
+        <v>514</v>
       </c>
     </row>
     <row r="316" spans="1:17" x14ac:dyDescent="0.2">
@@ -15050,7 +15050,7 @@
       </c>
       <c r="Q316">
         <f ca="1"/>
-        <v>785</v>
+        <v>313</v>
       </c>
     </row>
     <row r="317" spans="1:17" x14ac:dyDescent="0.2">
@@ -15097,7 +15097,7 @@
       </c>
       <c r="Q317">
         <f ca="1"/>
-        <v>264</v>
+        <v>511</v>
       </c>
     </row>
     <row r="318" spans="1:17" x14ac:dyDescent="0.2">
@@ -15144,7 +15144,7 @@
       </c>
       <c r="Q318">
         <f ca="1"/>
-        <v>795</v>
+        <v>568</v>
       </c>
     </row>
     <row r="319" spans="1:17" x14ac:dyDescent="0.2">
@@ -15191,7 +15191,7 @@
       </c>
       <c r="Q319">
         <f ca="1"/>
-        <v>717</v>
+        <v>859</v>
       </c>
     </row>
     <row r="320" spans="1:17" x14ac:dyDescent="0.2">
@@ -15238,7 +15238,7 @@
       </c>
       <c r="Q320">
         <f ca="1"/>
-        <v>644</v>
+        <v>830</v>
       </c>
     </row>
     <row r="321" spans="1:17" x14ac:dyDescent="0.2">
@@ -15285,7 +15285,7 @@
       </c>
       <c r="Q321">
         <f ca="1"/>
-        <v>846</v>
+        <v>220</v>
       </c>
     </row>
     <row r="322" spans="1:17" x14ac:dyDescent="0.2">
@@ -15332,7 +15332,7 @@
       </c>
       <c r="Q322">
         <f ca="1"/>
-        <v>457</v>
+        <v>323</v>
       </c>
     </row>
     <row r="323" spans="1:17" x14ac:dyDescent="0.2">
@@ -15379,7 +15379,7 @@
       </c>
       <c r="Q323">
         <f ca="1"/>
-        <v>124</v>
+        <v>198</v>
       </c>
     </row>
     <row r="324" spans="1:17" x14ac:dyDescent="0.2">
@@ -15426,7 +15426,7 @@
       </c>
       <c r="Q324">
         <f ca="1"/>
-        <v>750</v>
+        <v>644</v>
       </c>
     </row>
     <row r="325" spans="1:17" x14ac:dyDescent="0.2">
@@ -15473,7 +15473,7 @@
       </c>
       <c r="Q325">
         <f ca="1"/>
-        <v>66</v>
+        <v>649</v>
       </c>
     </row>
     <row r="326" spans="1:17" x14ac:dyDescent="0.2">
@@ -15520,7 +15520,7 @@
       </c>
       <c r="Q326">
         <f ca="1"/>
-        <v>94</v>
+        <v>385</v>
       </c>
     </row>
     <row r="327" spans="1:17" x14ac:dyDescent="0.2">
@@ -15567,7 +15567,7 @@
       </c>
       <c r="Q327">
         <f ca="1"/>
-        <v>371</v>
+        <v>48</v>
       </c>
     </row>
     <row r="328" spans="1:17" x14ac:dyDescent="0.2">
@@ -15614,7 +15614,7 @@
       </c>
       <c r="Q328">
         <f ca="1"/>
-        <v>426</v>
+        <v>847</v>
       </c>
     </row>
     <row r="329" spans="1:17" x14ac:dyDescent="0.2">
@@ -15661,7 +15661,7 @@
       </c>
       <c r="Q329">
         <f ca="1"/>
-        <v>565</v>
+        <v>181</v>
       </c>
     </row>
     <row r="330" spans="1:17" x14ac:dyDescent="0.2">
@@ -15708,7 +15708,7 @@
       </c>
       <c r="Q330">
         <f ca="1"/>
-        <v>744</v>
+        <v>234</v>
       </c>
     </row>
     <row r="331" spans="1:17" x14ac:dyDescent="0.2">
@@ -15743,7 +15743,7 @@
         <v>0</v>
       </c>
       <c r="L331">
-        <f t="shared" ref="L331:L394" ca="1" si="10">IF(COUNTIF(P$10:P$69, Q331)&gt;0, RAND()*3, 0)</f>
+        <f t="shared" ref="L331:L394" ca="1" si="10">IF(COUNTIF(P$10:P$29, Q331)&gt;0, RAND()*3, 0)</f>
         <v>0</v>
       </c>
       <c r="M331" t="s">
@@ -15755,7 +15755,7 @@
       </c>
       <c r="Q331">
         <f ca="1"/>
-        <v>375</v>
+        <v>400</v>
       </c>
     </row>
     <row r="332" spans="1:17" x14ac:dyDescent="0.2">
@@ -15802,7 +15802,7 @@
       </c>
       <c r="Q332">
         <f ca="1"/>
-        <v>711</v>
+        <v>631</v>
       </c>
     </row>
     <row r="333" spans="1:17" x14ac:dyDescent="0.2">
@@ -15849,7 +15849,7 @@
       </c>
       <c r="Q333">
         <f ca="1"/>
-        <v>519</v>
+        <v>572</v>
       </c>
     </row>
     <row r="334" spans="1:17" x14ac:dyDescent="0.2">
@@ -15896,7 +15896,7 @@
       </c>
       <c r="Q334">
         <f ca="1"/>
-        <v>834</v>
+        <v>549</v>
       </c>
     </row>
     <row r="335" spans="1:17" x14ac:dyDescent="0.2">
@@ -15943,7 +15943,7 @@
       </c>
       <c r="Q335">
         <f ca="1"/>
-        <v>719</v>
+        <v>218</v>
       </c>
     </row>
     <row r="336" spans="1:17" x14ac:dyDescent="0.2">
@@ -15990,7 +15990,7 @@
       </c>
       <c r="Q336">
         <f ca="1"/>
-        <v>485</v>
+        <v>698</v>
       </c>
     </row>
     <row r="337" spans="1:17" x14ac:dyDescent="0.2">
@@ -16037,7 +16037,7 @@
       </c>
       <c r="Q337">
         <f ca="1"/>
-        <v>61</v>
+        <v>729</v>
       </c>
     </row>
     <row r="338" spans="1:17" x14ac:dyDescent="0.2">
@@ -16084,7 +16084,7 @@
       </c>
       <c r="Q338">
         <f ca="1"/>
-        <v>134</v>
+        <v>694</v>
       </c>
     </row>
     <row r="339" spans="1:17" x14ac:dyDescent="0.2">
@@ -16131,7 +16131,7 @@
       </c>
       <c r="Q339">
         <f ca="1"/>
-        <v>619</v>
+        <v>771</v>
       </c>
     </row>
     <row r="340" spans="1:17" x14ac:dyDescent="0.2">
@@ -16178,7 +16178,7 @@
       </c>
       <c r="Q340">
         <f ca="1"/>
-        <v>584</v>
+        <v>110</v>
       </c>
     </row>
     <row r="341" spans="1:17" x14ac:dyDescent="0.2">
@@ -16225,7 +16225,7 @@
       </c>
       <c r="Q341">
         <f ca="1"/>
-        <v>275</v>
+        <v>782</v>
       </c>
     </row>
     <row r="342" spans="1:17" x14ac:dyDescent="0.2">
@@ -16272,7 +16272,7 @@
       </c>
       <c r="Q342">
         <f ca="1"/>
-        <v>693</v>
+        <v>640</v>
       </c>
     </row>
     <row r="343" spans="1:17" x14ac:dyDescent="0.2">
@@ -16319,7 +16319,7 @@
       </c>
       <c r="Q343">
         <f ca="1"/>
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="344" spans="1:17" x14ac:dyDescent="0.2">
@@ -16366,7 +16366,7 @@
       </c>
       <c r="Q344">
         <f ca="1"/>
-        <v>472</v>
+        <v>635</v>
       </c>
     </row>
     <row r="345" spans="1:17" x14ac:dyDescent="0.2">
@@ -16413,7 +16413,7 @@
       </c>
       <c r="Q345">
         <f ca="1"/>
-        <v>645</v>
+        <v>187</v>
       </c>
     </row>
     <row r="346" spans="1:17" x14ac:dyDescent="0.2">
@@ -16460,7 +16460,7 @@
       </c>
       <c r="Q346">
         <f ca="1"/>
-        <v>484</v>
+        <v>696</v>
       </c>
     </row>
     <row r="347" spans="1:17" x14ac:dyDescent="0.2">
@@ -16507,7 +16507,7 @@
       </c>
       <c r="Q347">
         <f ca="1"/>
-        <v>122</v>
+        <v>778</v>
       </c>
     </row>
     <row r="348" spans="1:17" x14ac:dyDescent="0.2">
@@ -16554,7 +16554,7 @@
       </c>
       <c r="Q348">
         <f ca="1"/>
-        <v>816</v>
+        <v>88</v>
       </c>
     </row>
     <row r="349" spans="1:17" x14ac:dyDescent="0.2">
@@ -16590,7 +16590,7 @@
       </c>
       <c r="L349">
         <f t="shared" ca="1" si="10"/>
-        <v>1.978970311093408</v>
+        <v>0</v>
       </c>
       <c r="M349" t="s">
         <v>14</v>
@@ -16601,7 +16601,7 @@
       </c>
       <c r="Q349">
         <f ca="1"/>
-        <v>28</v>
+        <v>89</v>
       </c>
     </row>
     <row r="350" spans="1:17" x14ac:dyDescent="0.2">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="Q350">
         <f ca="1"/>
-        <v>108</v>
+        <v>276</v>
       </c>
     </row>
     <row r="351" spans="1:17" x14ac:dyDescent="0.2">
@@ -16695,7 +16695,7 @@
       </c>
       <c r="Q351">
         <f ca="1"/>
-        <v>452</v>
+        <v>740</v>
       </c>
     </row>
     <row r="352" spans="1:17" x14ac:dyDescent="0.2">
@@ -16742,7 +16742,7 @@
       </c>
       <c r="Q352">
         <f ca="1"/>
-        <v>675</v>
+        <v>503</v>
       </c>
     </row>
     <row r="353" spans="1:17" x14ac:dyDescent="0.2">
@@ -16778,7 +16778,7 @@
       </c>
       <c r="L353">
         <f t="shared" ca="1" si="10"/>
-        <v>0.76336442143672567</v>
+        <v>0</v>
       </c>
       <c r="M353" t="s">
         <v>14</v>
@@ -16789,7 +16789,7 @@
       </c>
       <c r="Q353">
         <f ca="1"/>
-        <v>25</v>
+        <v>826</v>
       </c>
     </row>
     <row r="354" spans="1:17" x14ac:dyDescent="0.2">
@@ -16836,7 +16836,7 @@
       </c>
       <c r="Q354">
         <f ca="1"/>
-        <v>349</v>
+        <v>153</v>
       </c>
     </row>
     <row r="355" spans="1:17" x14ac:dyDescent="0.2">
@@ -16883,7 +16883,7 @@
       </c>
       <c r="Q355">
         <f ca="1"/>
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="356" spans="1:17" x14ac:dyDescent="0.2">
@@ -16930,7 +16930,7 @@
       </c>
       <c r="Q356">
         <f ca="1"/>
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="357" spans="1:17" x14ac:dyDescent="0.2">
@@ -16977,7 +16977,7 @@
       </c>
       <c r="Q357">
         <f ca="1"/>
-        <v>231</v>
+        <v>556</v>
       </c>
     </row>
     <row r="358" spans="1:17" x14ac:dyDescent="0.2">
@@ -17024,7 +17024,7 @@
       </c>
       <c r="Q358">
         <f ca="1"/>
-        <v>706</v>
+        <v>307</v>
       </c>
     </row>
     <row r="359" spans="1:17" x14ac:dyDescent="0.2">
@@ -17071,7 +17071,7 @@
       </c>
       <c r="Q359">
         <f ca="1"/>
-        <v>107</v>
+        <v>76</v>
       </c>
     </row>
     <row r="360" spans="1:17" x14ac:dyDescent="0.2">
@@ -17107,7 +17107,7 @@
       </c>
       <c r="L360">
         <f t="shared" ca="1" si="10"/>
-        <v>2.4709912261858658</v>
+        <v>0</v>
       </c>
       <c r="M360" t="s">
         <v>14</v>
@@ -17118,7 +17118,7 @@
       </c>
       <c r="Q360">
         <f ca="1"/>
-        <v>14</v>
+        <v>158</v>
       </c>
     </row>
     <row r="361" spans="1:17" x14ac:dyDescent="0.2">
@@ -17165,7 +17165,7 @@
       </c>
       <c r="Q361">
         <f ca="1"/>
-        <v>413</v>
+        <v>283</v>
       </c>
     </row>
     <row r="362" spans="1:17" x14ac:dyDescent="0.2">
@@ -17212,7 +17212,7 @@
       </c>
       <c r="Q362">
         <f ca="1"/>
-        <v>396</v>
+        <v>128</v>
       </c>
     </row>
     <row r="363" spans="1:17" x14ac:dyDescent="0.2">
@@ -17259,7 +17259,7 @@
       </c>
       <c r="Q363">
         <f ca="1"/>
-        <v>331</v>
+        <v>647</v>
       </c>
     </row>
     <row r="364" spans="1:17" x14ac:dyDescent="0.2">
@@ -17306,7 +17306,7 @@
       </c>
       <c r="Q364">
         <f ca="1"/>
-        <v>318</v>
+        <v>294</v>
       </c>
     </row>
     <row r="365" spans="1:17" x14ac:dyDescent="0.2">
@@ -17353,7 +17353,7 @@
       </c>
       <c r="Q365">
         <f ca="1"/>
-        <v>490</v>
+        <v>851</v>
       </c>
     </row>
     <row r="366" spans="1:17" x14ac:dyDescent="0.2">
@@ -17389,7 +17389,7 @@
       </c>
       <c r="L366">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>0.59631949883924684</v>
       </c>
       <c r="M366" t="s">
         <v>14</v>
@@ -17400,7 +17400,7 @@
       </c>
       <c r="Q366">
         <f ca="1"/>
-        <v>568</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:17" x14ac:dyDescent="0.2">
@@ -17447,7 +17447,7 @@
       </c>
       <c r="Q367">
         <f ca="1"/>
-        <v>865</v>
+        <v>279</v>
       </c>
     </row>
     <row r="368" spans="1:17" x14ac:dyDescent="0.2">
@@ -17494,7 +17494,7 @@
       </c>
       <c r="Q368">
         <f ca="1"/>
-        <v>266</v>
+        <v>707</v>
       </c>
     </row>
     <row r="369" spans="1:17" x14ac:dyDescent="0.2">
@@ -17541,7 +17541,7 @@
       </c>
       <c r="Q369">
         <f ca="1"/>
-        <v>470</v>
+        <v>795</v>
       </c>
     </row>
     <row r="370" spans="1:17" x14ac:dyDescent="0.2">
@@ -17588,7 +17588,7 @@
       </c>
       <c r="Q370">
         <f ca="1"/>
-        <v>573</v>
+        <v>348</v>
       </c>
     </row>
     <row r="371" spans="1:17" x14ac:dyDescent="0.2">
@@ -17635,7 +17635,7 @@
       </c>
       <c r="Q371">
         <f ca="1"/>
-        <v>421</v>
+        <v>505</v>
       </c>
     </row>
     <row r="372" spans="1:17" x14ac:dyDescent="0.2">
@@ -17682,7 +17682,7 @@
       </c>
       <c r="Q372">
         <f ca="1"/>
-        <v>638</v>
+        <v>90</v>
       </c>
     </row>
     <row r="373" spans="1:17" x14ac:dyDescent="0.2">
@@ -17729,7 +17729,7 @@
       </c>
       <c r="Q373">
         <f ca="1"/>
-        <v>110</v>
+        <v>203</v>
       </c>
     </row>
     <row r="374" spans="1:17" x14ac:dyDescent="0.2">
@@ -17776,7 +17776,7 @@
       </c>
       <c r="Q374">
         <f ca="1"/>
-        <v>182</v>
+        <v>303</v>
       </c>
     </row>
     <row r="375" spans="1:17" x14ac:dyDescent="0.2">
@@ -17823,7 +17823,7 @@
       </c>
       <c r="Q375">
         <f ca="1"/>
-        <v>779</v>
+        <v>583</v>
       </c>
     </row>
     <row r="376" spans="1:17" x14ac:dyDescent="0.2">
@@ -17870,7 +17870,7 @@
       </c>
       <c r="Q376">
         <f ca="1"/>
-        <v>684</v>
+        <v>41</v>
       </c>
     </row>
     <row r="377" spans="1:17" x14ac:dyDescent="0.2">
@@ -17917,7 +17917,7 @@
       </c>
       <c r="Q377">
         <f ca="1"/>
-        <v>727</v>
+        <v>720</v>
       </c>
     </row>
     <row r="378" spans="1:17" x14ac:dyDescent="0.2">
@@ -17964,7 +17964,7 @@
       </c>
       <c r="Q378">
         <f ca="1"/>
-        <v>253</v>
+        <v>570</v>
       </c>
     </row>
     <row r="379" spans="1:17" x14ac:dyDescent="0.2">
@@ -18011,7 +18011,7 @@
       </c>
       <c r="Q379">
         <f ca="1"/>
-        <v>224</v>
+        <v>315</v>
       </c>
     </row>
     <row r="380" spans="1:17" x14ac:dyDescent="0.2">
@@ -18058,7 +18058,7 @@
       </c>
       <c r="Q380">
         <f ca="1"/>
-        <v>459</v>
+        <v>101</v>
       </c>
     </row>
     <row r="381" spans="1:17" x14ac:dyDescent="0.2">
@@ -18105,7 +18105,7 @@
       </c>
       <c r="Q381">
         <f ca="1"/>
-        <v>624</v>
+        <v>260</v>
       </c>
     </row>
     <row r="382" spans="1:17" x14ac:dyDescent="0.2">
@@ -18152,7 +18152,7 @@
       </c>
       <c r="Q382">
         <f ca="1"/>
-        <v>448</v>
+        <v>577</v>
       </c>
     </row>
     <row r="383" spans="1:17" x14ac:dyDescent="0.2">
@@ -18199,7 +18199,7 @@
       </c>
       <c r="Q383">
         <f ca="1"/>
-        <v>196</v>
+        <v>240</v>
       </c>
     </row>
     <row r="384" spans="1:17" x14ac:dyDescent="0.2">
@@ -18246,7 +18246,7 @@
       </c>
       <c r="Q384">
         <f ca="1"/>
-        <v>534</v>
+        <v>770</v>
       </c>
     </row>
     <row r="385" spans="1:17" x14ac:dyDescent="0.2">
@@ -18293,7 +18293,7 @@
       </c>
       <c r="Q385">
         <f ca="1"/>
-        <v>313</v>
+        <v>149</v>
       </c>
     </row>
     <row r="386" spans="1:17" x14ac:dyDescent="0.2">
@@ -18340,7 +18340,7 @@
       </c>
       <c r="Q386">
         <f ca="1"/>
-        <v>70</v>
+        <v>94</v>
       </c>
     </row>
     <row r="387" spans="1:17" x14ac:dyDescent="0.2">
@@ -18387,7 +18387,7 @@
       </c>
       <c r="Q387">
         <f ca="1"/>
-        <v>354</v>
+        <v>790</v>
       </c>
     </row>
     <row r="388" spans="1:17" x14ac:dyDescent="0.2">
@@ -18434,7 +18434,7 @@
       </c>
       <c r="Q388">
         <f ca="1"/>
-        <v>739</v>
+        <v>222</v>
       </c>
     </row>
     <row r="389" spans="1:17" x14ac:dyDescent="0.2">
@@ -18470,7 +18470,7 @@
       </c>
       <c r="L389">
         <f t="shared" ca="1" si="10"/>
-        <v>2.7732089382131826</v>
+        <v>0</v>
       </c>
       <c r="M389" t="s">
         <v>14</v>
@@ -18481,7 +18481,7 @@
       </c>
       <c r="Q389">
         <f ca="1"/>
-        <v>2</v>
+        <v>290</v>
       </c>
     </row>
     <row r="390" spans="1:17" x14ac:dyDescent="0.2">
@@ -18528,7 +18528,7 @@
       </c>
       <c r="Q390">
         <f ca="1"/>
-        <v>201</v>
+        <v>759</v>
       </c>
     </row>
     <row r="391" spans="1:17" x14ac:dyDescent="0.2">
@@ -18564,7 +18564,7 @@
       </c>
       <c r="L391">
         <f t="shared" ca="1" si="10"/>
-        <v>1.5805410675765339</v>
+        <v>0</v>
       </c>
       <c r="M391" t="s">
         <v>14</v>
@@ -18575,7 +18575,7 @@
       </c>
       <c r="Q391">
         <f ca="1"/>
-        <v>45</v>
+        <v>81</v>
       </c>
     </row>
     <row r="392" spans="1:17" x14ac:dyDescent="0.2">
@@ -18622,7 +18622,7 @@
       </c>
       <c r="Q392">
         <f ca="1"/>
-        <v>494</v>
+        <v>688</v>
       </c>
     </row>
     <row r="393" spans="1:17" x14ac:dyDescent="0.2">
@@ -18669,7 +18669,7 @@
       </c>
       <c r="Q393">
         <f ca="1"/>
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="394" spans="1:17" x14ac:dyDescent="0.2">
@@ -18716,7 +18716,7 @@
       </c>
       <c r="Q394">
         <f ca="1"/>
-        <v>423</v>
+        <v>842</v>
       </c>
     </row>
     <row r="395" spans="1:17" x14ac:dyDescent="0.2">
@@ -18751,7 +18751,7 @@
         <v>0</v>
       </c>
       <c r="L395">
-        <f t="shared" ref="L395:L458" ca="1" si="12">IF(COUNTIF(P$10:P$69, Q395)&gt;0, RAND()*3, 0)</f>
+        <f t="shared" ref="L395:L458" ca="1" si="12">IF(COUNTIF(P$10:P$29, Q395)&gt;0, RAND()*3, 0)</f>
         <v>0</v>
       </c>
       <c r="M395" t="s">
@@ -18763,7 +18763,7 @@
       </c>
       <c r="Q395">
         <f ca="1"/>
-        <v>812</v>
+        <v>161</v>
       </c>
     </row>
     <row r="396" spans="1:17" x14ac:dyDescent="0.2">
@@ -18810,7 +18810,7 @@
       </c>
       <c r="Q396">
         <f ca="1"/>
-        <v>378</v>
+        <v>444</v>
       </c>
     </row>
     <row r="397" spans="1:17" x14ac:dyDescent="0.2">
@@ -18857,7 +18857,7 @@
       </c>
       <c r="Q397">
         <f ca="1"/>
-        <v>569</v>
+        <v>609</v>
       </c>
     </row>
     <row r="398" spans="1:17" x14ac:dyDescent="0.2">
@@ -18904,7 +18904,7 @@
       </c>
       <c r="Q398">
         <f ca="1"/>
-        <v>479</v>
+        <v>112</v>
       </c>
     </row>
     <row r="399" spans="1:17" x14ac:dyDescent="0.2">
@@ -18951,7 +18951,7 @@
       </c>
       <c r="Q399">
         <f ca="1"/>
-        <v>784</v>
+        <v>162</v>
       </c>
     </row>
     <row r="400" spans="1:17" x14ac:dyDescent="0.2">
@@ -18998,7 +18998,7 @@
       </c>
       <c r="Q400">
         <f ca="1"/>
-        <v>853</v>
+        <v>432</v>
       </c>
     </row>
     <row r="401" spans="1:17" x14ac:dyDescent="0.2">
@@ -19045,7 +19045,7 @@
       </c>
       <c r="Q401">
         <f ca="1"/>
-        <v>481</v>
+        <v>798</v>
       </c>
     </row>
     <row r="402" spans="1:17" x14ac:dyDescent="0.2">
@@ -19081,7 +19081,7 @@
       </c>
       <c r="L402">
         <f t="shared" ca="1" si="12"/>
-        <v>1.4385794881385261</v>
+        <v>0</v>
       </c>
       <c r="M402" t="s">
         <v>14</v>
@@ -19092,7 +19092,7 @@
       </c>
       <c r="Q402">
         <f ca="1"/>
-        <v>43</v>
+        <v>807</v>
       </c>
     </row>
     <row r="403" spans="1:17" x14ac:dyDescent="0.2">
@@ -19139,7 +19139,7 @@
       </c>
       <c r="Q403">
         <f ca="1"/>
-        <v>802</v>
+        <v>39</v>
       </c>
     </row>
     <row r="404" spans="1:17" x14ac:dyDescent="0.2">
@@ -19186,7 +19186,7 @@
       </c>
       <c r="Q404">
         <f ca="1"/>
-        <v>116</v>
+        <v>52</v>
       </c>
     </row>
     <row r="405" spans="1:17" x14ac:dyDescent="0.2">
@@ -19233,7 +19233,7 @@
       </c>
       <c r="Q405">
         <f ca="1"/>
-        <v>133</v>
+        <v>457</v>
       </c>
     </row>
     <row r="406" spans="1:17" x14ac:dyDescent="0.2">
@@ -19280,7 +19280,7 @@
       </c>
       <c r="Q406">
         <f ca="1"/>
-        <v>324</v>
+        <v>562</v>
       </c>
     </row>
     <row r="407" spans="1:17" x14ac:dyDescent="0.2">
@@ -19327,7 +19327,7 @@
       </c>
       <c r="Q407">
         <f ca="1"/>
-        <v>148</v>
+        <v>126</v>
       </c>
     </row>
     <row r="408" spans="1:17" x14ac:dyDescent="0.2">
@@ -19374,7 +19374,7 @@
       </c>
       <c r="Q408">
         <f ca="1"/>
-        <v>623</v>
+        <v>395</v>
       </c>
     </row>
     <row r="409" spans="1:17" x14ac:dyDescent="0.2">
@@ -19421,7 +19421,7 @@
       </c>
       <c r="Q409">
         <f ca="1"/>
-        <v>560</v>
+        <v>810</v>
       </c>
     </row>
     <row r="410" spans="1:17" x14ac:dyDescent="0.2">
@@ -19468,7 +19468,7 @@
       </c>
       <c r="Q410">
         <f ca="1"/>
-        <v>269</v>
+        <v>95</v>
       </c>
     </row>
     <row r="411" spans="1:17" x14ac:dyDescent="0.2">
@@ -19515,7 +19515,7 @@
       </c>
       <c r="Q411">
         <f ca="1"/>
-        <v>621</v>
+        <v>211</v>
       </c>
     </row>
     <row r="412" spans="1:17" x14ac:dyDescent="0.2">
@@ -19551,7 +19551,7 @@
       </c>
       <c r="L412">
         <f t="shared" ca="1" si="12"/>
-        <v>0.17921103861310517</v>
+        <v>0</v>
       </c>
       <c r="M412" t="s">
         <v>14</v>
@@ -19562,7 +19562,7 @@
       </c>
       <c r="Q412">
         <f ca="1"/>
-        <v>3</v>
+        <v>374</v>
       </c>
     </row>
     <row r="413" spans="1:17" x14ac:dyDescent="0.2">
@@ -19609,7 +19609,7 @@
       </c>
       <c r="Q413">
         <f ca="1"/>
-        <v>608</v>
+        <v>49</v>
       </c>
     </row>
     <row r="414" spans="1:17" x14ac:dyDescent="0.2">
@@ -19656,7 +19656,7 @@
       </c>
       <c r="Q414">
         <f ca="1"/>
-        <v>593</v>
+        <v>309</v>
       </c>
     </row>
     <row r="415" spans="1:17" x14ac:dyDescent="0.2">
@@ -19703,7 +19703,7 @@
       </c>
       <c r="Q415">
         <f ca="1"/>
-        <v>868</v>
+        <v>151</v>
       </c>
     </row>
     <row r="416" spans="1:17" x14ac:dyDescent="0.2">
@@ -19750,7 +19750,7 @@
       </c>
       <c r="Q416">
         <f ca="1"/>
-        <v>654</v>
+        <v>542</v>
       </c>
     </row>
     <row r="417" spans="1:17" x14ac:dyDescent="0.2">
@@ -19797,7 +19797,7 @@
       </c>
       <c r="Q417">
         <f ca="1"/>
-        <v>554</v>
+        <v>238</v>
       </c>
     </row>
     <row r="418" spans="1:17" x14ac:dyDescent="0.2">
@@ -19844,7 +19844,7 @@
       </c>
       <c r="Q418">
         <f ca="1"/>
-        <v>866</v>
+        <v>455</v>
       </c>
     </row>
     <row r="419" spans="1:17" x14ac:dyDescent="0.2">
@@ -19891,7 +19891,7 @@
       </c>
       <c r="Q419">
         <f ca="1"/>
-        <v>695</v>
+        <v>601</v>
       </c>
     </row>
     <row r="420" spans="1:17" x14ac:dyDescent="0.2">
@@ -19938,7 +19938,7 @@
       </c>
       <c r="Q420">
         <f ca="1"/>
-        <v>326</v>
+        <v>656</v>
       </c>
     </row>
     <row r="421" spans="1:17" x14ac:dyDescent="0.2">
@@ -19985,7 +19985,7 @@
       </c>
       <c r="Q421">
         <f ca="1"/>
-        <v>303</v>
+        <v>812</v>
       </c>
     </row>
     <row r="422" spans="1:17" x14ac:dyDescent="0.2">
@@ -20032,7 +20032,7 @@
       </c>
       <c r="Q422">
         <f ca="1"/>
-        <v>221</v>
+        <v>836</v>
       </c>
     </row>
     <row r="423" spans="1:17" x14ac:dyDescent="0.2">
@@ -20079,7 +20079,7 @@
       </c>
       <c r="Q423">
         <f ca="1"/>
-        <v>211</v>
+        <v>528</v>
       </c>
     </row>
     <row r="424" spans="1:17" x14ac:dyDescent="0.2">
@@ -20115,7 +20115,7 @@
       </c>
       <c r="L424">
         <f t="shared" ca="1" si="12"/>
-        <v>1.6637601476175325</v>
+        <v>0</v>
       </c>
       <c r="M424" t="s">
         <v>14</v>
@@ -20126,7 +20126,7 @@
       </c>
       <c r="Q424">
         <f ca="1"/>
-        <v>36</v>
+        <v>584</v>
       </c>
     </row>
     <row r="425" spans="1:17" x14ac:dyDescent="0.2">
@@ -20173,7 +20173,7 @@
       </c>
       <c r="Q425">
         <f ca="1"/>
-        <v>493</v>
+        <v>721</v>
       </c>
     </row>
     <row r="426" spans="1:17" x14ac:dyDescent="0.2">
@@ -20220,7 +20220,7 @@
       </c>
       <c r="Q426">
         <f ca="1"/>
-        <v>342</v>
+        <v>306</v>
       </c>
     </row>
     <row r="427" spans="1:17" x14ac:dyDescent="0.2">
@@ -20267,7 +20267,7 @@
       </c>
       <c r="Q427">
         <f ca="1"/>
-        <v>425</v>
+        <v>418</v>
       </c>
     </row>
     <row r="428" spans="1:17" x14ac:dyDescent="0.2">
@@ -20314,7 +20314,7 @@
       </c>
       <c r="Q428">
         <f ca="1"/>
-        <v>343</v>
+        <v>173</v>
       </c>
     </row>
     <row r="429" spans="1:17" x14ac:dyDescent="0.2">
@@ -20361,7 +20361,7 @@
       </c>
       <c r="Q429">
         <f ca="1"/>
-        <v>518</v>
+        <v>437</v>
       </c>
     </row>
     <row r="430" spans="1:17" x14ac:dyDescent="0.2">
@@ -20408,7 +20408,7 @@
       </c>
       <c r="Q430">
         <f ca="1"/>
-        <v>174</v>
+        <v>741</v>
       </c>
     </row>
     <row r="431" spans="1:17" x14ac:dyDescent="0.2">
@@ -20455,7 +20455,7 @@
       </c>
       <c r="Q431">
         <f ca="1"/>
-        <v>337</v>
+        <v>865</v>
       </c>
     </row>
     <row r="432" spans="1:17" x14ac:dyDescent="0.2">
@@ -20491,7 +20491,7 @@
       </c>
       <c r="L432">
         <f t="shared" ca="1" si="12"/>
-        <v>1.1301658985619718</v>
+        <v>0</v>
       </c>
       <c r="M432" t="s">
         <v>14</v>
@@ -20502,7 +20502,7 @@
       </c>
       <c r="Q432">
         <f ca="1"/>
-        <v>38</v>
+        <v>280</v>
       </c>
     </row>
     <row r="433" spans="1:17" x14ac:dyDescent="0.2">
@@ -20549,7 +20549,7 @@
       </c>
       <c r="Q433">
         <f ca="1"/>
-        <v>629</v>
+        <v>350</v>
       </c>
     </row>
     <row r="434" spans="1:17" x14ac:dyDescent="0.2">
@@ -20596,7 +20596,7 @@
       </c>
       <c r="Q434">
         <f ca="1"/>
-        <v>620</v>
+        <v>512</v>
       </c>
     </row>
     <row r="435" spans="1:17" x14ac:dyDescent="0.2">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="L435">
         <f t="shared" ca="1" si="12"/>
-        <v>0.17765760238520611</v>
+        <v>0</v>
       </c>
       <c r="M435" t="s">
         <v>14</v>
@@ -20643,7 +20643,7 @@
       </c>
       <c r="Q435">
         <f ca="1"/>
-        <v>58</v>
+        <v>745</v>
       </c>
     </row>
     <row r="436" spans="1:17" x14ac:dyDescent="0.2">
@@ -20690,7 +20690,7 @@
       </c>
       <c r="Q436">
         <f ca="1"/>
-        <v>635</v>
+        <v>814</v>
       </c>
     </row>
     <row r="437" spans="1:17" x14ac:dyDescent="0.2">
@@ -20737,7 +20737,7 @@
       </c>
       <c r="Q437">
         <f ca="1"/>
-        <v>715</v>
+        <v>267</v>
       </c>
     </row>
     <row r="438" spans="1:17" x14ac:dyDescent="0.2">
@@ -20773,7 +20773,7 @@
       </c>
       <c r="L438">
         <f t="shared" ca="1" si="12"/>
-        <v>0.94986535430186991</v>
+        <v>0</v>
       </c>
       <c r="M438" t="s">
         <v>14</v>
@@ -20784,7 +20784,7 @@
       </c>
       <c r="Q438">
         <f ca="1"/>
-        <v>51</v>
+        <v>703</v>
       </c>
     </row>
     <row r="439" spans="1:17" x14ac:dyDescent="0.2">
@@ -20831,7 +20831,7 @@
       </c>
       <c r="Q439">
         <f ca="1"/>
-        <v>89</v>
+        <v>833</v>
       </c>
     </row>
     <row r="440" spans="1:17" x14ac:dyDescent="0.2">
@@ -20867,7 +20867,7 @@
       </c>
       <c r="L440">
         <f t="shared" ca="1" si="12"/>
-        <v>1.0652330549706113</v>
+        <v>0</v>
       </c>
       <c r="M440" t="s">
         <v>14</v>
@@ -20878,7 +20878,7 @@
       </c>
       <c r="Q440">
         <f ca="1"/>
-        <v>24</v>
+        <v>520</v>
       </c>
     </row>
     <row r="441" spans="1:17" x14ac:dyDescent="0.2">
@@ -20925,7 +20925,7 @@
       </c>
       <c r="Q441">
         <f ca="1"/>
-        <v>257</v>
+        <v>430</v>
       </c>
     </row>
     <row r="442" spans="1:17" x14ac:dyDescent="0.2">
@@ -20972,7 +20972,7 @@
       </c>
       <c r="Q442">
         <f ca="1"/>
-        <v>870</v>
+        <v>155</v>
       </c>
     </row>
     <row r="443" spans="1:17" x14ac:dyDescent="0.2">
@@ -21019,7 +21019,7 @@
       </c>
       <c r="Q443">
         <f ca="1"/>
-        <v>525</v>
+        <v>212</v>
       </c>
     </row>
     <row r="444" spans="1:17" x14ac:dyDescent="0.2">
@@ -21066,7 +21066,7 @@
       </c>
       <c r="Q444">
         <f ca="1"/>
-        <v>809</v>
+        <v>137</v>
       </c>
     </row>
     <row r="445" spans="1:17" x14ac:dyDescent="0.2">
@@ -21113,7 +21113,7 @@
       </c>
       <c r="Q445">
         <f ca="1"/>
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="446" spans="1:17" x14ac:dyDescent="0.2">
@@ -21149,7 +21149,7 @@
       </c>
       <c r="L446">
         <f t="shared" ca="1" si="12"/>
-        <v>2.8694138768801527</v>
+        <v>0</v>
       </c>
       <c r="M446" t="s">
         <v>14</v>
@@ -21160,7 +21160,7 @@
       </c>
       <c r="Q446">
         <f ca="1"/>
-        <v>41</v>
+        <v>861</v>
       </c>
     </row>
     <row r="447" spans="1:17" x14ac:dyDescent="0.2">
@@ -21207,7 +21207,7 @@
       </c>
       <c r="Q447">
         <f ca="1"/>
-        <v>531</v>
+        <v>691</v>
       </c>
     </row>
     <row r="448" spans="1:17" x14ac:dyDescent="0.2">
@@ -21254,7 +21254,7 @@
       </c>
       <c r="Q448">
         <f ca="1"/>
-        <v>352</v>
+        <v>458</v>
       </c>
     </row>
     <row r="449" spans="1:17" x14ac:dyDescent="0.2">
@@ -21301,7 +21301,7 @@
       </c>
       <c r="Q449">
         <f ca="1"/>
-        <v>736</v>
+        <v>485</v>
       </c>
     </row>
     <row r="450" spans="1:17" x14ac:dyDescent="0.2">
@@ -21348,7 +21348,7 @@
       </c>
       <c r="Q450">
         <f ca="1"/>
-        <v>555</v>
+        <v>346</v>
       </c>
     </row>
     <row r="451" spans="1:17" x14ac:dyDescent="0.2">
@@ -21395,7 +21395,7 @@
       </c>
       <c r="Q451">
         <f ca="1"/>
-        <v>681</v>
+        <v>118</v>
       </c>
     </row>
     <row r="452" spans="1:17" x14ac:dyDescent="0.2">
@@ -21442,7 +21442,7 @@
       </c>
       <c r="Q452">
         <f ca="1"/>
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="453" spans="1:17" x14ac:dyDescent="0.2">
@@ -21489,7 +21489,7 @@
       </c>
       <c r="Q453">
         <f ca="1"/>
-        <v>355</v>
+        <v>431</v>
       </c>
     </row>
     <row r="454" spans="1:17" x14ac:dyDescent="0.2">
@@ -21536,7 +21536,7 @@
       </c>
       <c r="Q454">
         <f ca="1"/>
-        <v>714</v>
+        <v>775</v>
       </c>
     </row>
     <row r="455" spans="1:17" x14ac:dyDescent="0.2">
@@ -21583,7 +21583,7 @@
       </c>
       <c r="Q455">
         <f ca="1"/>
-        <v>272</v>
+        <v>317</v>
       </c>
     </row>
     <row r="456" spans="1:17" x14ac:dyDescent="0.2">
@@ -21630,7 +21630,7 @@
       </c>
       <c r="Q456">
         <f ca="1"/>
-        <v>206</v>
+        <v>32</v>
       </c>
     </row>
     <row r="457" spans="1:17" x14ac:dyDescent="0.2">
@@ -21677,7 +21677,7 @@
       </c>
       <c r="Q457">
         <f ca="1"/>
-        <v>689</v>
+        <v>285</v>
       </c>
     </row>
     <row r="458" spans="1:17" x14ac:dyDescent="0.2">
@@ -21724,7 +21724,7 @@
       </c>
       <c r="Q458">
         <f ca="1"/>
-        <v>836</v>
+        <v>105</v>
       </c>
     </row>
     <row r="459" spans="1:17" x14ac:dyDescent="0.2">
@@ -21759,7 +21759,7 @@
         <v>0</v>
       </c>
       <c r="L459">
-        <f t="shared" ref="L459:L522" ca="1" si="14">IF(COUNTIF(P$10:P$69, Q459)&gt;0, RAND()*3, 0)</f>
+        <f t="shared" ref="L459:L522" ca="1" si="14">IF(COUNTIF(P$10:P$29, Q459)&gt;0, RAND()*3, 0)</f>
         <v>0</v>
       </c>
       <c r="M459" t="s">
@@ -21771,7 +21771,7 @@
       </c>
       <c r="Q459">
         <f ca="1"/>
-        <v>141</v>
+        <v>106</v>
       </c>
     </row>
     <row r="460" spans="1:17" x14ac:dyDescent="0.2">
@@ -21818,7 +21818,7 @@
       </c>
       <c r="Q460">
         <f ca="1"/>
-        <v>286</v>
+        <v>672</v>
       </c>
     </row>
     <row r="461" spans="1:17" x14ac:dyDescent="0.2">
@@ -21865,7 +21865,7 @@
       </c>
       <c r="Q461">
         <f ca="1"/>
-        <v>420</v>
+        <v>509</v>
       </c>
     </row>
     <row r="462" spans="1:17" x14ac:dyDescent="0.2">
@@ -21912,7 +21912,7 @@
       </c>
       <c r="Q462">
         <f ca="1"/>
-        <v>501</v>
+        <v>692</v>
       </c>
     </row>
     <row r="463" spans="1:17" x14ac:dyDescent="0.2">
@@ -21959,7 +21959,7 @@
       </c>
       <c r="Q463">
         <f ca="1"/>
-        <v>590</v>
+        <v>494</v>
       </c>
     </row>
     <row r="464" spans="1:17" x14ac:dyDescent="0.2">
@@ -22006,7 +22006,7 @@
       </c>
       <c r="Q464">
         <f ca="1"/>
-        <v>90</v>
+        <v>786</v>
       </c>
     </row>
     <row r="465" spans="1:17" x14ac:dyDescent="0.2">
@@ -22053,7 +22053,7 @@
       </c>
       <c r="Q465">
         <f ca="1"/>
-        <v>753</v>
+        <v>506</v>
       </c>
     </row>
     <row r="466" spans="1:17" x14ac:dyDescent="0.2">
@@ -22100,7 +22100,7 @@
       </c>
       <c r="Q466">
         <f ca="1"/>
-        <v>460</v>
+        <v>527</v>
       </c>
     </row>
     <row r="467" spans="1:17" x14ac:dyDescent="0.2">
@@ -22147,7 +22147,7 @@
       </c>
       <c r="Q467">
         <f ca="1"/>
-        <v>405</v>
+        <v>624</v>
       </c>
     </row>
     <row r="468" spans="1:17" x14ac:dyDescent="0.2">
@@ -22194,7 +22194,7 @@
       </c>
       <c r="Q468">
         <f ca="1"/>
-        <v>655</v>
+        <v>590</v>
       </c>
     </row>
     <row r="469" spans="1:17" x14ac:dyDescent="0.2">
@@ -22230,7 +22230,7 @@
       </c>
       <c r="L469">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>1.6945613373419759</v>
       </c>
       <c r="M469" t="s">
         <v>14</v>
@@ -22241,7 +22241,7 @@
       </c>
       <c r="Q469">
         <f ca="1"/>
-        <v>864</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:17" x14ac:dyDescent="0.2">
@@ -22288,7 +22288,7 @@
       </c>
       <c r="Q470">
         <f ca="1"/>
-        <v>328</v>
+        <v>719</v>
       </c>
     </row>
     <row r="471" spans="1:17" x14ac:dyDescent="0.2">
@@ -22335,7 +22335,7 @@
       </c>
       <c r="Q471">
         <f ca="1"/>
-        <v>392</v>
+        <v>109</v>
       </c>
     </row>
     <row r="472" spans="1:17" x14ac:dyDescent="0.2">
@@ -22382,7 +22382,7 @@
       </c>
       <c r="Q472">
         <f ca="1"/>
-        <v>368</v>
+        <v>150</v>
       </c>
     </row>
     <row r="473" spans="1:17" x14ac:dyDescent="0.2">
@@ -22429,7 +22429,7 @@
       </c>
       <c r="Q473">
         <f ca="1"/>
-        <v>718</v>
+        <v>189</v>
       </c>
     </row>
     <row r="474" spans="1:17" x14ac:dyDescent="0.2">
@@ -22476,7 +22476,7 @@
       </c>
       <c r="Q474">
         <f ca="1"/>
-        <v>218</v>
+        <v>30</v>
       </c>
     </row>
     <row r="475" spans="1:17" x14ac:dyDescent="0.2">
@@ -22523,7 +22523,7 @@
       </c>
       <c r="Q475">
         <f ca="1"/>
-        <v>278</v>
+        <v>870</v>
       </c>
     </row>
     <row r="476" spans="1:17" x14ac:dyDescent="0.2">
@@ -22570,7 +22570,7 @@
       </c>
       <c r="Q476">
         <f ca="1"/>
-        <v>114</v>
+        <v>70</v>
       </c>
     </row>
     <row r="477" spans="1:17" x14ac:dyDescent="0.2">
@@ -22617,7 +22617,7 @@
       </c>
       <c r="Q477">
         <f ca="1"/>
-        <v>630</v>
+        <v>598</v>
       </c>
     </row>
     <row r="478" spans="1:17" x14ac:dyDescent="0.2">
@@ -22664,7 +22664,7 @@
       </c>
       <c r="Q478">
         <f ca="1"/>
-        <v>751</v>
+        <v>530</v>
       </c>
     </row>
     <row r="479" spans="1:17" x14ac:dyDescent="0.2">
@@ -22711,7 +22711,7 @@
       </c>
       <c r="Q479">
         <f ca="1"/>
-        <v>594</v>
+        <v>731</v>
       </c>
     </row>
     <row r="480" spans="1:17" x14ac:dyDescent="0.2">
@@ -22758,7 +22758,7 @@
       </c>
       <c r="Q480">
         <f ca="1"/>
-        <v>431</v>
+        <v>773</v>
       </c>
     </row>
     <row r="481" spans="1:17" x14ac:dyDescent="0.2">
@@ -22805,7 +22805,7 @@
       </c>
       <c r="Q481">
         <f ca="1"/>
-        <v>443</v>
+        <v>822</v>
       </c>
     </row>
     <row r="482" spans="1:17" x14ac:dyDescent="0.2">
@@ -22852,7 +22852,7 @@
       </c>
       <c r="Q482">
         <f ca="1"/>
-        <v>283</v>
+        <v>65</v>
       </c>
     </row>
     <row r="483" spans="1:17" x14ac:dyDescent="0.2">
@@ -22899,7 +22899,7 @@
       </c>
       <c r="Q483">
         <f ca="1"/>
-        <v>656</v>
+        <v>354</v>
       </c>
     </row>
     <row r="484" spans="1:17" x14ac:dyDescent="0.2">
@@ -22946,7 +22946,7 @@
       </c>
       <c r="Q484">
         <f ca="1"/>
-        <v>551</v>
+        <v>538</v>
       </c>
     </row>
     <row r="485" spans="1:17" x14ac:dyDescent="0.2">
@@ -22993,7 +22993,7 @@
       </c>
       <c r="Q485">
         <f ca="1"/>
-        <v>198</v>
+        <v>486</v>
       </c>
     </row>
     <row r="486" spans="1:17" x14ac:dyDescent="0.2">
@@ -23029,7 +23029,7 @@
       </c>
       <c r="L486">
         <f t="shared" ca="1" si="14"/>
-        <v>0.78147642167418774</v>
+        <v>0</v>
       </c>
       <c r="M486" t="s">
         <v>14</v>
@@ -23040,7 +23040,7 @@
       </c>
       <c r="Q486">
         <f ca="1"/>
-        <v>6</v>
+        <v>209</v>
       </c>
     </row>
     <row r="487" spans="1:17" x14ac:dyDescent="0.2">
@@ -23087,7 +23087,7 @@
       </c>
       <c r="Q487">
         <f ca="1"/>
-        <v>80</v>
+        <v>853</v>
       </c>
     </row>
     <row r="488" spans="1:17" x14ac:dyDescent="0.2">
@@ -23134,7 +23134,7 @@
       </c>
       <c r="Q488">
         <f ca="1"/>
-        <v>347</v>
+        <v>783</v>
       </c>
     </row>
     <row r="489" spans="1:17" x14ac:dyDescent="0.2">
@@ -23181,7 +23181,7 @@
       </c>
       <c r="Q489">
         <f ca="1"/>
-        <v>154</v>
+        <v>519</v>
       </c>
     </row>
     <row r="490" spans="1:17" x14ac:dyDescent="0.2">
@@ -23228,7 +23228,7 @@
       </c>
       <c r="Q490">
         <f ca="1"/>
-        <v>81</v>
+        <v>648</v>
       </c>
     </row>
     <row r="491" spans="1:17" x14ac:dyDescent="0.2">
@@ -23275,7 +23275,7 @@
       </c>
       <c r="Q491">
         <f ca="1"/>
-        <v>138</v>
+        <v>99</v>
       </c>
     </row>
     <row r="492" spans="1:17" x14ac:dyDescent="0.2">
@@ -23322,7 +23322,7 @@
       </c>
       <c r="Q492">
         <f ca="1"/>
-        <v>789</v>
+        <v>247</v>
       </c>
     </row>
     <row r="493" spans="1:17" x14ac:dyDescent="0.2">
@@ -23369,7 +23369,7 @@
       </c>
       <c r="Q493">
         <f ca="1"/>
-        <v>173</v>
+        <v>339</v>
       </c>
     </row>
     <row r="494" spans="1:17" x14ac:dyDescent="0.2">
@@ -23416,7 +23416,7 @@
       </c>
       <c r="Q494">
         <f ca="1"/>
-        <v>252</v>
+        <v>796</v>
       </c>
     </row>
     <row r="495" spans="1:17" x14ac:dyDescent="0.2">
@@ -23463,7 +23463,7 @@
       </c>
       <c r="Q495">
         <f ca="1"/>
-        <v>243</v>
+        <v>197</v>
       </c>
     </row>
     <row r="496" spans="1:17" x14ac:dyDescent="0.2">
@@ -23510,7 +23510,7 @@
       </c>
       <c r="Q496">
         <f ca="1"/>
-        <v>323</v>
+        <v>390</v>
       </c>
     </row>
     <row r="497" spans="1:17" x14ac:dyDescent="0.2">
@@ -23557,7 +23557,7 @@
       </c>
       <c r="Q497">
         <f ca="1"/>
-        <v>299</v>
+        <v>551</v>
       </c>
     </row>
     <row r="498" spans="1:17" x14ac:dyDescent="0.2">
@@ -23604,7 +23604,7 @@
       </c>
       <c r="Q498">
         <f ca="1"/>
-        <v>222</v>
+        <v>677</v>
       </c>
     </row>
     <row r="499" spans="1:17" x14ac:dyDescent="0.2">
@@ -23651,7 +23651,7 @@
       </c>
       <c r="Q499">
         <f ca="1"/>
-        <v>572</v>
+        <v>435</v>
       </c>
     </row>
     <row r="500" spans="1:17" x14ac:dyDescent="0.2">
@@ -23698,7 +23698,7 @@
       </c>
       <c r="Q500">
         <f ca="1"/>
-        <v>305</v>
+        <v>114</v>
       </c>
     </row>
     <row r="501" spans="1:17" x14ac:dyDescent="0.2">
@@ -23745,7 +23745,7 @@
       </c>
       <c r="Q501">
         <f ca="1"/>
-        <v>384</v>
+        <v>310</v>
       </c>
     </row>
     <row r="502" spans="1:17" x14ac:dyDescent="0.2">
@@ -23781,7 +23781,7 @@
       </c>
       <c r="L502">
         <f t="shared" ca="1" si="14"/>
-        <v>0.39589162957088919</v>
+        <v>0</v>
       </c>
       <c r="M502" t="s">
         <v>14</v>
@@ -23792,7 +23792,7 @@
       </c>
       <c r="Q502">
         <f ca="1"/>
-        <v>23</v>
+        <v>483</v>
       </c>
     </row>
     <row r="503" spans="1:17" x14ac:dyDescent="0.2">
@@ -23839,7 +23839,7 @@
       </c>
       <c r="Q503">
         <f ca="1"/>
-        <v>262</v>
+        <v>815</v>
       </c>
     </row>
     <row r="504" spans="1:17" x14ac:dyDescent="0.2">
@@ -23886,7 +23886,7 @@
       </c>
       <c r="Q504">
         <f ca="1"/>
-        <v>440</v>
+        <v>651</v>
       </c>
     </row>
     <row r="505" spans="1:17" x14ac:dyDescent="0.2">
@@ -23933,7 +23933,7 @@
       </c>
       <c r="Q505">
         <f ca="1"/>
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row r="506" spans="1:17" x14ac:dyDescent="0.2">
@@ -23980,7 +23980,7 @@
       </c>
       <c r="Q506">
         <f ca="1"/>
-        <v>510</v>
+        <v>397</v>
       </c>
     </row>
     <row r="507" spans="1:17" x14ac:dyDescent="0.2">
@@ -24027,7 +24027,7 @@
       </c>
       <c r="Q507">
         <f ca="1"/>
-        <v>648</v>
+        <v>564</v>
       </c>
     </row>
     <row r="508" spans="1:17" x14ac:dyDescent="0.2">
@@ -24074,7 +24074,7 @@
       </c>
       <c r="Q508">
         <f ca="1"/>
-        <v>498</v>
+        <v>38</v>
       </c>
     </row>
     <row r="509" spans="1:17" x14ac:dyDescent="0.2">
@@ -24121,7 +24121,7 @@
       </c>
       <c r="Q509">
         <f ca="1"/>
-        <v>465</v>
+        <v>722</v>
       </c>
     </row>
     <row r="510" spans="1:17" x14ac:dyDescent="0.2">
@@ -24157,7 +24157,7 @@
       </c>
       <c r="L510">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>1.2740806188781542</v>
       </c>
       <c r="M510" t="s">
         <v>14</v>
@@ -24168,7 +24168,7 @@
       </c>
       <c r="Q510">
         <f ca="1"/>
-        <v>450</v>
+        <v>8</v>
       </c>
     </row>
     <row r="511" spans="1:17" x14ac:dyDescent="0.2">
@@ -24204,7 +24204,7 @@
       </c>
       <c r="L511">
         <f t="shared" ca="1" si="14"/>
-        <v>0.55945068920484786</v>
+        <v>0</v>
       </c>
       <c r="M511" t="s">
         <v>14</v>
@@ -24215,7 +24215,7 @@
       </c>
       <c r="Q511">
         <f ca="1"/>
-        <v>21</v>
+        <v>373</v>
       </c>
     </row>
     <row r="512" spans="1:17" x14ac:dyDescent="0.2">
@@ -24262,7 +24262,7 @@
       </c>
       <c r="Q512">
         <f ca="1"/>
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="513" spans="1:17" x14ac:dyDescent="0.2">
@@ -24309,7 +24309,7 @@
       </c>
       <c r="Q513">
         <f ca="1"/>
-        <v>827</v>
+        <v>369</v>
       </c>
     </row>
     <row r="514" spans="1:17" x14ac:dyDescent="0.2">
@@ -24356,7 +24356,7 @@
       </c>
       <c r="Q514">
         <f ca="1"/>
-        <v>414</v>
+        <v>610</v>
       </c>
     </row>
     <row r="515" spans="1:17" x14ac:dyDescent="0.2">
@@ -24403,7 +24403,7 @@
       </c>
       <c r="Q515">
         <f ca="1"/>
-        <v>511</v>
+        <v>143</v>
       </c>
     </row>
     <row r="516" spans="1:17" x14ac:dyDescent="0.2">
@@ -24450,7 +24450,7 @@
       </c>
       <c r="Q516">
         <f ca="1"/>
-        <v>678</v>
+        <v>755</v>
       </c>
     </row>
     <row r="517" spans="1:17" x14ac:dyDescent="0.2">
@@ -24497,7 +24497,7 @@
       </c>
       <c r="Q517">
         <f ca="1"/>
-        <v>738</v>
+        <v>355</v>
       </c>
     </row>
     <row r="518" spans="1:17" x14ac:dyDescent="0.2">
@@ -24544,7 +24544,7 @@
       </c>
       <c r="Q518">
         <f ca="1"/>
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="519" spans="1:17" x14ac:dyDescent="0.2">
@@ -24591,7 +24591,7 @@
       </c>
       <c r="Q519">
         <f ca="1"/>
-        <v>830</v>
+        <v>371</v>
       </c>
     </row>
     <row r="520" spans="1:17" x14ac:dyDescent="0.2">
@@ -24638,7 +24638,7 @@
       </c>
       <c r="Q520">
         <f ca="1"/>
-        <v>603</v>
+        <v>268</v>
       </c>
     </row>
     <row r="521" spans="1:17" x14ac:dyDescent="0.2">
@@ -24685,7 +24685,7 @@
       </c>
       <c r="Q521">
         <f ca="1"/>
-        <v>171</v>
+        <v>523</v>
       </c>
     </row>
     <row r="522" spans="1:17" x14ac:dyDescent="0.2">
@@ -24732,7 +24732,7 @@
       </c>
       <c r="Q522">
         <f ca="1"/>
-        <v>130</v>
+        <v>103</v>
       </c>
     </row>
     <row r="523" spans="1:17" x14ac:dyDescent="0.2">
@@ -24767,7 +24767,7 @@
         <v>0</v>
       </c>
       <c r="L523">
-        <f t="shared" ref="L523:L586" ca="1" si="16">IF(COUNTIF(P$10:P$69, Q523)&gt;0, RAND()*3, 0)</f>
+        <f t="shared" ref="L523:L586" ca="1" si="16">IF(COUNTIF(P$10:P$29, Q523)&gt;0, RAND()*3, 0)</f>
         <v>0</v>
       </c>
       <c r="M523" t="s">
@@ -24779,7 +24779,7 @@
       </c>
       <c r="Q523">
         <f ca="1"/>
-        <v>232</v>
+        <v>378</v>
       </c>
     </row>
     <row r="524" spans="1:17" x14ac:dyDescent="0.2">
@@ -24826,7 +24826,7 @@
       </c>
       <c r="Q524">
         <f ca="1"/>
-        <v>505</v>
+        <v>709</v>
       </c>
     </row>
     <row r="525" spans="1:17" x14ac:dyDescent="0.2">
@@ -24873,7 +24873,7 @@
       </c>
       <c r="Q525">
         <f ca="1"/>
-        <v>513</v>
+        <v>386</v>
       </c>
     </row>
     <row r="526" spans="1:17" x14ac:dyDescent="0.2">
@@ -24920,7 +24920,7 @@
       </c>
       <c r="Q526">
         <f ca="1"/>
-        <v>476</v>
+        <v>133</v>
       </c>
     </row>
     <row r="527" spans="1:17" x14ac:dyDescent="0.2">
@@ -24967,7 +24967,7 @@
       </c>
       <c r="Q527">
         <f ca="1"/>
-        <v>862</v>
+        <v>488</v>
       </c>
     </row>
     <row r="528" spans="1:17" x14ac:dyDescent="0.2">
@@ -25014,7 +25014,7 @@
       </c>
       <c r="Q528">
         <f ca="1"/>
-        <v>167</v>
+        <v>281</v>
       </c>
     </row>
     <row r="529" spans="1:17" x14ac:dyDescent="0.2">
@@ -25061,7 +25061,7 @@
       </c>
       <c r="Q529">
         <f ca="1"/>
-        <v>782</v>
+        <v>92</v>
       </c>
     </row>
     <row r="530" spans="1:17" x14ac:dyDescent="0.2">
@@ -25097,7 +25097,7 @@
       </c>
       <c r="L530">
         <f t="shared" ca="1" si="16"/>
-        <v>1.3382818503002327</v>
+        <v>0</v>
       </c>
       <c r="M530" t="s">
         <v>14</v>
@@ -25108,7 +25108,7 @@
       </c>
       <c r="Q530">
         <f ca="1"/>
-        <v>49</v>
+        <v>612</v>
       </c>
     </row>
     <row r="531" spans="1:17" x14ac:dyDescent="0.2">
@@ -25155,7 +25155,7 @@
       </c>
       <c r="Q531">
         <f ca="1"/>
-        <v>351</v>
+        <v>678</v>
       </c>
     </row>
     <row r="532" spans="1:17" x14ac:dyDescent="0.2">
@@ -25202,7 +25202,7 @@
       </c>
       <c r="Q532">
         <f ca="1"/>
-        <v>609</v>
+        <v>141</v>
       </c>
     </row>
     <row r="533" spans="1:17" x14ac:dyDescent="0.2">
@@ -25249,7 +25249,7 @@
       </c>
       <c r="Q533">
         <f ca="1"/>
-        <v>773</v>
+        <v>780</v>
       </c>
     </row>
     <row r="534" spans="1:17" x14ac:dyDescent="0.2">
@@ -25296,7 +25296,7 @@
       </c>
       <c r="Q534">
         <f ca="1"/>
-        <v>120</v>
+        <v>219</v>
       </c>
     </row>
     <row r="535" spans="1:17" x14ac:dyDescent="0.2">
@@ -25343,7 +25343,7 @@
       </c>
       <c r="Q535">
         <f ca="1"/>
-        <v>446</v>
+        <v>345</v>
       </c>
     </row>
     <row r="536" spans="1:17" x14ac:dyDescent="0.2">
@@ -25390,7 +25390,7 @@
       </c>
       <c r="Q536">
         <f ca="1"/>
-        <v>685</v>
+        <v>58</v>
       </c>
     </row>
     <row r="537" spans="1:17" x14ac:dyDescent="0.2">
@@ -25437,7 +25437,7 @@
       </c>
       <c r="Q537">
         <f ca="1"/>
-        <v>762</v>
+        <v>116</v>
       </c>
     </row>
     <row r="538" spans="1:17" x14ac:dyDescent="0.2">
@@ -25484,7 +25484,7 @@
       </c>
       <c r="Q538">
         <f ca="1"/>
-        <v>429</v>
+        <v>834</v>
       </c>
     </row>
     <row r="539" spans="1:17" x14ac:dyDescent="0.2">
@@ -25531,7 +25531,7 @@
       </c>
       <c r="Q539">
         <f ca="1"/>
-        <v>96</v>
+        <v>226</v>
       </c>
     </row>
     <row r="540" spans="1:17" x14ac:dyDescent="0.2">
@@ -25578,7 +25578,7 @@
       </c>
       <c r="Q540">
         <f ca="1"/>
-        <v>327</v>
+        <v>228</v>
       </c>
     </row>
     <row r="541" spans="1:17" x14ac:dyDescent="0.2">
@@ -25625,7 +25625,7 @@
       </c>
       <c r="Q541">
         <f ca="1"/>
-        <v>128</v>
+        <v>269</v>
       </c>
     </row>
     <row r="542" spans="1:17" x14ac:dyDescent="0.2">
@@ -25672,7 +25672,7 @@
       </c>
       <c r="Q542">
         <f ca="1"/>
-        <v>676</v>
+        <v>227</v>
       </c>
     </row>
     <row r="543" spans="1:17" x14ac:dyDescent="0.2">
@@ -25719,7 +25719,7 @@
       </c>
       <c r="Q543">
         <f ca="1"/>
-        <v>582</v>
+        <v>623</v>
       </c>
     </row>
     <row r="544" spans="1:17" x14ac:dyDescent="0.2">
@@ -25766,7 +25766,7 @@
       </c>
       <c r="Q544">
         <f ca="1"/>
-        <v>662</v>
+        <v>697</v>
       </c>
     </row>
     <row r="545" spans="1:17" x14ac:dyDescent="0.2">
@@ -25813,7 +25813,7 @@
       </c>
       <c r="Q545">
         <f ca="1"/>
-        <v>153</v>
+        <v>332</v>
       </c>
     </row>
     <row r="546" spans="1:17" x14ac:dyDescent="0.2">
@@ -25860,7 +25860,7 @@
       </c>
       <c r="Q546">
         <f ca="1"/>
-        <v>818</v>
+        <v>850</v>
       </c>
     </row>
     <row r="547" spans="1:17" x14ac:dyDescent="0.2">
@@ -25907,7 +25907,7 @@
       </c>
       <c r="Q547">
         <f ca="1"/>
-        <v>579</v>
+        <v>748</v>
       </c>
     </row>
     <row r="548" spans="1:17" x14ac:dyDescent="0.2">
@@ -25954,7 +25954,7 @@
       </c>
       <c r="Q548">
         <f ca="1"/>
-        <v>115</v>
+        <v>626</v>
       </c>
     </row>
     <row r="549" spans="1:17" x14ac:dyDescent="0.2">
@@ -26001,7 +26001,7 @@
       </c>
       <c r="Q549">
         <f ca="1"/>
-        <v>330</v>
+        <v>196</v>
       </c>
     </row>
     <row r="550" spans="1:17" x14ac:dyDescent="0.2">
@@ -26048,7 +26048,7 @@
       </c>
       <c r="Q550">
         <f ca="1"/>
-        <v>236</v>
+        <v>284</v>
       </c>
     </row>
     <row r="551" spans="1:17" x14ac:dyDescent="0.2">
@@ -26095,7 +26095,7 @@
       </c>
       <c r="Q551">
         <f ca="1"/>
-        <v>798</v>
+        <v>546</v>
       </c>
     </row>
     <row r="552" spans="1:17" x14ac:dyDescent="0.2">
@@ -26142,7 +26142,7 @@
       </c>
       <c r="Q552">
         <f ca="1"/>
-        <v>791</v>
+        <v>24</v>
       </c>
     </row>
     <row r="553" spans="1:17" x14ac:dyDescent="0.2">
@@ -26178,7 +26178,7 @@
       </c>
       <c r="L553">
         <f t="shared" ca="1" si="16"/>
-        <v>0.49748209759433859</v>
+        <v>0</v>
       </c>
       <c r="M553" t="s">
         <v>14</v>
@@ -26189,7 +26189,7 @@
       </c>
       <c r="Q553">
         <f ca="1"/>
-        <v>12</v>
+        <v>792</v>
       </c>
     </row>
     <row r="554" spans="1:17" x14ac:dyDescent="0.2">
@@ -26236,7 +26236,7 @@
       </c>
       <c r="Q554">
         <f ca="1"/>
-        <v>259</v>
+        <v>857</v>
       </c>
     </row>
     <row r="555" spans="1:17" x14ac:dyDescent="0.2">
@@ -26283,7 +26283,7 @@
       </c>
       <c r="Q555">
         <f ca="1"/>
-        <v>473</v>
+        <v>516</v>
       </c>
     </row>
     <row r="556" spans="1:17" x14ac:dyDescent="0.2">
@@ -26330,7 +26330,7 @@
       </c>
       <c r="Q556">
         <f ca="1"/>
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="557" spans="1:17" x14ac:dyDescent="0.2">
@@ -26377,7 +26377,7 @@
       </c>
       <c r="Q557">
         <f ca="1"/>
-        <v>410</v>
+        <v>54</v>
       </c>
     </row>
     <row r="558" spans="1:17" x14ac:dyDescent="0.2">
@@ -26413,7 +26413,7 @@
       </c>
       <c r="L558">
         <f t="shared" ca="1" si="16"/>
-        <v>2.7993257122111652</v>
+        <v>0</v>
       </c>
       <c r="M558" t="s">
         <v>14</v>
@@ -26424,7 +26424,7 @@
       </c>
       <c r="Q558">
         <f ca="1"/>
-        <v>5</v>
+        <v>484</v>
       </c>
     </row>
     <row r="559" spans="1:17" x14ac:dyDescent="0.2">
@@ -26471,7 +26471,7 @@
       </c>
       <c r="Q559">
         <f ca="1"/>
-        <v>615</v>
+        <v>136</v>
       </c>
     </row>
     <row r="560" spans="1:17" x14ac:dyDescent="0.2">
@@ -26518,7 +26518,7 @@
       </c>
       <c r="Q560">
         <f ca="1"/>
-        <v>553</v>
+        <v>405</v>
       </c>
     </row>
     <row r="561" spans="1:17" x14ac:dyDescent="0.2">
@@ -26554,7 +26554,7 @@
       </c>
       <c r="L561">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>0.57263623295023802</v>
       </c>
       <c r="M561" t="s">
         <v>14</v>
@@ -26565,7 +26565,7 @@
       </c>
       <c r="Q561">
         <f ca="1"/>
-        <v>395</v>
+        <v>17</v>
       </c>
     </row>
     <row r="562" spans="1:17" x14ac:dyDescent="0.2">
@@ -26612,7 +26612,7 @@
       </c>
       <c r="Q562">
         <f ca="1"/>
-        <v>454</v>
+        <v>567</v>
       </c>
     </row>
     <row r="563" spans="1:17" x14ac:dyDescent="0.2">
@@ -26659,7 +26659,7 @@
       </c>
       <c r="Q563">
         <f ca="1"/>
-        <v>807</v>
+        <v>412</v>
       </c>
     </row>
     <row r="564" spans="1:17" x14ac:dyDescent="0.2">
@@ -26706,7 +26706,7 @@
       </c>
       <c r="Q564">
         <f ca="1"/>
-        <v>863</v>
+        <v>732</v>
       </c>
     </row>
     <row r="565" spans="1:17" x14ac:dyDescent="0.2">
@@ -26753,7 +26753,7 @@
       </c>
       <c r="Q565">
         <f ca="1"/>
-        <v>857</v>
+        <v>71</v>
       </c>
     </row>
     <row r="566" spans="1:17" x14ac:dyDescent="0.2">
@@ -26800,7 +26800,7 @@
       </c>
       <c r="Q566">
         <f ca="1"/>
-        <v>578</v>
+        <v>708</v>
       </c>
     </row>
     <row r="567" spans="1:17" x14ac:dyDescent="0.2">
@@ -26847,7 +26847,7 @@
       </c>
       <c r="Q567">
         <f ca="1"/>
-        <v>273</v>
+        <v>442</v>
       </c>
     </row>
     <row r="568" spans="1:17" x14ac:dyDescent="0.2">
@@ -26894,7 +26894,7 @@
       </c>
       <c r="Q568">
         <f ca="1"/>
-        <v>207</v>
+        <v>689</v>
       </c>
     </row>
     <row r="569" spans="1:17" x14ac:dyDescent="0.2">
@@ -26941,7 +26941,7 @@
       </c>
       <c r="Q569">
         <f ca="1"/>
-        <v>856</v>
+        <v>758</v>
       </c>
     </row>
     <row r="570" spans="1:17" x14ac:dyDescent="0.2">
@@ -26988,7 +26988,7 @@
       </c>
       <c r="Q570">
         <f ca="1"/>
-        <v>837</v>
+        <v>497</v>
       </c>
     </row>
     <row r="571" spans="1:17" x14ac:dyDescent="0.2">
@@ -27035,7 +27035,7 @@
       </c>
       <c r="Q571">
         <f ca="1"/>
-        <v>284</v>
+        <v>517</v>
       </c>
     </row>
     <row r="572" spans="1:17" x14ac:dyDescent="0.2">
@@ -27082,7 +27082,7 @@
       </c>
       <c r="Q572">
         <f ca="1"/>
-        <v>98</v>
+        <v>802</v>
       </c>
     </row>
     <row r="573" spans="1:17" x14ac:dyDescent="0.2">
@@ -27129,7 +27129,7 @@
       </c>
       <c r="Q573">
         <f ca="1"/>
-        <v>267</v>
+        <v>637</v>
       </c>
     </row>
     <row r="574" spans="1:17" x14ac:dyDescent="0.2">
@@ -27165,7 +27165,7 @@
       </c>
       <c r="L574">
         <f t="shared" ca="1" si="16"/>
-        <v>0.86090711702998046</v>
+        <v>0</v>
       </c>
       <c r="M574" t="s">
         <v>14</v>
@@ -27176,7 +27176,7 @@
       </c>
       <c r="Q574">
         <f ca="1"/>
-        <v>10</v>
+        <v>287</v>
       </c>
     </row>
     <row r="575" spans="1:17" x14ac:dyDescent="0.2">
@@ -27223,7 +27223,7 @@
       </c>
       <c r="Q575">
         <f ca="1"/>
-        <v>213</v>
+        <v>774</v>
       </c>
     </row>
     <row r="576" spans="1:17" x14ac:dyDescent="0.2">
@@ -27270,7 +27270,7 @@
       </c>
       <c r="Q576">
         <f ca="1"/>
-        <v>415</v>
+        <v>524</v>
       </c>
     </row>
     <row r="577" spans="1:17" x14ac:dyDescent="0.2">
@@ -27317,7 +27317,7 @@
       </c>
       <c r="Q577">
         <f ca="1"/>
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="578" spans="1:17" x14ac:dyDescent="0.2">
@@ -27364,7 +27364,7 @@
       </c>
       <c r="Q578">
         <f ca="1"/>
-        <v>447</v>
+        <v>750</v>
       </c>
     </row>
     <row r="579" spans="1:17" x14ac:dyDescent="0.2">
@@ -27411,7 +27411,7 @@
       </c>
       <c r="Q579">
         <f ca="1"/>
-        <v>193</v>
+        <v>537</v>
       </c>
     </row>
     <row r="580" spans="1:17" x14ac:dyDescent="0.2">
@@ -27458,7 +27458,7 @@
       </c>
       <c r="Q580">
         <f ca="1"/>
-        <v>316</v>
+        <v>26</v>
       </c>
     </row>
     <row r="581" spans="1:17" x14ac:dyDescent="0.2">
@@ -27505,7 +27505,7 @@
       </c>
       <c r="Q581">
         <f ca="1"/>
-        <v>139</v>
+        <v>803</v>
       </c>
     </row>
     <row r="582" spans="1:17" x14ac:dyDescent="0.2">
@@ -27552,7 +27552,7 @@
       </c>
       <c r="Q582">
         <f ca="1"/>
-        <v>162</v>
+        <v>138</v>
       </c>
     </row>
     <row r="583" spans="1:17" x14ac:dyDescent="0.2">
@@ -27599,7 +27599,7 @@
       </c>
       <c r="Q583">
         <f ca="1"/>
-        <v>539</v>
+        <v>21</v>
       </c>
     </row>
     <row r="584" spans="1:17" x14ac:dyDescent="0.2">
@@ -27646,7 +27646,7 @@
       </c>
       <c r="Q584">
         <f ca="1"/>
-        <v>277</v>
+        <v>417</v>
       </c>
     </row>
     <row r="585" spans="1:17" x14ac:dyDescent="0.2">
@@ -27693,7 +27693,7 @@
       </c>
       <c r="Q585">
         <f ca="1"/>
-        <v>387</v>
+        <v>725</v>
       </c>
     </row>
     <row r="586" spans="1:17" x14ac:dyDescent="0.2">
@@ -27740,7 +27740,7 @@
       </c>
       <c r="Q586">
         <f ca="1"/>
-        <v>613</v>
+        <v>860</v>
       </c>
     </row>
     <row r="587" spans="1:17" x14ac:dyDescent="0.2">
@@ -27775,7 +27775,7 @@
         <v>0</v>
       </c>
       <c r="L587">
-        <f t="shared" ref="L587:L650" ca="1" si="18">IF(COUNTIF(P$10:P$69, Q587)&gt;0, RAND()*3, 0)</f>
+        <f t="shared" ref="L587:L650" ca="1" si="18">IF(COUNTIF(P$10:P$29, Q587)&gt;0, RAND()*3, 0)</f>
         <v>0</v>
       </c>
       <c r="M587" t="s">
@@ -27787,7 +27787,7 @@
       </c>
       <c r="Q587">
         <f ca="1"/>
-        <v>281</v>
+        <v>31</v>
       </c>
     </row>
     <row r="588" spans="1:17" x14ac:dyDescent="0.2">
@@ -27834,7 +27834,7 @@
       </c>
       <c r="Q588">
         <f ca="1"/>
-        <v>480</v>
+        <v>215</v>
       </c>
     </row>
     <row r="589" spans="1:17" x14ac:dyDescent="0.2">
@@ -27881,7 +27881,7 @@
       </c>
       <c r="Q589">
         <f ca="1"/>
-        <v>488</v>
+        <v>757</v>
       </c>
     </row>
     <row r="590" spans="1:17" x14ac:dyDescent="0.2">
@@ -27928,7 +27928,7 @@
       </c>
       <c r="Q590">
         <f ca="1"/>
-        <v>449</v>
+        <v>231</v>
       </c>
     </row>
     <row r="591" spans="1:17" x14ac:dyDescent="0.2">
@@ -27975,7 +27975,7 @@
       </c>
       <c r="Q591">
         <f ca="1"/>
-        <v>260</v>
+        <v>871</v>
       </c>
     </row>
     <row r="592" spans="1:17" x14ac:dyDescent="0.2">
@@ -28022,7 +28022,7 @@
       </c>
       <c r="Q592">
         <f ca="1"/>
-        <v>503</v>
+        <v>522</v>
       </c>
     </row>
     <row r="593" spans="1:17" x14ac:dyDescent="0.2">
@@ -28069,7 +28069,7 @@
       </c>
       <c r="Q593">
         <f ca="1"/>
-        <v>544</v>
+        <v>207</v>
       </c>
     </row>
     <row r="594" spans="1:17" x14ac:dyDescent="0.2">
@@ -28116,7 +28116,7 @@
       </c>
       <c r="Q594">
         <f ca="1"/>
-        <v>406</v>
+        <v>571</v>
       </c>
     </row>
     <row r="595" spans="1:17" x14ac:dyDescent="0.2">
@@ -28163,7 +28163,7 @@
       </c>
       <c r="Q595">
         <f ca="1"/>
-        <v>401</v>
+        <v>825</v>
       </c>
     </row>
     <row r="596" spans="1:17" x14ac:dyDescent="0.2">
@@ -28210,7 +28210,7 @@
       </c>
       <c r="Q596">
         <f ca="1"/>
-        <v>463</v>
+        <v>682</v>
       </c>
     </row>
     <row r="597" spans="1:17" x14ac:dyDescent="0.2">
@@ -28257,7 +28257,7 @@
       </c>
       <c r="Q597">
         <f ca="1"/>
-        <v>647</v>
+        <v>466</v>
       </c>
     </row>
     <row r="598" spans="1:17" x14ac:dyDescent="0.2">
@@ -28304,7 +28304,7 @@
       </c>
       <c r="Q598">
         <f ca="1"/>
-        <v>101</v>
+        <v>366</v>
       </c>
     </row>
     <row r="599" spans="1:17" x14ac:dyDescent="0.2">
@@ -28351,7 +28351,7 @@
       </c>
       <c r="Q599">
         <f ca="1"/>
-        <v>75</v>
+        <v>539</v>
       </c>
     </row>
     <row r="600" spans="1:17" x14ac:dyDescent="0.2">
@@ -28398,7 +28398,7 @@
       </c>
       <c r="Q600">
         <f ca="1"/>
-        <v>311</v>
+        <v>29</v>
       </c>
     </row>
     <row r="601" spans="1:17" x14ac:dyDescent="0.2">
@@ -28445,7 +28445,7 @@
       </c>
       <c r="Q601">
         <f ca="1"/>
-        <v>87</v>
+        <v>843</v>
       </c>
     </row>
     <row r="602" spans="1:17" x14ac:dyDescent="0.2">
@@ -28492,7 +28492,7 @@
       </c>
       <c r="Q602">
         <f ca="1"/>
-        <v>306</v>
+        <v>674</v>
       </c>
     </row>
     <row r="603" spans="1:17" x14ac:dyDescent="0.2">
@@ -28539,7 +28539,7 @@
       </c>
       <c r="Q603">
         <f ca="1"/>
-        <v>179</v>
+        <v>266</v>
       </c>
     </row>
     <row r="604" spans="1:17" x14ac:dyDescent="0.2">
@@ -28575,7 +28575,7 @@
       </c>
       <c r="L604">
         <f t="shared" ca="1" si="18"/>
-        <v>0.14608775222128734</v>
+        <v>0</v>
       </c>
       <c r="M604" t="s">
         <v>14</v>
@@ -28586,7 +28586,7 @@
       </c>
       <c r="Q604">
         <f ca="1"/>
-        <v>44</v>
+        <v>229</v>
       </c>
     </row>
     <row r="605" spans="1:17" x14ac:dyDescent="0.2">
@@ -28633,7 +28633,7 @@
       </c>
       <c r="Q605">
         <f ca="1"/>
-        <v>524</v>
+        <v>421</v>
       </c>
     </row>
     <row r="606" spans="1:17" x14ac:dyDescent="0.2">
@@ -28680,7 +28680,7 @@
       </c>
       <c r="Q606">
         <f ca="1"/>
-        <v>302</v>
+        <v>170</v>
       </c>
     </row>
     <row r="607" spans="1:17" x14ac:dyDescent="0.2">
@@ -28727,7 +28727,7 @@
       </c>
       <c r="Q607">
         <f ca="1"/>
-        <v>759</v>
+        <v>172</v>
       </c>
     </row>
     <row r="608" spans="1:17" x14ac:dyDescent="0.2">
@@ -28774,7 +28774,7 @@
       </c>
       <c r="Q608">
         <f ca="1"/>
-        <v>489</v>
+        <v>272</v>
       </c>
     </row>
     <row r="609" spans="1:17" x14ac:dyDescent="0.2">
@@ -28821,7 +28821,7 @@
       </c>
       <c r="Q609">
         <f ca="1"/>
-        <v>860</v>
+        <v>470</v>
       </c>
     </row>
     <row r="610" spans="1:17" x14ac:dyDescent="0.2">
@@ -28857,7 +28857,7 @@
       </c>
       <c r="L610">
         <f t="shared" ca="1" si="18"/>
-        <v>1.6941151977443552</v>
+        <v>0</v>
       </c>
       <c r="M610" t="s">
         <v>14</v>
@@ -28868,7 +28868,7 @@
       </c>
       <c r="Q610">
         <f ca="1"/>
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="611" spans="1:17" x14ac:dyDescent="0.2">
@@ -28915,7 +28915,7 @@
       </c>
       <c r="Q611">
         <f ca="1"/>
-        <v>746</v>
+        <v>662</v>
       </c>
     </row>
     <row r="612" spans="1:17" x14ac:dyDescent="0.2">
@@ -28962,7 +28962,7 @@
       </c>
       <c r="Q612">
         <f ca="1"/>
-        <v>528</v>
+        <v>449</v>
       </c>
     </row>
     <row r="613" spans="1:17" x14ac:dyDescent="0.2">
@@ -29009,7 +29009,7 @@
       </c>
       <c r="Q613">
         <f ca="1"/>
-        <v>822</v>
+        <v>100</v>
       </c>
     </row>
     <row r="614" spans="1:17" x14ac:dyDescent="0.2">
@@ -29056,7 +29056,7 @@
       </c>
       <c r="Q614">
         <f ca="1"/>
-        <v>821</v>
+        <v>86</v>
       </c>
     </row>
     <row r="615" spans="1:17" x14ac:dyDescent="0.2">
@@ -29103,7 +29103,7 @@
       </c>
       <c r="Q615">
         <f ca="1"/>
-        <v>646</v>
+        <v>582</v>
       </c>
     </row>
     <row r="616" spans="1:17" x14ac:dyDescent="0.2">
@@ -29139,7 +29139,7 @@
       </c>
       <c r="L616">
         <f t="shared" ca="1" si="18"/>
-        <v>1.8309842686498019</v>
+        <v>0</v>
       </c>
       <c r="M616" t="s">
         <v>14</v>
@@ -29150,7 +29150,7 @@
       </c>
       <c r="Q616">
         <f ca="1"/>
-        <v>59</v>
+        <v>445</v>
       </c>
     </row>
     <row r="617" spans="1:17" x14ac:dyDescent="0.2">
@@ -29186,7 +29186,7 @@
       </c>
       <c r="L617">
         <f t="shared" ca="1" si="18"/>
-        <v>0</v>
+        <v>2.0432832281906252</v>
       </c>
       <c r="M617" t="s">
         <v>14</v>
@@ -29197,7 +29197,7 @@
       </c>
       <c r="Q617">
         <f ca="1"/>
-        <v>474</v>
+        <v>11</v>
       </c>
     </row>
     <row r="618" spans="1:17" x14ac:dyDescent="0.2">
@@ -29244,7 +29244,7 @@
       </c>
       <c r="Q618">
         <f ca="1"/>
-        <v>184</v>
+        <v>591</v>
       </c>
     </row>
     <row r="619" spans="1:17" x14ac:dyDescent="0.2">
@@ -29291,7 +29291,7 @@
       </c>
       <c r="Q619">
         <f ca="1"/>
-        <v>705</v>
+        <v>295</v>
       </c>
     </row>
     <row r="620" spans="1:17" x14ac:dyDescent="0.2">
@@ -29338,7 +29338,7 @@
       </c>
       <c r="Q620">
         <f ca="1"/>
-        <v>581</v>
+        <v>446</v>
       </c>
     </row>
     <row r="621" spans="1:17" x14ac:dyDescent="0.2">
@@ -29385,7 +29385,7 @@
       </c>
       <c r="Q621">
         <f ca="1"/>
-        <v>740</v>
+        <v>804</v>
       </c>
     </row>
     <row r="622" spans="1:17" x14ac:dyDescent="0.2">
@@ -29432,7 +29432,7 @@
       </c>
       <c r="Q622">
         <f ca="1"/>
-        <v>720</v>
+        <v>781</v>
       </c>
     </row>
     <row r="623" spans="1:17" x14ac:dyDescent="0.2">
@@ -29479,7 +29479,7 @@
       </c>
       <c r="Q623">
         <f ca="1"/>
-        <v>778</v>
+        <v>256</v>
       </c>
     </row>
     <row r="624" spans="1:17" x14ac:dyDescent="0.2">
@@ -29526,7 +29526,7 @@
       </c>
       <c r="Q624">
         <f ca="1"/>
-        <v>861</v>
+        <v>414</v>
       </c>
     </row>
     <row r="625" spans="1:17" x14ac:dyDescent="0.2">
@@ -29562,7 +29562,7 @@
       </c>
       <c r="L625">
         <f t="shared" ca="1" si="18"/>
-        <v>2.9278897709449474</v>
+        <v>0</v>
       </c>
       <c r="M625" t="s">
         <v>14</v>
@@ -29573,7 +29573,7 @@
       </c>
       <c r="Q625">
         <f ca="1"/>
-        <v>46</v>
+        <v>739</v>
       </c>
     </row>
     <row r="626" spans="1:17" x14ac:dyDescent="0.2">
@@ -29620,7 +29620,7 @@
       </c>
       <c r="Q626">
         <f ca="1"/>
-        <v>806</v>
+        <v>728</v>
       </c>
     </row>
     <row r="627" spans="1:17" x14ac:dyDescent="0.2">
@@ -29667,7 +29667,7 @@
       </c>
       <c r="Q627">
         <f ca="1"/>
-        <v>475</v>
+        <v>96</v>
       </c>
     </row>
     <row r="628" spans="1:17" x14ac:dyDescent="0.2">
@@ -29714,7 +29714,7 @@
       </c>
       <c r="Q628">
         <f ca="1"/>
-        <v>614</v>
+        <v>379</v>
       </c>
     </row>
     <row r="629" spans="1:17" x14ac:dyDescent="0.2">
@@ -29761,7 +29761,7 @@
       </c>
       <c r="Q629">
         <f ca="1"/>
-        <v>152</v>
+        <v>515</v>
       </c>
     </row>
     <row r="630" spans="1:17" x14ac:dyDescent="0.2">
@@ -29808,7 +29808,7 @@
       </c>
       <c r="Q630">
         <f ca="1"/>
-        <v>649</v>
+        <v>349</v>
       </c>
     </row>
     <row r="631" spans="1:17" x14ac:dyDescent="0.2">
@@ -29855,7 +29855,7 @@
       </c>
       <c r="Q631">
         <f ca="1"/>
-        <v>610</v>
+        <v>134</v>
       </c>
     </row>
     <row r="632" spans="1:17" x14ac:dyDescent="0.2">
@@ -29902,7 +29902,7 @@
       </c>
       <c r="Q632">
         <f ca="1"/>
-        <v>215</v>
+        <v>819</v>
       </c>
     </row>
     <row r="633" spans="1:17" x14ac:dyDescent="0.2">
@@ -29949,7 +29949,7 @@
       </c>
       <c r="Q633">
         <f ca="1"/>
-        <v>345</v>
+        <v>653</v>
       </c>
     </row>
     <row r="634" spans="1:17" x14ac:dyDescent="0.2">
@@ -29996,7 +29996,7 @@
       </c>
       <c r="Q634">
         <f ca="1"/>
-        <v>157</v>
+        <v>74</v>
       </c>
     </row>
     <row r="635" spans="1:17" x14ac:dyDescent="0.2">
@@ -30043,7 +30043,7 @@
       </c>
       <c r="Q635">
         <f ca="1"/>
-        <v>102</v>
+        <v>239</v>
       </c>
     </row>
     <row r="636" spans="1:17" x14ac:dyDescent="0.2">
@@ -30090,7 +30090,7 @@
       </c>
       <c r="Q636">
         <f ca="1"/>
-        <v>748</v>
+        <v>389</v>
       </c>
     </row>
     <row r="637" spans="1:17" x14ac:dyDescent="0.2">
@@ -30137,7 +30137,7 @@
       </c>
       <c r="Q637">
         <f ca="1"/>
-        <v>320</v>
+        <v>652</v>
       </c>
     </row>
     <row r="638" spans="1:17" x14ac:dyDescent="0.2">
@@ -30184,7 +30184,7 @@
       </c>
       <c r="Q638">
         <f ca="1"/>
-        <v>716</v>
+        <v>518</v>
       </c>
     </row>
     <row r="639" spans="1:17" x14ac:dyDescent="0.2">
@@ -30231,7 +30231,7 @@
       </c>
       <c r="Q639">
         <f ca="1"/>
-        <v>495</v>
+        <v>308</v>
       </c>
     </row>
     <row r="640" spans="1:17" x14ac:dyDescent="0.2">
@@ -30278,7 +30278,7 @@
       </c>
       <c r="Q640">
         <f ca="1"/>
-        <v>416</v>
+        <v>665</v>
       </c>
     </row>
     <row r="641" spans="1:17" x14ac:dyDescent="0.2">
@@ -30325,7 +30325,7 @@
       </c>
       <c r="Q641">
         <f ca="1"/>
-        <v>792</v>
+        <v>440</v>
       </c>
     </row>
     <row r="642" spans="1:17" x14ac:dyDescent="0.2">
@@ -30372,7 +30372,7 @@
       </c>
       <c r="Q642">
         <f ca="1"/>
-        <v>346</v>
+        <v>679</v>
       </c>
     </row>
     <row r="643" spans="1:17" x14ac:dyDescent="0.2">
@@ -30419,7 +30419,7 @@
       </c>
       <c r="Q643">
         <f ca="1"/>
-        <v>458</v>
+        <v>401</v>
       </c>
     </row>
     <row r="644" spans="1:17" x14ac:dyDescent="0.2">
@@ -30466,7 +30466,7 @@
       </c>
       <c r="Q644">
         <f ca="1"/>
-        <v>520</v>
+        <v>502</v>
       </c>
     </row>
     <row r="645" spans="1:17" x14ac:dyDescent="0.2">
@@ -30513,7 +30513,7 @@
       </c>
       <c r="Q645">
         <f ca="1"/>
-        <v>643</v>
+        <v>243</v>
       </c>
     </row>
     <row r="646" spans="1:17" x14ac:dyDescent="0.2">
@@ -30560,7 +30560,7 @@
       </c>
       <c r="Q646">
         <f ca="1"/>
-        <v>199</v>
+        <v>174</v>
       </c>
     </row>
     <row r="647" spans="1:17" x14ac:dyDescent="0.2">
@@ -30607,7 +30607,7 @@
       </c>
       <c r="Q647">
         <f ca="1"/>
-        <v>258</v>
+        <v>377</v>
       </c>
     </row>
     <row r="648" spans="1:17" x14ac:dyDescent="0.2">
@@ -30654,7 +30654,7 @@
       </c>
       <c r="Q648">
         <f ca="1"/>
-        <v>358</v>
+        <v>275</v>
       </c>
     </row>
     <row r="649" spans="1:17" x14ac:dyDescent="0.2">
@@ -30701,7 +30701,7 @@
       </c>
       <c r="Q649">
         <f ca="1"/>
-        <v>210</v>
+        <v>77</v>
       </c>
     </row>
     <row r="650" spans="1:17" x14ac:dyDescent="0.2">
@@ -30748,7 +30748,7 @@
       </c>
       <c r="Q650">
         <f ca="1"/>
-        <v>304</v>
+        <v>534</v>
       </c>
     </row>
     <row r="651" spans="1:17" x14ac:dyDescent="0.2">
@@ -30783,7 +30783,7 @@
         <v>0</v>
       </c>
       <c r="L651">
-        <f t="shared" ref="L651:L714" ca="1" si="20">IF(COUNTIF(P$10:P$69, Q651)&gt;0, RAND()*3, 0)</f>
+        <f t="shared" ref="L651:L714" ca="1" si="20">IF(COUNTIF(P$10:P$29, Q651)&gt;0, RAND()*3, 0)</f>
         <v>0</v>
       </c>
       <c r="M651" t="s">
@@ -30795,7 +30795,7 @@
       </c>
       <c r="Q651">
         <f ca="1"/>
-        <v>536</v>
+        <v>387</v>
       </c>
     </row>
     <row r="652" spans="1:17" x14ac:dyDescent="0.2">
@@ -30831,7 +30831,7 @@
       </c>
       <c r="L652">
         <f t="shared" ca="1" si="20"/>
-        <v>1.2402201489581599E-2</v>
+        <v>0</v>
       </c>
       <c r="M652" t="s">
         <v>14</v>
@@ -30842,7 +30842,7 @@
       </c>
       <c r="Q652">
         <f ca="1"/>
-        <v>39</v>
+        <v>456</v>
       </c>
     </row>
     <row r="653" spans="1:17" x14ac:dyDescent="0.2">
@@ -30889,7 +30889,7 @@
       </c>
       <c r="Q653">
         <f ca="1"/>
-        <v>595</v>
+        <v>854</v>
       </c>
     </row>
     <row r="654" spans="1:17" x14ac:dyDescent="0.2">
@@ -30936,7 +30936,7 @@
       </c>
       <c r="Q654">
         <f ca="1"/>
-        <v>228</v>
+        <v>123</v>
       </c>
     </row>
     <row r="655" spans="1:17" x14ac:dyDescent="0.2">
@@ -30983,7 +30983,7 @@
       </c>
       <c r="Q655">
         <f ca="1"/>
-        <v>793</v>
+        <v>180</v>
       </c>
     </row>
     <row r="656" spans="1:17" x14ac:dyDescent="0.2">
@@ -31030,7 +31030,7 @@
       </c>
       <c r="Q656">
         <f ca="1"/>
-        <v>319</v>
+        <v>668</v>
       </c>
     </row>
     <row r="657" spans="1:17" x14ac:dyDescent="0.2">
@@ -31077,7 +31077,7 @@
       </c>
       <c r="Q657">
         <f ca="1"/>
-        <v>726</v>
+        <v>201</v>
       </c>
     </row>
     <row r="658" spans="1:17" x14ac:dyDescent="0.2">
@@ -31124,7 +31124,7 @@
       </c>
       <c r="Q658">
         <f ca="1"/>
-        <v>607</v>
+        <v>681</v>
       </c>
     </row>
     <row r="659" spans="1:17" x14ac:dyDescent="0.2">
@@ -31160,7 +31160,7 @@
       </c>
       <c r="L659">
         <f t="shared" ca="1" si="20"/>
-        <v>2.1253410044536163</v>
+        <v>0</v>
       </c>
       <c r="M659" t="s">
         <v>14</v>
@@ -31171,7 +31171,7 @@
       </c>
       <c r="Q659">
         <f ca="1"/>
-        <v>18</v>
+        <v>382</v>
       </c>
     </row>
     <row r="660" spans="1:17" x14ac:dyDescent="0.2">
@@ -31218,7 +31218,7 @@
       </c>
       <c r="Q660">
         <f ca="1"/>
-        <v>477</v>
+        <v>643</v>
       </c>
     </row>
     <row r="661" spans="1:17" x14ac:dyDescent="0.2">
@@ -31265,7 +31265,7 @@
       </c>
       <c r="Q661">
         <f ca="1"/>
-        <v>291</v>
+        <v>863</v>
       </c>
     </row>
     <row r="662" spans="1:17" x14ac:dyDescent="0.2">
@@ -31312,7 +31312,7 @@
       </c>
       <c r="Q662">
         <f ca="1"/>
-        <v>559</v>
+        <v>791</v>
       </c>
     </row>
     <row r="663" spans="1:17" x14ac:dyDescent="0.2">
@@ -31359,7 +31359,7 @@
       </c>
       <c r="Q663">
         <f ca="1"/>
-        <v>69</v>
+        <v>320</v>
       </c>
     </row>
     <row r="664" spans="1:17" x14ac:dyDescent="0.2">
@@ -31406,7 +31406,7 @@
       </c>
       <c r="Q664">
         <f ca="1"/>
-        <v>230</v>
+        <v>204</v>
       </c>
     </row>
     <row r="665" spans="1:17" x14ac:dyDescent="0.2">
@@ -31453,7 +31453,7 @@
       </c>
       <c r="Q665">
         <f ca="1"/>
-        <v>820</v>
+        <v>353</v>
       </c>
     </row>
     <row r="666" spans="1:17" x14ac:dyDescent="0.2">
@@ -31500,7 +31500,7 @@
       </c>
       <c r="Q666">
         <f ca="1"/>
-        <v>155</v>
+        <v>614</v>
       </c>
     </row>
     <row r="667" spans="1:17" x14ac:dyDescent="0.2">
@@ -31547,7 +31547,7 @@
       </c>
       <c r="Q667">
         <f ca="1"/>
-        <v>164</v>
+        <v>716</v>
       </c>
     </row>
     <row r="668" spans="1:17" x14ac:dyDescent="0.2">
@@ -31594,7 +31594,7 @@
       </c>
       <c r="Q668">
         <f ca="1"/>
-        <v>144</v>
+        <v>535</v>
       </c>
     </row>
     <row r="669" spans="1:17" x14ac:dyDescent="0.2">
@@ -31641,7 +31641,7 @@
       </c>
       <c r="Q669">
         <f ca="1"/>
-        <v>796</v>
+        <v>765</v>
       </c>
     </row>
     <row r="670" spans="1:17" x14ac:dyDescent="0.2">
@@ -31688,7 +31688,7 @@
       </c>
       <c r="Q670">
         <f ca="1"/>
-        <v>118</v>
+        <v>286</v>
       </c>
     </row>
     <row r="671" spans="1:17" x14ac:dyDescent="0.2">
@@ -31735,7 +31735,7 @@
       </c>
       <c r="Q671">
         <f ca="1"/>
-        <v>150</v>
+        <v>869</v>
       </c>
     </row>
     <row r="672" spans="1:17" x14ac:dyDescent="0.2">
@@ -31782,7 +31782,7 @@
       </c>
       <c r="Q672">
         <f ca="1"/>
-        <v>845</v>
+        <v>593</v>
       </c>
     </row>
     <row r="673" spans="1:17" x14ac:dyDescent="0.2">
@@ -31829,7 +31829,7 @@
       </c>
       <c r="Q673">
         <f ca="1"/>
-        <v>68</v>
+        <v>605</v>
       </c>
     </row>
     <row r="674" spans="1:17" x14ac:dyDescent="0.2">
@@ -31876,7 +31876,7 @@
       </c>
       <c r="Q674">
         <f ca="1"/>
-        <v>694</v>
+        <v>159</v>
       </c>
     </row>
     <row r="675" spans="1:17" x14ac:dyDescent="0.2">
@@ -31923,7 +31923,7 @@
       </c>
       <c r="Q675">
         <f ca="1"/>
-        <v>181</v>
+        <v>331</v>
       </c>
     </row>
     <row r="676" spans="1:17" x14ac:dyDescent="0.2">
@@ -31970,7 +31970,7 @@
       </c>
       <c r="Q676">
         <f ca="1"/>
-        <v>842</v>
+        <v>787</v>
       </c>
     </row>
     <row r="677" spans="1:17" x14ac:dyDescent="0.2">
@@ -32017,7 +32017,7 @@
       </c>
       <c r="Q677">
         <f ca="1"/>
-        <v>803</v>
+        <v>42</v>
       </c>
     </row>
     <row r="678" spans="1:17" x14ac:dyDescent="0.2">
@@ -32064,7 +32064,7 @@
       </c>
       <c r="Q678">
         <f ca="1"/>
-        <v>422</v>
+        <v>799</v>
       </c>
     </row>
     <row r="679" spans="1:17" x14ac:dyDescent="0.2">
@@ -32111,7 +32111,7 @@
       </c>
       <c r="Q679">
         <f ca="1"/>
-        <v>393</v>
+        <v>657</v>
       </c>
     </row>
     <row r="680" spans="1:17" x14ac:dyDescent="0.2">
@@ -32158,7 +32158,7 @@
       </c>
       <c r="Q680">
         <f ca="1"/>
-        <v>497</v>
+        <v>167</v>
       </c>
     </row>
     <row r="681" spans="1:17" x14ac:dyDescent="0.2">
@@ -32205,7 +32205,7 @@
       </c>
       <c r="Q681">
         <f ca="1"/>
-        <v>499</v>
+        <v>852</v>
       </c>
     </row>
     <row r="682" spans="1:17" x14ac:dyDescent="0.2">
@@ -32252,7 +32252,7 @@
       </c>
       <c r="Q682">
         <f ca="1"/>
-        <v>754</v>
+        <v>594</v>
       </c>
     </row>
     <row r="683" spans="1:17" x14ac:dyDescent="0.2">
@@ -32299,7 +32299,7 @@
       </c>
       <c r="Q683">
         <f ca="1"/>
-        <v>540</v>
+        <v>711</v>
       </c>
     </row>
     <row r="684" spans="1:17" x14ac:dyDescent="0.2">
@@ -32346,7 +32346,7 @@
       </c>
       <c r="Q684">
         <f ca="1"/>
-        <v>140</v>
+        <v>300</v>
       </c>
     </row>
     <row r="685" spans="1:17" x14ac:dyDescent="0.2">
@@ -32393,7 +32393,7 @@
       </c>
       <c r="Q685">
         <f ca="1"/>
-        <v>768</v>
+        <v>463</v>
       </c>
     </row>
     <row r="686" spans="1:17" x14ac:dyDescent="0.2">
@@ -32440,7 +32440,7 @@
       </c>
       <c r="Q686">
         <f ca="1"/>
-        <v>514</v>
+        <v>326</v>
       </c>
     </row>
     <row r="687" spans="1:17" x14ac:dyDescent="0.2">
@@ -32487,7 +32487,7 @@
       </c>
       <c r="Q687">
         <f ca="1"/>
-        <v>350</v>
+        <v>744</v>
       </c>
     </row>
     <row r="688" spans="1:17" x14ac:dyDescent="0.2">
@@ -32534,7 +32534,7 @@
       </c>
       <c r="Q688">
         <f ca="1"/>
-        <v>734</v>
+        <v>45</v>
       </c>
     </row>
     <row r="689" spans="1:17" x14ac:dyDescent="0.2">
@@ -32581,7 +32581,7 @@
       </c>
       <c r="Q689">
         <f ca="1"/>
-        <v>385</v>
+        <v>710</v>
       </c>
     </row>
     <row r="690" spans="1:17" x14ac:dyDescent="0.2">
@@ -32617,7 +32617,7 @@
       </c>
       <c r="L690">
         <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <v>0.88698614320771829</v>
       </c>
       <c r="M690" t="s">
         <v>14</v>
@@ -32628,7 +32628,7 @@
       </c>
       <c r="Q690">
         <f ca="1"/>
-        <v>434</v>
+        <v>10</v>
       </c>
     </row>
     <row r="691" spans="1:17" x14ac:dyDescent="0.2">
@@ -32675,7 +32675,7 @@
       </c>
       <c r="Q691">
         <f ca="1"/>
-        <v>156</v>
+        <v>119</v>
       </c>
     </row>
     <row r="692" spans="1:17" x14ac:dyDescent="0.2">
@@ -32722,7 +32722,7 @@
       </c>
       <c r="Q692">
         <f ca="1"/>
-        <v>117</v>
+        <v>793</v>
       </c>
     </row>
     <row r="693" spans="1:17" x14ac:dyDescent="0.2">
@@ -32758,7 +32758,7 @@
       </c>
       <c r="L693">
         <f t="shared" ca="1" si="20"/>
-        <v>2.5349611389170001</v>
+        <v>0</v>
       </c>
       <c r="M693" t="s">
         <v>14</v>
@@ -32769,7 +32769,7 @@
       </c>
       <c r="Q693">
         <f ca="1"/>
-        <v>11</v>
+        <v>576</v>
       </c>
     </row>
     <row r="694" spans="1:17" x14ac:dyDescent="0.2">
@@ -32816,7 +32816,7 @@
       </c>
       <c r="Q694">
         <f ca="1"/>
-        <v>512</v>
+        <v>805</v>
       </c>
     </row>
     <row r="695" spans="1:17" x14ac:dyDescent="0.2">
@@ -32863,7 +32863,7 @@
       </c>
       <c r="Q695">
         <f ca="1"/>
-        <v>683</v>
+        <v>230</v>
       </c>
     </row>
     <row r="696" spans="1:17" x14ac:dyDescent="0.2">
@@ -32910,7 +32910,7 @@
       </c>
       <c r="Q696">
         <f ca="1"/>
-        <v>195</v>
+        <v>235</v>
       </c>
     </row>
     <row r="697" spans="1:17" x14ac:dyDescent="0.2">
@@ -32957,7 +32957,7 @@
       </c>
       <c r="Q697">
         <f ca="1"/>
-        <v>78</v>
+        <v>632</v>
       </c>
     </row>
     <row r="698" spans="1:17" x14ac:dyDescent="0.2">
@@ -33004,7 +33004,7 @@
       </c>
       <c r="Q698">
         <f ca="1"/>
-        <v>509</v>
+        <v>223</v>
       </c>
     </row>
     <row r="699" spans="1:17" x14ac:dyDescent="0.2">
@@ -33040,7 +33040,7 @@
       </c>
       <c r="L699">
         <f t="shared" ca="1" si="20"/>
-        <v>1.3946200172021688</v>
+        <v>0</v>
       </c>
       <c r="M699" t="s">
         <v>14</v>
@@ -33051,7 +33051,7 @@
       </c>
       <c r="Q699">
         <f ca="1"/>
-        <v>48</v>
+        <v>297</v>
       </c>
     </row>
     <row r="700" spans="1:17" x14ac:dyDescent="0.2">
@@ -33098,7 +33098,7 @@
       </c>
       <c r="Q700">
         <f ca="1"/>
-        <v>747</v>
+        <v>233</v>
       </c>
     </row>
     <row r="701" spans="1:17" x14ac:dyDescent="0.2">
@@ -33145,7 +33145,7 @@
       </c>
       <c r="Q701">
         <f ca="1"/>
-        <v>205</v>
+        <v>259</v>
       </c>
     </row>
     <row r="702" spans="1:17" x14ac:dyDescent="0.2">
@@ -33192,7 +33192,7 @@
       </c>
       <c r="Q702">
         <f ca="1"/>
-        <v>238</v>
+        <v>808</v>
       </c>
     </row>
     <row r="703" spans="1:17" x14ac:dyDescent="0.2">
@@ -33239,7 +33239,7 @@
       </c>
       <c r="Q703">
         <f ca="1"/>
-        <v>357</v>
+        <v>291</v>
       </c>
     </row>
     <row r="704" spans="1:17" x14ac:dyDescent="0.2">
@@ -33275,7 +33275,7 @@
       </c>
       <c r="L704">
         <f t="shared" ca="1" si="20"/>
-        <v>0.74278826492413408</v>
+        <v>0</v>
       </c>
       <c r="M704" t="s">
         <v>14</v>
@@ -33286,7 +33286,7 @@
       </c>
       <c r="Q704">
         <f ca="1"/>
-        <v>19</v>
+        <v>841</v>
       </c>
     </row>
     <row r="705" spans="1:17" x14ac:dyDescent="0.2">
@@ -33333,7 +33333,7 @@
       </c>
       <c r="Q705">
         <f ca="1"/>
-        <v>400</v>
+        <v>255</v>
       </c>
     </row>
     <row r="706" spans="1:17" x14ac:dyDescent="0.2">
@@ -33369,7 +33369,7 @@
       </c>
       <c r="L706">
         <f t="shared" ca="1" si="20"/>
-        <v>1.1681324292945292</v>
+        <v>0</v>
       </c>
       <c r="M706" t="s">
         <v>14</v>
@@ -33380,7 +33380,7 @@
       </c>
       <c r="Q706">
         <f ca="1"/>
-        <v>26</v>
+        <v>370</v>
       </c>
     </row>
     <row r="707" spans="1:17" x14ac:dyDescent="0.2">
@@ -33427,7 +33427,7 @@
       </c>
       <c r="Q707">
         <f ca="1"/>
-        <v>763</v>
+        <v>699</v>
       </c>
     </row>
     <row r="708" spans="1:17" x14ac:dyDescent="0.2">
@@ -33474,7 +33474,7 @@
       </c>
       <c r="Q708">
         <f ca="1"/>
-        <v>170</v>
+        <v>217</v>
       </c>
     </row>
     <row r="709" spans="1:17" x14ac:dyDescent="0.2">
@@ -33521,7 +33521,7 @@
       </c>
       <c r="Q709">
         <f ca="1"/>
-        <v>781</v>
+        <v>192</v>
       </c>
     </row>
     <row r="710" spans="1:17" x14ac:dyDescent="0.2">
@@ -33568,7 +33568,7 @@
       </c>
       <c r="Q710">
         <f ca="1"/>
-        <v>661</v>
+        <v>205</v>
       </c>
     </row>
     <row r="711" spans="1:17" x14ac:dyDescent="0.2">
@@ -33615,7 +33615,7 @@
       </c>
       <c r="Q711">
         <f ca="1"/>
-        <v>482</v>
+        <v>521</v>
       </c>
     </row>
     <row r="712" spans="1:17" x14ac:dyDescent="0.2">
@@ -33662,7 +33662,7 @@
       </c>
       <c r="Q712">
         <f ca="1"/>
-        <v>160</v>
+        <v>772</v>
       </c>
     </row>
     <row r="713" spans="1:17" x14ac:dyDescent="0.2">
@@ -33709,7 +33709,7 @@
       </c>
       <c r="Q713">
         <f ca="1"/>
-        <v>721</v>
+        <v>596</v>
       </c>
     </row>
     <row r="714" spans="1:17" x14ac:dyDescent="0.2">
@@ -33756,7 +33756,7 @@
       </c>
       <c r="Q714">
         <f ca="1"/>
-        <v>353</v>
+        <v>634</v>
       </c>
     </row>
     <row r="715" spans="1:17" x14ac:dyDescent="0.2">
@@ -33791,7 +33791,7 @@
         <v>0</v>
       </c>
       <c r="L715">
-        <f t="shared" ref="L715:L778" ca="1" si="22">IF(COUNTIF(P$10:P$69, Q715)&gt;0, RAND()*3, 0)</f>
+        <f t="shared" ref="L715:L778" ca="1" si="22">IF(COUNTIF(P$10:P$29, Q715)&gt;0, RAND()*3, 0)</f>
         <v>0</v>
       </c>
       <c r="M715" t="s">
@@ -33850,7 +33850,7 @@
       </c>
       <c r="Q716">
         <f ca="1"/>
-        <v>775</v>
+        <v>33</v>
       </c>
     </row>
     <row r="717" spans="1:17" x14ac:dyDescent="0.2">
@@ -33897,7 +33897,7 @@
       </c>
       <c r="Q717">
         <f ca="1"/>
-        <v>627</v>
+        <v>604</v>
       </c>
     </row>
     <row r="718" spans="1:17" x14ac:dyDescent="0.2">
@@ -33944,7 +33944,7 @@
       </c>
       <c r="Q718">
         <f ca="1"/>
-        <v>542</v>
+        <v>140</v>
       </c>
     </row>
     <row r="719" spans="1:17" x14ac:dyDescent="0.2">
@@ -33991,7 +33991,7 @@
       </c>
       <c r="Q719">
         <f ca="1"/>
-        <v>702</v>
+        <v>423</v>
       </c>
     </row>
     <row r="720" spans="1:17" x14ac:dyDescent="0.2">
@@ -34038,7 +34038,7 @@
       </c>
       <c r="Q720">
         <f ca="1"/>
-        <v>445</v>
+        <v>600</v>
       </c>
     </row>
     <row r="721" spans="1:17" x14ac:dyDescent="0.2">
@@ -34085,7 +34085,7 @@
       </c>
       <c r="Q721">
         <f ca="1"/>
-        <v>548</v>
+        <v>508</v>
       </c>
     </row>
     <row r="722" spans="1:17" x14ac:dyDescent="0.2">
@@ -34132,7 +34132,7 @@
       </c>
       <c r="Q722">
         <f ca="1"/>
-        <v>787</v>
+        <v>157</v>
       </c>
     </row>
     <row r="723" spans="1:17" x14ac:dyDescent="0.2">
@@ -34179,7 +34179,7 @@
       </c>
       <c r="Q723">
         <f ca="1"/>
-        <v>381</v>
+        <v>858</v>
       </c>
     </row>
     <row r="724" spans="1:17" x14ac:dyDescent="0.2">
@@ -34226,7 +34226,7 @@
       </c>
       <c r="Q724">
         <f ca="1"/>
-        <v>522</v>
+        <v>325</v>
       </c>
     </row>
     <row r="725" spans="1:17" x14ac:dyDescent="0.2">
@@ -34262,7 +34262,7 @@
       </c>
       <c r="L725">
         <f t="shared" ca="1" si="22"/>
-        <v>0.74918640591214236</v>
+        <v>0</v>
       </c>
       <c r="M725" t="s">
         <v>14</v>
@@ -34273,7 +34273,7 @@
       </c>
       <c r="Q725">
         <f ca="1"/>
-        <v>30</v>
+        <v>396</v>
       </c>
     </row>
     <row r="726" spans="1:17" x14ac:dyDescent="0.2">
@@ -34320,7 +34320,7 @@
       </c>
       <c r="Q726">
         <f ca="1"/>
-        <v>418</v>
+        <v>293</v>
       </c>
     </row>
     <row r="727" spans="1:17" x14ac:dyDescent="0.2">
@@ -34367,7 +34367,7 @@
       </c>
       <c r="Q727">
         <f ca="1"/>
-        <v>794</v>
+        <v>142</v>
       </c>
     </row>
     <row r="728" spans="1:17" x14ac:dyDescent="0.2">
@@ -34414,7 +34414,7 @@
       </c>
       <c r="Q728">
         <f ca="1"/>
-        <v>399</v>
+        <v>702</v>
       </c>
     </row>
     <row r="729" spans="1:17" x14ac:dyDescent="0.2">
@@ -34461,7 +34461,7 @@
       </c>
       <c r="Q729">
         <f ca="1"/>
-        <v>292</v>
+        <v>69</v>
       </c>
     </row>
     <row r="730" spans="1:17" x14ac:dyDescent="0.2">
@@ -34508,7 +34508,7 @@
       </c>
       <c r="Q730">
         <f ca="1"/>
-        <v>129</v>
+        <v>258</v>
       </c>
     </row>
     <row r="731" spans="1:17" x14ac:dyDescent="0.2">
@@ -34555,7 +34555,7 @@
       </c>
       <c r="Q731">
         <f ca="1"/>
-        <v>604</v>
+        <v>338</v>
       </c>
     </row>
     <row r="732" spans="1:17" x14ac:dyDescent="0.2">
@@ -34602,7 +34602,7 @@
       </c>
       <c r="Q732">
         <f ca="1"/>
-        <v>456</v>
+        <v>242</v>
       </c>
     </row>
     <row r="733" spans="1:17" x14ac:dyDescent="0.2">
@@ -34649,7 +34649,7 @@
       </c>
       <c r="Q733">
         <f ca="1"/>
-        <v>679</v>
+        <v>820</v>
       </c>
     </row>
     <row r="734" spans="1:17" x14ac:dyDescent="0.2">
@@ -34696,7 +34696,7 @@
       </c>
       <c r="Q734">
         <f ca="1"/>
-        <v>263</v>
+        <v>135</v>
       </c>
     </row>
     <row r="735" spans="1:17" x14ac:dyDescent="0.2">
@@ -34743,7 +34743,7 @@
       </c>
       <c r="Q735">
         <f ca="1"/>
-        <v>74</v>
+        <v>288</v>
       </c>
     </row>
     <row r="736" spans="1:17" x14ac:dyDescent="0.2">
@@ -34790,7 +34790,7 @@
       </c>
       <c r="Q736">
         <f ca="1"/>
-        <v>596</v>
+        <v>117</v>
       </c>
     </row>
     <row r="737" spans="1:17" x14ac:dyDescent="0.2">
@@ -34837,7 +34837,7 @@
       </c>
       <c r="Q737">
         <f ca="1"/>
-        <v>288</v>
+        <v>607</v>
       </c>
     </row>
     <row r="738" spans="1:17" x14ac:dyDescent="0.2">
@@ -34884,7 +34884,7 @@
       </c>
       <c r="Q738">
         <f ca="1"/>
-        <v>605</v>
+        <v>525</v>
       </c>
     </row>
     <row r="739" spans="1:17" x14ac:dyDescent="0.2">
@@ -34931,7 +34931,7 @@
       </c>
       <c r="Q739">
         <f ca="1"/>
-        <v>855</v>
+        <v>177</v>
       </c>
     </row>
     <row r="740" spans="1:17" x14ac:dyDescent="0.2">
@@ -34978,7 +34978,7 @@
       </c>
       <c r="Q740">
         <f ca="1"/>
-        <v>145</v>
+        <v>557</v>
       </c>
     </row>
     <row r="741" spans="1:17" x14ac:dyDescent="0.2">
@@ -35014,7 +35014,7 @@
       </c>
       <c r="L741">
         <f t="shared" ca="1" si="22"/>
-        <v>0</v>
+        <v>0.89891858195104613</v>
       </c>
       <c r="M741" t="s">
         <v>14</v>
@@ -35025,7 +35025,7 @@
       </c>
       <c r="Q741">
         <f ca="1"/>
-        <v>439</v>
+        <v>16</v>
       </c>
     </row>
     <row r="742" spans="1:17" x14ac:dyDescent="0.2">
@@ -35072,7 +35072,7 @@
       </c>
       <c r="Q742">
         <f ca="1"/>
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="743" spans="1:17" x14ac:dyDescent="0.2">
@@ -35119,7 +35119,7 @@
       </c>
       <c r="Q743">
         <f ca="1"/>
-        <v>290</v>
+        <v>195</v>
       </c>
     </row>
     <row r="744" spans="1:17" x14ac:dyDescent="0.2">
@@ -35155,7 +35155,7 @@
       </c>
       <c r="L744">
         <f t="shared" ca="1" si="22"/>
-        <v>0</v>
+        <v>2.389981720235729</v>
       </c>
       <c r="M744" t="s">
         <v>14</v>
@@ -35166,7 +35166,7 @@
       </c>
       <c r="Q744">
         <f ca="1"/>
-        <v>125</v>
+        <v>19</v>
       </c>
     </row>
     <row r="745" spans="1:17" x14ac:dyDescent="0.2">
@@ -35213,7 +35213,7 @@
       </c>
       <c r="Q745">
         <f ca="1"/>
-        <v>848</v>
+        <v>53</v>
       </c>
     </row>
     <row r="746" spans="1:17" x14ac:dyDescent="0.2">
@@ -35260,7 +35260,7 @@
       </c>
       <c r="Q746">
         <f ca="1"/>
-        <v>191</v>
+        <v>558</v>
       </c>
     </row>
     <row r="747" spans="1:17" x14ac:dyDescent="0.2">
@@ -35307,7 +35307,7 @@
       </c>
       <c r="Q747">
         <f ca="1"/>
-        <v>169</v>
+        <v>336</v>
       </c>
     </row>
     <row r="748" spans="1:17" x14ac:dyDescent="0.2">
@@ -35354,7 +35354,7 @@
       </c>
       <c r="Q748">
         <f ca="1"/>
-        <v>852</v>
+        <v>768</v>
       </c>
     </row>
     <row r="749" spans="1:17" x14ac:dyDescent="0.2">
@@ -35401,7 +35401,7 @@
       </c>
       <c r="Q749">
         <f ca="1"/>
-        <v>577</v>
+        <v>829</v>
       </c>
     </row>
     <row r="750" spans="1:17" x14ac:dyDescent="0.2">
@@ -35448,7 +35448,7 @@
       </c>
       <c r="Q750">
         <f ca="1"/>
-        <v>88</v>
+        <v>574</v>
       </c>
     </row>
     <row r="751" spans="1:17" x14ac:dyDescent="0.2">
@@ -35495,7 +35495,7 @@
       </c>
       <c r="Q751">
         <f ca="1"/>
-        <v>632</v>
+        <v>213</v>
       </c>
     </row>
     <row r="752" spans="1:17" x14ac:dyDescent="0.2">
@@ -35542,7 +35542,7 @@
       </c>
       <c r="Q752">
         <f ca="1"/>
-        <v>764</v>
+        <v>831</v>
       </c>
     </row>
     <row r="753" spans="1:17" x14ac:dyDescent="0.2">
@@ -35589,7 +35589,7 @@
       </c>
       <c r="Q753">
         <f ca="1"/>
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="754" spans="1:17" x14ac:dyDescent="0.2">
@@ -35636,7 +35636,7 @@
       </c>
       <c r="Q754">
         <f ca="1"/>
-        <v>567</v>
+        <v>411</v>
       </c>
     </row>
     <row r="755" spans="1:17" x14ac:dyDescent="0.2">
@@ -35683,7 +35683,7 @@
       </c>
       <c r="Q755">
         <f ca="1"/>
-        <v>585</v>
+        <v>642</v>
       </c>
     </row>
     <row r="756" spans="1:17" x14ac:dyDescent="0.2">
@@ -35730,7 +35730,7 @@
       </c>
       <c r="Q756">
         <f ca="1"/>
-        <v>113</v>
+        <v>663</v>
       </c>
     </row>
     <row r="757" spans="1:17" x14ac:dyDescent="0.2">
@@ -35777,7 +35777,7 @@
       </c>
       <c r="Q757">
         <f ca="1"/>
-        <v>226</v>
+        <v>839</v>
       </c>
     </row>
     <row r="758" spans="1:17" x14ac:dyDescent="0.2">
@@ -35824,7 +35824,7 @@
       </c>
       <c r="Q758">
         <f ca="1"/>
-        <v>361</v>
+        <v>194</v>
       </c>
     </row>
     <row r="759" spans="1:17" x14ac:dyDescent="0.2">
@@ -35871,7 +35871,7 @@
       </c>
       <c r="Q759">
         <f ca="1"/>
-        <v>466</v>
+        <v>342</v>
       </c>
     </row>
     <row r="760" spans="1:17" x14ac:dyDescent="0.2">
@@ -35918,7 +35918,7 @@
       </c>
       <c r="Q760">
         <f ca="1"/>
-        <v>132</v>
+        <v>311</v>
       </c>
     </row>
     <row r="761" spans="1:17" x14ac:dyDescent="0.2">
@@ -35954,7 +35954,7 @@
       </c>
       <c r="L761">
         <f t="shared" ca="1" si="22"/>
-        <v>2.0138931766747685</v>
+        <v>0</v>
       </c>
       <c r="M761" t="s">
         <v>14</v>
@@ -35965,7 +35965,7 @@
       </c>
       <c r="Q761">
         <f ca="1"/>
-        <v>7</v>
+        <v>131</v>
       </c>
     </row>
     <row r="762" spans="1:17" x14ac:dyDescent="0.2">
@@ -36012,7 +36012,7 @@
       </c>
       <c r="Q762">
         <f ca="1"/>
-        <v>366</v>
+        <v>671</v>
       </c>
     </row>
     <row r="763" spans="1:17" x14ac:dyDescent="0.2">
@@ -36059,7 +36059,7 @@
       </c>
       <c r="Q763">
         <f ca="1"/>
-        <v>606</v>
+        <v>334</v>
       </c>
     </row>
     <row r="764" spans="1:17" x14ac:dyDescent="0.2">
@@ -36106,7 +36106,7 @@
       </c>
       <c r="Q764">
         <f ca="1"/>
-        <v>127</v>
+        <v>55</v>
       </c>
     </row>
     <row r="765" spans="1:17" x14ac:dyDescent="0.2">
@@ -36153,7 +36153,7 @@
       </c>
       <c r="Q765">
         <f ca="1"/>
-        <v>417</v>
+        <v>561</v>
       </c>
     </row>
     <row r="766" spans="1:17" x14ac:dyDescent="0.2">
@@ -36200,7 +36200,7 @@
       </c>
       <c r="Q766">
         <f ca="1"/>
-        <v>245</v>
+        <v>57</v>
       </c>
     </row>
     <row r="767" spans="1:17" x14ac:dyDescent="0.2">
@@ -36247,7 +36247,7 @@
       </c>
       <c r="Q767">
         <f ca="1"/>
-        <v>186</v>
+        <v>408</v>
       </c>
     </row>
     <row r="768" spans="1:17" x14ac:dyDescent="0.2">
@@ -36294,7 +36294,7 @@
       </c>
       <c r="Q768">
         <f ca="1"/>
-        <v>599</v>
+        <v>164</v>
       </c>
     </row>
     <row r="769" spans="1:17" x14ac:dyDescent="0.2">
@@ -36341,7 +36341,7 @@
       </c>
       <c r="Q769">
         <f ca="1"/>
-        <v>850</v>
+        <v>673</v>
       </c>
     </row>
     <row r="770" spans="1:17" x14ac:dyDescent="0.2">
@@ -36388,7 +36388,7 @@
       </c>
       <c r="Q770">
         <f ca="1"/>
-        <v>390</v>
+        <v>253</v>
       </c>
     </row>
     <row r="771" spans="1:17" x14ac:dyDescent="0.2">
@@ -36435,7 +36435,7 @@
       </c>
       <c r="Q771">
         <f ca="1"/>
-        <v>254</v>
+        <v>543</v>
       </c>
     </row>
     <row r="772" spans="1:17" x14ac:dyDescent="0.2">
@@ -36482,7 +36482,7 @@
       </c>
       <c r="Q772">
         <f ca="1"/>
-        <v>558</v>
+        <v>496</v>
       </c>
     </row>
     <row r="773" spans="1:17" x14ac:dyDescent="0.2">
@@ -36529,7 +36529,7 @@
       </c>
       <c r="Q773">
         <f ca="1"/>
-        <v>831</v>
+        <v>399</v>
       </c>
     </row>
     <row r="774" spans="1:17" x14ac:dyDescent="0.2">
@@ -36576,7 +36576,7 @@
       </c>
       <c r="Q774">
         <f ca="1"/>
-        <v>151</v>
+        <v>480</v>
       </c>
     </row>
     <row r="775" spans="1:17" x14ac:dyDescent="0.2">
@@ -36623,7 +36623,7 @@
       </c>
       <c r="Q775">
         <f ca="1"/>
-        <v>285</v>
+        <v>91</v>
       </c>
     </row>
     <row r="776" spans="1:17" x14ac:dyDescent="0.2">
@@ -36670,7 +36670,7 @@
       </c>
       <c r="Q776">
         <f ca="1"/>
-        <v>370</v>
+        <v>762</v>
       </c>
     </row>
     <row r="777" spans="1:17" x14ac:dyDescent="0.2">
@@ -36717,7 +36717,7 @@
       </c>
       <c r="Q777">
         <f ca="1"/>
-        <v>62</v>
+        <v>36</v>
       </c>
     </row>
     <row r="778" spans="1:17" x14ac:dyDescent="0.2">
@@ -36764,7 +36764,7 @@
       </c>
       <c r="Q778">
         <f ca="1"/>
-        <v>550</v>
+        <v>555</v>
       </c>
     </row>
     <row r="779" spans="1:17" x14ac:dyDescent="0.2">
@@ -36799,8 +36799,8 @@
         <v>0</v>
       </c>
       <c r="L779">
-        <f t="shared" ref="L779:L842" ca="1" si="24">IF(COUNTIF(P$10:P$69, Q779)&gt;0, RAND()*3, 0)</f>
-        <v>0.79425079694628842</v>
+        <f t="shared" ref="L779:L842" ca="1" si="24">IF(COUNTIF(P$10:P$29, Q779)&gt;0, RAND()*3, 0)</f>
+        <v>0</v>
       </c>
       <c r="M779" t="s">
         <v>14</v>
@@ -36811,7 +36811,7 @@
       </c>
       <c r="Q779">
         <f ca="1"/>
-        <v>32</v>
+        <v>705</v>
       </c>
     </row>
     <row r="780" spans="1:17" x14ac:dyDescent="0.2">
@@ -36858,7 +36858,7 @@
       </c>
       <c r="Q780">
         <f ca="1"/>
-        <v>858</v>
+        <v>214</v>
       </c>
     </row>
     <row r="781" spans="1:17" x14ac:dyDescent="0.2">
@@ -36905,7 +36905,7 @@
       </c>
       <c r="Q781">
         <f ca="1"/>
-        <v>800</v>
+        <v>384</v>
       </c>
     </row>
     <row r="782" spans="1:17" x14ac:dyDescent="0.2">
@@ -36952,7 +36952,7 @@
       </c>
       <c r="Q782">
         <f ca="1"/>
-        <v>507</v>
+        <v>784</v>
       </c>
     </row>
     <row r="783" spans="1:17" x14ac:dyDescent="0.2">
@@ -36999,7 +36999,7 @@
       </c>
       <c r="Q783">
         <f ca="1"/>
-        <v>583</v>
+        <v>660</v>
       </c>
     </row>
     <row r="784" spans="1:17" x14ac:dyDescent="0.2">
@@ -37046,7 +37046,7 @@
       </c>
       <c r="Q784">
         <f ca="1"/>
-        <v>382</v>
+        <v>427</v>
       </c>
     </row>
     <row r="785" spans="1:17" x14ac:dyDescent="0.2">
@@ -37093,7 +37093,7 @@
       </c>
       <c r="Q785">
         <f ca="1"/>
-        <v>824</v>
+        <v>191</v>
       </c>
     </row>
     <row r="786" spans="1:17" x14ac:dyDescent="0.2">
@@ -37140,7 +37140,7 @@
       </c>
       <c r="Q786">
         <f ca="1"/>
-        <v>86</v>
+        <v>469</v>
       </c>
     </row>
     <row r="787" spans="1:17" x14ac:dyDescent="0.2">
@@ -37187,7 +37187,7 @@
       </c>
       <c r="Q787">
         <f ca="1"/>
-        <v>433</v>
+        <v>224</v>
       </c>
     </row>
     <row r="788" spans="1:17" x14ac:dyDescent="0.2">
@@ -37234,7 +37234,7 @@
       </c>
       <c r="Q788">
         <f ca="1"/>
-        <v>216</v>
+        <v>75</v>
       </c>
     </row>
     <row r="789" spans="1:17" x14ac:dyDescent="0.2">
@@ -37281,7 +37281,7 @@
       </c>
       <c r="Q789">
         <f ca="1"/>
-        <v>742</v>
+        <v>712</v>
       </c>
     </row>
     <row r="790" spans="1:17" x14ac:dyDescent="0.2">
@@ -37328,7 +37328,7 @@
       </c>
       <c r="Q790">
         <f ca="1"/>
-        <v>295</v>
+        <v>845</v>
       </c>
     </row>
     <row r="791" spans="1:17" x14ac:dyDescent="0.2">
@@ -37375,7 +37375,7 @@
       </c>
       <c r="Q791">
         <f ca="1"/>
-        <v>660</v>
+        <v>475</v>
       </c>
     </row>
     <row r="792" spans="1:17" x14ac:dyDescent="0.2">
@@ -37422,7 +37422,7 @@
       </c>
       <c r="Q792">
         <f ca="1"/>
-        <v>765</v>
+        <v>47</v>
       </c>
     </row>
     <row r="793" spans="1:17" x14ac:dyDescent="0.2">
@@ -37469,7 +37469,7 @@
       </c>
       <c r="Q793">
         <f ca="1"/>
-        <v>741</v>
+        <v>776</v>
       </c>
     </row>
     <row r="794" spans="1:17" x14ac:dyDescent="0.2">
@@ -37516,7 +37516,7 @@
       </c>
       <c r="Q794">
         <f ca="1"/>
-        <v>212</v>
+        <v>62</v>
       </c>
     </row>
     <row r="795" spans="1:17" x14ac:dyDescent="0.2">
@@ -37563,7 +37563,7 @@
       </c>
       <c r="Q795">
         <f ca="1"/>
-        <v>462</v>
+        <v>767</v>
       </c>
     </row>
     <row r="796" spans="1:17" x14ac:dyDescent="0.2">
@@ -37610,7 +37610,7 @@
       </c>
       <c r="Q796">
         <f ca="1"/>
-        <v>588</v>
+        <v>718</v>
       </c>
     </row>
     <row r="797" spans="1:17" x14ac:dyDescent="0.2">
@@ -37657,7 +37657,7 @@
       </c>
       <c r="Q797">
         <f ca="1"/>
-        <v>314</v>
+        <v>44</v>
       </c>
     </row>
     <row r="798" spans="1:17" x14ac:dyDescent="0.2">
@@ -37704,7 +37704,7 @@
       </c>
       <c r="Q798">
         <f ca="1"/>
-        <v>532</v>
+        <v>25</v>
       </c>
     </row>
     <row r="799" spans="1:17" x14ac:dyDescent="0.2">
@@ -37751,7 +37751,7 @@
       </c>
       <c r="Q799">
         <f ca="1"/>
-        <v>397</v>
+        <v>683</v>
       </c>
     </row>
     <row r="800" spans="1:17" x14ac:dyDescent="0.2">
@@ -37798,7 +37798,7 @@
       </c>
       <c r="Q800">
         <f ca="1"/>
-        <v>749</v>
+        <v>168</v>
       </c>
     </row>
     <row r="801" spans="1:17" x14ac:dyDescent="0.2">
@@ -37845,7 +37845,7 @@
       </c>
       <c r="Q801">
         <f ca="1"/>
-        <v>428</v>
+        <v>343</v>
       </c>
     </row>
     <row r="802" spans="1:17" x14ac:dyDescent="0.2">
@@ -37892,7 +37892,7 @@
       </c>
       <c r="Q802">
         <f ca="1"/>
-        <v>161</v>
+        <v>356</v>
       </c>
     </row>
     <row r="803" spans="1:17" x14ac:dyDescent="0.2">
@@ -37939,7 +37939,7 @@
       </c>
       <c r="Q803">
         <f ca="1"/>
-        <v>308</v>
+        <v>426</v>
       </c>
     </row>
     <row r="804" spans="1:17" x14ac:dyDescent="0.2">
@@ -37975,7 +37975,7 @@
       </c>
       <c r="L804">
         <f t="shared" ca="1" si="24"/>
-        <v>2.1035257295332057</v>
+        <v>0</v>
       </c>
       <c r="M804" t="s">
         <v>14</v>
@@ -37986,7 +37986,7 @@
       </c>
       <c r="Q804">
         <f ca="1"/>
-        <v>55</v>
+        <v>344</v>
       </c>
     </row>
     <row r="805" spans="1:17" x14ac:dyDescent="0.2">
@@ -38033,7 +38033,7 @@
       </c>
       <c r="Q805">
         <f ca="1"/>
-        <v>743</v>
+        <v>433</v>
       </c>
     </row>
     <row r="806" spans="1:17" x14ac:dyDescent="0.2">
@@ -38080,7 +38080,7 @@
       </c>
       <c r="Q806">
         <f ca="1"/>
-        <v>380</v>
+        <v>487</v>
       </c>
     </row>
     <row r="807" spans="1:17" x14ac:dyDescent="0.2">
@@ -38116,7 +38116,7 @@
       </c>
       <c r="L807">
         <f t="shared" ca="1" si="24"/>
-        <v>0</v>
+        <v>0.93563983880116219</v>
       </c>
       <c r="M807" t="s">
         <v>14</v>
@@ -38127,7 +38127,7 @@
       </c>
       <c r="Q807">
         <f ca="1"/>
-        <v>701</v>
+        <v>18</v>
       </c>
     </row>
     <row r="808" spans="1:17" x14ac:dyDescent="0.2">
@@ -38174,7 +38174,7 @@
       </c>
       <c r="Q808">
         <f ca="1"/>
-        <v>77</v>
+        <v>178</v>
       </c>
     </row>
     <row r="809" spans="1:17" x14ac:dyDescent="0.2">
@@ -38221,7 +38221,7 @@
       </c>
       <c r="Q809">
         <f ca="1"/>
-        <v>790</v>
+        <v>318</v>
       </c>
     </row>
     <row r="810" spans="1:17" x14ac:dyDescent="0.2">
@@ -38268,7 +38268,7 @@
       </c>
       <c r="Q810">
         <f ca="1"/>
-        <v>95</v>
+        <v>296</v>
       </c>
     </row>
     <row r="811" spans="1:17" x14ac:dyDescent="0.2">
@@ -38315,7 +38315,7 @@
       </c>
       <c r="Q811">
         <f ca="1"/>
-        <v>712</v>
+        <v>827</v>
       </c>
     </row>
     <row r="812" spans="1:17" x14ac:dyDescent="0.2">
@@ -38362,7 +38362,7 @@
       </c>
       <c r="Q812">
         <f ca="1"/>
-        <v>147</v>
+        <v>545</v>
       </c>
     </row>
     <row r="813" spans="1:17" x14ac:dyDescent="0.2">
@@ -38409,7 +38409,7 @@
       </c>
       <c r="Q813">
         <f ca="1"/>
-        <v>65</v>
+        <v>625</v>
       </c>
     </row>
     <row r="814" spans="1:17" x14ac:dyDescent="0.2">
@@ -38456,7 +38456,7 @@
       </c>
       <c r="Q814">
         <f ca="1"/>
-        <v>755</v>
+        <v>298</v>
       </c>
     </row>
     <row r="815" spans="1:17" x14ac:dyDescent="0.2">
@@ -38503,7 +38503,7 @@
       </c>
       <c r="Q815">
         <f ca="1"/>
-        <v>633</v>
+        <v>314</v>
       </c>
     </row>
     <row r="816" spans="1:17" x14ac:dyDescent="0.2">
@@ -38550,7 +38550,7 @@
       </c>
       <c r="Q816">
         <f ca="1"/>
-        <v>699</v>
+        <v>585</v>
       </c>
     </row>
     <row r="817" spans="1:17" x14ac:dyDescent="0.2">
@@ -38597,7 +38597,7 @@
       </c>
       <c r="Q817">
         <f ca="1"/>
-        <v>365</v>
+        <v>560</v>
       </c>
     </row>
     <row r="818" spans="1:17" x14ac:dyDescent="0.2">
@@ -38644,7 +38644,7 @@
       </c>
       <c r="Q818">
         <f ca="1"/>
-        <v>248</v>
+        <v>800</v>
       </c>
     </row>
     <row r="819" spans="1:17" x14ac:dyDescent="0.2">
@@ -38691,7 +38691,7 @@
       </c>
       <c r="Q819">
         <f ca="1"/>
-        <v>166</v>
+        <v>225</v>
       </c>
     </row>
     <row r="820" spans="1:17" x14ac:dyDescent="0.2">
@@ -38738,7 +38738,7 @@
       </c>
       <c r="Q820">
         <f ca="1"/>
-        <v>597</v>
+        <v>547</v>
       </c>
     </row>
     <row r="821" spans="1:17" x14ac:dyDescent="0.2">
@@ -38785,7 +38785,7 @@
       </c>
       <c r="Q821">
         <f ca="1"/>
-        <v>713</v>
+        <v>764</v>
       </c>
     </row>
     <row r="822" spans="1:17" x14ac:dyDescent="0.2">
@@ -38832,7 +38832,7 @@
       </c>
       <c r="Q822">
         <f ca="1"/>
-        <v>700</v>
+        <v>160</v>
       </c>
     </row>
     <row r="823" spans="1:17" x14ac:dyDescent="0.2">
@@ -38879,7 +38879,7 @@
       </c>
       <c r="Q823">
         <f ca="1"/>
-        <v>628</v>
+        <v>246</v>
       </c>
     </row>
     <row r="824" spans="1:17" x14ac:dyDescent="0.2">
@@ -38926,7 +38926,7 @@
       </c>
       <c r="Q824">
         <f ca="1"/>
-        <v>600</v>
+        <v>251</v>
       </c>
     </row>
     <row r="825" spans="1:17" x14ac:dyDescent="0.2">
@@ -38973,7 +38973,7 @@
       </c>
       <c r="Q825">
         <f ca="1"/>
-        <v>104</v>
+        <v>661</v>
       </c>
     </row>
     <row r="826" spans="1:17" x14ac:dyDescent="0.2">
@@ -39020,7 +39020,7 @@
       </c>
       <c r="Q826">
         <f ca="1"/>
-        <v>271</v>
+        <v>443</v>
       </c>
     </row>
     <row r="827" spans="1:17" x14ac:dyDescent="0.2">
@@ -39067,7 +39067,7 @@
       </c>
       <c r="Q827">
         <f ca="1"/>
-        <v>344</v>
+        <v>93</v>
       </c>
     </row>
     <row r="828" spans="1:17" x14ac:dyDescent="0.2">
@@ -39114,7 +39114,7 @@
       </c>
       <c r="Q828">
         <f ca="1"/>
-        <v>707</v>
+        <v>367</v>
       </c>
     </row>
     <row r="829" spans="1:17" x14ac:dyDescent="0.2">
@@ -39161,7 +39161,7 @@
       </c>
       <c r="Q829">
         <f ca="1"/>
-        <v>360</v>
+        <v>751</v>
       </c>
     </row>
     <row r="830" spans="1:17" x14ac:dyDescent="0.2">
@@ -39208,7 +39208,7 @@
       </c>
       <c r="Q830">
         <f ca="1"/>
-        <v>735</v>
+        <v>35</v>
       </c>
     </row>
     <row r="831" spans="1:17" x14ac:dyDescent="0.2">
@@ -39255,7 +39255,7 @@
       </c>
       <c r="Q831">
         <f ca="1"/>
-        <v>298</v>
+        <v>66</v>
       </c>
     </row>
     <row r="832" spans="1:17" x14ac:dyDescent="0.2">
@@ -39302,7 +39302,7 @@
       </c>
       <c r="Q832">
         <f ca="1"/>
-        <v>631</v>
+        <v>163</v>
       </c>
     </row>
     <row r="833" spans="1:17" x14ac:dyDescent="0.2">
@@ -39338,7 +39338,7 @@
       </c>
       <c r="L833">
         <f t="shared" ca="1" si="24"/>
-        <v>2.3472357405304005</v>
+        <v>0</v>
       </c>
       <c r="M833" t="s">
         <v>14</v>
@@ -39349,7 +39349,7 @@
       </c>
       <c r="Q833">
         <f ca="1"/>
-        <v>54</v>
+        <v>127</v>
       </c>
     </row>
     <row r="834" spans="1:17" x14ac:dyDescent="0.2">
@@ -39396,7 +39396,7 @@
       </c>
       <c r="Q834">
         <f ca="1"/>
-        <v>575</v>
+        <v>495</v>
       </c>
     </row>
     <row r="835" spans="1:17" x14ac:dyDescent="0.2">
@@ -39443,7 +39443,7 @@
       </c>
       <c r="Q835">
         <f ca="1"/>
-        <v>663</v>
+        <v>473</v>
       </c>
     </row>
     <row r="836" spans="1:17" x14ac:dyDescent="0.2">
@@ -39490,7 +39490,7 @@
       </c>
       <c r="Q836">
         <f ca="1"/>
-        <v>71</v>
+        <v>824</v>
       </c>
     </row>
     <row r="837" spans="1:17" x14ac:dyDescent="0.2">
@@ -39526,7 +39526,7 @@
       </c>
       <c r="L837">
         <f t="shared" ca="1" si="24"/>
-        <v>2.4116537442813319</v>
+        <v>0</v>
       </c>
       <c r="M837" t="s">
         <v>14</v>
@@ -39537,7 +39537,7 @@
       </c>
       <c r="Q837">
         <f ca="1"/>
-        <v>4</v>
+        <v>687</v>
       </c>
     </row>
     <row r="838" spans="1:17" x14ac:dyDescent="0.2">
@@ -39584,7 +39584,7 @@
       </c>
       <c r="Q838">
         <f ca="1"/>
-        <v>813</v>
+        <v>104</v>
       </c>
     </row>
     <row r="839" spans="1:17" x14ac:dyDescent="0.2">
@@ -39631,7 +39631,7 @@
       </c>
       <c r="Q839">
         <f ca="1"/>
-        <v>652</v>
+        <v>451</v>
       </c>
     </row>
     <row r="840" spans="1:17" x14ac:dyDescent="0.2">
@@ -39678,7 +39678,7 @@
       </c>
       <c r="Q840">
         <f ca="1"/>
-        <v>833</v>
+        <v>553</v>
       </c>
     </row>
     <row r="841" spans="1:17" x14ac:dyDescent="0.2">
@@ -39725,7 +39725,7 @@
       </c>
       <c r="Q841">
         <f ca="1"/>
-        <v>777</v>
+        <v>482</v>
       </c>
     </row>
     <row r="842" spans="1:17" x14ac:dyDescent="0.2">
@@ -39772,7 +39772,7 @@
       </c>
       <c r="Q842">
         <f ca="1"/>
-        <v>233</v>
+        <v>322</v>
       </c>
     </row>
     <row r="843" spans="1:17" x14ac:dyDescent="0.2">
@@ -39807,7 +39807,7 @@
         <v>0</v>
       </c>
       <c r="L843">
-        <f t="shared" ref="L843:L880" ca="1" si="26">IF(COUNTIF(P$10:P$69, Q843)&gt;0, RAND()*3, 0)</f>
+        <f t="shared" ref="L843:L880" ca="1" si="26">IF(COUNTIF(P$10:P$29, Q843)&gt;0, RAND()*3, 0)</f>
         <v>0</v>
       </c>
       <c r="M843" t="s">
@@ -39819,7 +39819,7 @@
       </c>
       <c r="Q843">
         <f ca="1"/>
-        <v>362</v>
+        <v>554</v>
       </c>
     </row>
     <row r="844" spans="1:17" x14ac:dyDescent="0.2">
@@ -39866,7 +39866,7 @@
       </c>
       <c r="Q844">
         <f ca="1"/>
-        <v>625</v>
+        <v>670</v>
       </c>
     </row>
     <row r="845" spans="1:17" x14ac:dyDescent="0.2">
@@ -39913,7 +39913,7 @@
       </c>
       <c r="Q845">
         <f ca="1"/>
-        <v>697</v>
+        <v>717</v>
       </c>
     </row>
     <row r="846" spans="1:17" x14ac:dyDescent="0.2">
@@ -39960,7 +39960,7 @@
       </c>
       <c r="Q846">
         <f ca="1"/>
-        <v>333</v>
+        <v>619</v>
       </c>
     </row>
     <row r="847" spans="1:17" x14ac:dyDescent="0.2">
@@ -40007,7 +40007,7 @@
       </c>
       <c r="Q847">
         <f ca="1"/>
-        <v>618</v>
+        <v>821</v>
       </c>
     </row>
     <row r="848" spans="1:17" x14ac:dyDescent="0.2">
@@ -40054,7 +40054,7 @@
       </c>
       <c r="Q848">
         <f ca="1"/>
-        <v>93</v>
+        <v>454</v>
       </c>
     </row>
     <row r="849" spans="1:17" x14ac:dyDescent="0.2">
@@ -40101,7 +40101,7 @@
       </c>
       <c r="Q849">
         <f ca="1"/>
-        <v>203</v>
+        <v>664</v>
       </c>
     </row>
     <row r="850" spans="1:17" x14ac:dyDescent="0.2">
@@ -40148,7 +40148,7 @@
       </c>
       <c r="Q850">
         <f ca="1"/>
-        <v>341</v>
+        <v>611</v>
       </c>
     </row>
     <row r="851" spans="1:17" x14ac:dyDescent="0.2">
@@ -40195,7 +40195,7 @@
       </c>
       <c r="Q851">
         <f ca="1"/>
-        <v>804</v>
+        <v>351</v>
       </c>
     </row>
     <row r="852" spans="1:17" x14ac:dyDescent="0.2">
@@ -40242,7 +40242,7 @@
       </c>
       <c r="Q852">
         <f ca="1"/>
-        <v>363</v>
+        <v>797</v>
       </c>
     </row>
     <row r="853" spans="1:17" x14ac:dyDescent="0.2">
@@ -40289,7 +40289,7 @@
       </c>
       <c r="Q853">
         <f ca="1"/>
-        <v>106</v>
+        <v>627</v>
       </c>
     </row>
     <row r="854" spans="1:17" x14ac:dyDescent="0.2">
@@ -40336,7 +40336,7 @@
       </c>
       <c r="Q854">
         <f ca="1"/>
-        <v>64</v>
+        <v>704</v>
       </c>
     </row>
     <row r="855" spans="1:17" x14ac:dyDescent="0.2">
@@ -40383,7 +40383,7 @@
       </c>
       <c r="Q855">
         <f ca="1"/>
-        <v>829</v>
+        <v>817</v>
       </c>
     </row>
     <row r="856" spans="1:17" x14ac:dyDescent="0.2">
@@ -40430,7 +40430,7 @@
       </c>
       <c r="Q856">
         <f ca="1"/>
-        <v>483</v>
+        <v>73</v>
       </c>
     </row>
     <row r="857" spans="1:17" x14ac:dyDescent="0.2">
@@ -40477,7 +40477,7 @@
       </c>
       <c r="Q857">
         <f ca="1"/>
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="858" spans="1:17" x14ac:dyDescent="0.2">
@@ -40524,7 +40524,7 @@
       </c>
       <c r="Q858">
         <f ca="1"/>
-        <v>190</v>
+        <v>50</v>
       </c>
     </row>
     <row r="859" spans="1:17" x14ac:dyDescent="0.2">
@@ -40571,7 +40571,7 @@
       </c>
       <c r="Q859">
         <f ca="1"/>
-        <v>240</v>
+        <v>186</v>
       </c>
     </row>
     <row r="860" spans="1:17" x14ac:dyDescent="0.2">
@@ -40618,7 +40618,7 @@
       </c>
       <c r="Q860">
         <f ca="1"/>
-        <v>131</v>
+        <v>460</v>
       </c>
     </row>
     <row r="861" spans="1:17" x14ac:dyDescent="0.2">
@@ -40665,7 +40665,7 @@
       </c>
       <c r="Q861">
         <f ca="1"/>
-        <v>322</v>
+        <v>474</v>
       </c>
     </row>
     <row r="862" spans="1:17" x14ac:dyDescent="0.2">
@@ -40701,7 +40701,7 @@
       </c>
       <c r="L862">
         <f t="shared" ca="1" si="26"/>
-        <v>2.9079176131611009</v>
+        <v>1.8594949467354027</v>
       </c>
       <c r="M862" t="s">
         <v>14</v>
@@ -40712,7 +40712,7 @@
       </c>
       <c r="Q862">
         <f ca="1"/>
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="863" spans="1:17" x14ac:dyDescent="0.2">
@@ -40759,7 +40759,7 @@
       </c>
       <c r="Q863">
         <f ca="1"/>
-        <v>412</v>
+        <v>193</v>
       </c>
     </row>
     <row r="864" spans="1:17" x14ac:dyDescent="0.2">
@@ -40795,7 +40795,7 @@
       </c>
       <c r="L864">
         <f t="shared" ca="1" si="26"/>
-        <v>0</v>
+        <v>2.4626815931360801</v>
       </c>
       <c r="M864" t="s">
         <v>14</v>
@@ -40806,7 +40806,7 @@
       </c>
       <c r="Q864">
         <f ca="1"/>
-        <v>814</v>
+        <v>13</v>
       </c>
     </row>
     <row r="865" spans="1:17" x14ac:dyDescent="0.2">
@@ -40853,7 +40853,7 @@
       </c>
       <c r="Q865">
         <f ca="1"/>
-        <v>464</v>
+        <v>184</v>
       </c>
     </row>
     <row r="866" spans="1:17" x14ac:dyDescent="0.2">
@@ -40900,7 +40900,7 @@
       </c>
       <c r="Q866">
         <f ca="1"/>
-        <v>126</v>
+        <v>404</v>
       </c>
     </row>
     <row r="867" spans="1:17" x14ac:dyDescent="0.2">
@@ -40947,7 +40947,7 @@
       </c>
       <c r="Q867">
         <f ca="1"/>
-        <v>367</v>
+        <v>415</v>
       </c>
     </row>
     <row r="868" spans="1:17" x14ac:dyDescent="0.2">
@@ -40994,7 +40994,7 @@
       </c>
       <c r="Q868">
         <f ca="1"/>
-        <v>177</v>
+        <v>67</v>
       </c>
     </row>
     <row r="869" spans="1:17" x14ac:dyDescent="0.2">
@@ -41041,7 +41041,7 @@
       </c>
       <c r="Q869">
         <f ca="1"/>
-        <v>492</v>
+        <v>779</v>
       </c>
     </row>
     <row r="870" spans="1:17" x14ac:dyDescent="0.2">
@@ -41088,7 +41088,7 @@
       </c>
       <c r="Q870">
         <f ca="1"/>
-        <v>119</v>
+        <v>777</v>
       </c>
     </row>
     <row r="871" spans="1:17" x14ac:dyDescent="0.2">
@@ -41135,7 +41135,7 @@
       </c>
       <c r="Q871">
         <f ca="1"/>
-        <v>760</v>
+        <v>769</v>
       </c>
     </row>
     <row r="872" spans="1:17" x14ac:dyDescent="0.2">
@@ -41182,7 +41182,7 @@
       </c>
       <c r="Q872">
         <f ca="1"/>
-        <v>209</v>
+        <v>592</v>
       </c>
     </row>
     <row r="873" spans="1:17" x14ac:dyDescent="0.2">
@@ -41229,7 +41229,7 @@
       </c>
       <c r="Q873">
         <f ca="1"/>
-        <v>441</v>
+        <v>507</v>
       </c>
     </row>
     <row r="874" spans="1:17" x14ac:dyDescent="0.2">
@@ -41276,7 +41276,7 @@
       </c>
       <c r="Q874">
         <f ca="1"/>
-        <v>696</v>
+        <v>676</v>
       </c>
     </row>
     <row r="875" spans="1:17" x14ac:dyDescent="0.2">
@@ -41323,7 +41323,7 @@
       </c>
       <c r="Q875">
         <f ca="1"/>
-        <v>730</v>
+        <v>801</v>
       </c>
     </row>
     <row r="876" spans="1:17" x14ac:dyDescent="0.2">
@@ -41370,7 +41370,7 @@
       </c>
       <c r="Q876">
         <f ca="1"/>
-        <v>109</v>
+        <v>327</v>
       </c>
     </row>
     <row r="877" spans="1:17" x14ac:dyDescent="0.2">
@@ -41417,7 +41417,7 @@
       </c>
       <c r="Q877">
         <f ca="1"/>
-        <v>455</v>
+        <v>862</v>
       </c>
     </row>
     <row r="878" spans="1:17" x14ac:dyDescent="0.2">
@@ -41464,7 +41464,7 @@
       </c>
       <c r="Q878">
         <f ca="1"/>
-        <v>469</v>
+        <v>746</v>
       </c>
     </row>
     <row r="879" spans="1:17" x14ac:dyDescent="0.2">
@@ -41511,7 +41511,7 @@
       </c>
       <c r="Q879">
         <f ca="1"/>
-        <v>250</v>
+        <v>481</v>
       </c>
     </row>
     <row r="880" spans="1:17" x14ac:dyDescent="0.2">
@@ -41558,7 +41558,7 @@
       </c>
       <c r="Q880">
         <f ca="1"/>
-        <v>142</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
